--- a/BackTest/2019-10-19 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-19 BackTest ENJ.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.199999999999974</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-16.66666666666726</v>
+      </c>
       <c r="L12" t="n">
         <v>67.41</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.199999999999974</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>24.99999999999911</v>
+      </c>
       <c r="L13" t="n">
         <v>67.39000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.599999999999966</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-27.27272727272751</v>
+      </c>
       <c r="L14" t="n">
         <v>67.37000000000002</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.899999999999963</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>16.66666666666726</v>
+      </c>
       <c r="L15" t="n">
         <v>67.37000000000002</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.19999999999996</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-6.666666666666414</v>
+      </c>
       <c r="L16" t="n">
         <v>67.36000000000003</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.499999999999957</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>17.64705882352951</v>
+      </c>
       <c r="L17" t="n">
         <v>67.38000000000002</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.499999999999957</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>17.64705882352951</v>
+      </c>
       <c r="L18" t="n">
         <v>67.41000000000003</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.599999999999952</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>17.64705882352951</v>
+      </c>
       <c r="L19" t="n">
         <v>67.45000000000002</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.899999999999949</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-11.11111111111146</v>
+      </c>
       <c r="L20" t="n">
         <v>67.45000000000002</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.899999999999949</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-17.64705882352951</v>
+      </c>
       <c r="L21" t="n">
         <v>67.43000000000002</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.899999999999949</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-17.64705882352951</v>
+      </c>
       <c r="L22" t="n">
         <v>67.40000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.199999999999946</v>
       </c>
       <c r="K23" t="n">
-        <v>-6.250000000000195</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L23" t="n">
         <v>67.40000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>3.199999999999946</v>
       </c>
       <c r="K24" t="n">
-        <v>7.142857142856853</v>
+        <v>7.692307692307356</v>
       </c>
       <c r="L24" t="n">
         <v>67.44000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>3.499999999999943</v>
       </c>
       <c r="K25" t="n">
-        <v>-6.666666666666857</v>
+        <v>7.692307692307356</v>
       </c>
       <c r="L25" t="n">
         <v>67.42</v>
@@ -1564,7 +1586,7 @@
         <v>3.599999999999937</v>
       </c>
       <c r="K26" t="n">
-        <v>-3.44827586206883</v>
+        <v>-27.27272727272751</v>
       </c>
       <c r="L26" t="n">
         <v>67.42</v>
@@ -1613,7 +1635,7 @@
         <v>3.699999999999932</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>-16.66666666666726</v>
       </c>
       <c r="L27" t="n">
         <v>67.40000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>3.699999999999932</v>
       </c>
       <c r="K28" t="n">
-        <v>3.44827586206883</v>
+        <v>-27.27272727272751</v>
       </c>
       <c r="L28" t="n">
         <v>67.38</v>
@@ -1711,7 +1733,7 @@
         <v>3.699999999999932</v>
       </c>
       <c r="K29" t="n">
-        <v>3.44827586206883</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>67.34999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>3.799999999999926</v>
       </c>
       <c r="K30" t="n">
-        <v>-3.44827586206883</v>
+        <v>-11.11111111111076</v>
       </c>
       <c r="L30" t="n">
         <v>67.34</v>
@@ -1809,7 +1831,7 @@
         <v>3.89999999999992</v>
       </c>
       <c r="K31" t="n">
-        <v>-7.142857142857396</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>67.34</v>
@@ -1860,7 +1882,7 @@
         <v>3.999999999999915</v>
       </c>
       <c r="K32" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L32" t="n">
         <v>67.33000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>3.999999999999915</v>
       </c>
       <c r="K33" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L33" t="n">
         <v>67.29000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>3.999999999999915</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L34" t="n">
         <v>67.25000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>3.999999999999915</v>
       </c>
       <c r="K35" t="n">
-        <v>-14.28571428571448</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>67.24000000000002</v>
@@ -2064,7 +2086,7 @@
         <v>3.999999999999915</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>67.24000000000002</v>
@@ -2115,7 +2137,7 @@
         <v>3.999999999999915</v>
       </c>
       <c r="K37" t="n">
-        <v>-20.00000000000038</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L37" t="n">
         <v>67.23000000000003</v>
@@ -2166,7 +2188,7 @@
         <v>3.999999999999915</v>
       </c>
       <c r="K38" t="n">
-        <v>-20.00000000000038</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L38" t="n">
         <v>67.22000000000004</v>
@@ -2217,7 +2239,7 @@
         <v>3.999999999999915</v>
       </c>
       <c r="K39" t="n">
-        <v>-28.57142857142872</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>67.21000000000005</v>
@@ -2268,7 +2290,7 @@
         <v>3.999999999999915</v>
       </c>
       <c r="K40" t="n">
-        <v>-9.090909090908857</v>
+        <v>-100</v>
       </c>
       <c r="L40" t="n">
         <v>67.21000000000005</v>
@@ -2322,9 +2344,7 @@
       <c r="J41" t="n">
         <v>3.999999999999915</v>
       </c>
-      <c r="K41" t="n">
-        <v>-9.090909090908857</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>67.20000000000006</v>
       </c>
@@ -2382,7 +2402,7 @@
         <v>4.099999999999923</v>
       </c>
       <c r="K42" t="n">
-        <v>-16.66666666666726</v>
+        <v>-100</v>
       </c>
       <c r="L42" t="n">
         <v>67.19000000000005</v>
@@ -2441,7 +2461,7 @@
         <v>4.199999999999932</v>
       </c>
       <c r="K43" t="n">
-        <v>-39.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>67.19000000000005</v>
@@ -2500,7 +2520,7 @@
         <v>4.199999999999932</v>
       </c>
       <c r="K44" t="n">
-        <v>-39.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>67.19000000000005</v>
@@ -2559,7 +2579,7 @@
         <v>4.499999999999929</v>
       </c>
       <c r="K45" t="n">
-        <v>-39.99999999999972</v>
+        <v>-59.99999999999772</v>
       </c>
       <c r="L45" t="n">
         <v>67.16000000000005</v>
@@ -2616,7 +2636,7 @@
         <v>4.699999999999932</v>
       </c>
       <c r="K46" t="n">
-        <v>-45.45454545454569</v>
+        <v>-71.42857142856968</v>
       </c>
       <c r="L46" t="n">
         <v>67.11000000000004</v>
@@ -2673,7 +2693,7 @@
         <v>4.79999999999994</v>
       </c>
       <c r="K47" t="n">
-        <v>-63.6363636363634</v>
+        <v>-74.99999999999866</v>
       </c>
       <c r="L47" t="n">
         <v>67.05000000000004</v>
@@ -2730,7 +2750,7 @@
         <v>4.79999999999994</v>
       </c>
       <c r="K48" t="n">
-        <v>-63.6363636363634</v>
+        <v>-74.99999999999866</v>
       </c>
       <c r="L48" t="n">
         <v>66.99000000000004</v>
@@ -2789,7 +2809,7 @@
         <v>4.79999999999994</v>
       </c>
       <c r="K49" t="n">
-        <v>-63.6363636363634</v>
+        <v>-74.99999999999866</v>
       </c>
       <c r="L49" t="n">
         <v>66.93000000000004</v>
@@ -2852,7 +2872,7 @@
         <v>4.899999999999935</v>
       </c>
       <c r="K50" t="n">
-        <v>-63.6363636363634</v>
+        <v>-77.77777777777636</v>
       </c>
       <c r="L50" t="n">
         <v>66.86000000000004</v>
@@ -2913,7 +2933,7 @@
         <v>4.999999999999929</v>
       </c>
       <c r="K51" t="n">
-        <v>-81.81818181818042</v>
+        <v>-77.77777777777602</v>
       </c>
       <c r="L51" t="n">
         <v>66.78000000000003</v>
@@ -2974,7 +2994,7 @@
         <v>5.199999999999918</v>
       </c>
       <c r="K52" t="n">
-        <v>-50.00000000000059</v>
+        <v>-60.00000000000171</v>
       </c>
       <c r="L52" t="n">
         <v>66.73000000000003</v>
@@ -3035,7 +3055,7 @@
         <v>5.399999999999906</v>
       </c>
       <c r="K53" t="n">
-        <v>-57.14285714285728</v>
+        <v>-66.66666666666785</v>
       </c>
       <c r="L53" t="n">
         <v>66.65000000000002</v>
@@ -3096,7 +3116,7 @@
         <v>5.399999999999906</v>
       </c>
       <c r="K54" t="n">
-        <v>-57.14285714285728</v>
+        <v>-55.55555555555696</v>
       </c>
       <c r="L54" t="n">
         <v>66.57000000000002</v>
@@ -3157,7 +3177,7 @@
         <v>5.499999999999915</v>
       </c>
       <c r="K55" t="n">
-        <v>-60.00000000000038</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L55" t="n">
         <v>66.51000000000002</v>
@@ -3216,7 +3236,7 @@
         <v>5.599999999999923</v>
       </c>
       <c r="K56" t="n">
-        <v>-49.99999999999956</v>
+        <v>-24.99999999999911</v>
       </c>
       <c r="L56" t="n">
         <v>66.48</v>
@@ -3273,7 +3293,7 @@
         <v>5.799999999999926</v>
       </c>
       <c r="K57" t="n">
-        <v>-55.5555555555552</v>
+        <v>-39.99999999999972</v>
       </c>
       <c r="L57" t="n">
         <v>66.44000000000001</v>
@@ -3330,7 +3350,7 @@
         <v>5.89999999999992</v>
       </c>
       <c r="K58" t="n">
-        <v>-47.36842105263174</v>
+        <v>-27.27272727272751</v>
       </c>
       <c r="L58" t="n">
         <v>66.41</v>
@@ -3387,7 +3407,7 @@
         <v>5.89999999999992</v>
       </c>
       <c r="K59" t="n">
-        <v>-47.36842105263174</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L59" t="n">
         <v>66.38</v>
@@ -3444,7 +3464,7 @@
         <v>5.89999999999992</v>
       </c>
       <c r="K60" t="n">
-        <v>-47.36842105263174</v>
+        <v>-11.11111111111216</v>
       </c>
       <c r="L60" t="n">
         <v>66.35999999999999</v>
@@ -3501,7 +3521,7 @@
         <v>5.89999999999992</v>
       </c>
       <c r="K61" t="n">
-        <v>-47.36842105263174</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L61" t="n">
         <v>66.34999999999999</v>
@@ -3558,7 +3578,7 @@
         <v>6.199999999999918</v>
       </c>
       <c r="K62" t="n">
-        <v>-23.80952380952387</v>
+        <v>24.99999999999822</v>
       </c>
       <c r="L62" t="n">
         <v>66.34999999999999</v>
@@ -3615,7 +3635,7 @@
         <v>6.299999999999912</v>
       </c>
       <c r="K63" t="n">
-        <v>-33.33333333333378</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L63" t="n">
         <v>66.35999999999999</v>
@@ -3672,7 +3692,7 @@
         <v>6.299999999999912</v>
       </c>
       <c r="K64" t="n">
-        <v>-33.33333333333378</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L64" t="n">
         <v>66.36999999999999</v>
@@ -3723,7 +3743,7 @@
         <v>6.699999999999918</v>
       </c>
       <c r="K65" t="n">
-        <v>-36.36363636363707</v>
+        <v>-27.27272727272845</v>
       </c>
       <c r="L65" t="n">
         <v>66.34999999999999</v>
@@ -3774,7 +3794,7 @@
         <v>6.699999999999918</v>
       </c>
       <c r="K66" t="n">
-        <v>-30.00000000000064</v>
+        <v>-11.11111111111216</v>
       </c>
       <c r="L66" t="n">
         <v>66.32000000000001</v>
@@ -3825,7 +3845,7 @@
         <v>6.699999999999918</v>
       </c>
       <c r="K67" t="n">
-        <v>-26.31578947368453</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L67" t="n">
         <v>66.31</v>
@@ -3876,7 +3896,7 @@
         <v>6.699999999999918</v>
       </c>
       <c r="K68" t="n">
-        <v>-26.31578947368453</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L68" t="n">
         <v>66.29000000000001</v>
@@ -3927,7 +3947,7 @@
         <v>6.699999999999918</v>
       </c>
       <c r="K69" t="n">
-        <v>-26.31578947368453</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L69" t="n">
         <v>66.27000000000001</v>
@@ -3978,7 +3998,7 @@
         <v>6.799999999999926</v>
       </c>
       <c r="K70" t="n">
-        <v>-15.78947368421045</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L70" t="n">
         <v>66.26000000000002</v>
@@ -4029,7 +4049,7 @@
         <v>6.89999999999992</v>
       </c>
       <c r="K71" t="n">
-        <v>-5.263157894737314</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L71" t="n">
         <v>66.26000000000002</v>
@@ -4080,7 +4100,7 @@
         <v>7.099999999999923</v>
       </c>
       <c r="K72" t="n">
-        <v>-5.263157894736527</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>66.25000000000003</v>
@@ -4131,7 +4151,7 @@
         <v>7.299999999999926</v>
       </c>
       <c r="K73" t="n">
-        <v>15.78947368421021</v>
+        <v>20</v>
       </c>
       <c r="L73" t="n">
         <v>66.27000000000002</v>
@@ -4182,7 +4202,7 @@
         <v>7.399999999999935</v>
       </c>
       <c r="K74" t="n">
-        <v>9.999999999999289</v>
+        <v>71.42857142856968</v>
       </c>
       <c r="L74" t="n">
         <v>66.28000000000003</v>
@@ -4233,7 +4253,7 @@
         <v>7.399999999999935</v>
       </c>
       <c r="K75" t="n">
-        <v>15.78947368421021</v>
+        <v>71.42857142856968</v>
       </c>
       <c r="L75" t="n">
         <v>66.33000000000003</v>
@@ -4284,7 +4304,7 @@
         <v>7.399999999999935</v>
       </c>
       <c r="K76" t="n">
-        <v>11.11111111111041</v>
+        <v>71.42857142856968</v>
       </c>
       <c r="L76" t="n">
         <v>66.38000000000002</v>
@@ -4335,7 +4355,7 @@
         <v>7.399999999999935</v>
       </c>
       <c r="K77" t="n">
-        <v>24.99999999999933</v>
+        <v>71.42857142856968</v>
       </c>
       <c r="L77" t="n">
         <v>66.43000000000004</v>
@@ -4386,7 +4406,7 @@
         <v>7.599999999999937</v>
       </c>
       <c r="K78" t="n">
-        <v>29.41176470588206</v>
+        <v>77.77777777777636</v>
       </c>
       <c r="L78" t="n">
         <v>66.50000000000003</v>
@@ -4437,7 +4457,7 @@
         <v>7.699999999999932</v>
       </c>
       <c r="K79" t="n">
-        <v>22.2222222222224</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L79" t="n">
         <v>66.56000000000003</v>
@@ -4488,7 +4508,7 @@
         <v>7.799999999999926</v>
       </c>
       <c r="K80" t="n">
-        <v>26.31578947368413</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L80" t="n">
         <v>66.62000000000002</v>
@@ -4539,7 +4559,7 @@
         <v>7.899999999999935</v>
       </c>
       <c r="K81" t="n">
-        <v>30.00000000000022</v>
+        <v>50</v>
       </c>
       <c r="L81" t="n">
         <v>66.68000000000002</v>
@@ -4590,7 +4610,7 @@
         <v>7.999999999999943</v>
       </c>
       <c r="K82" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571312</v>
       </c>
       <c r="L82" t="n">
         <v>66.71000000000001</v>
@@ -4641,7 +4661,7 @@
         <v>7.999999999999943</v>
       </c>
       <c r="K83" t="n">
-        <v>17.64705882352892</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>66.72</v>
@@ -4692,7 +4712,7 @@
         <v>8.099999999999937</v>
       </c>
       <c r="K84" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571544</v>
       </c>
       <c r="L84" t="n">
         <v>66.73</v>
@@ -4743,7 +4763,7 @@
         <v>8.099999999999937</v>
       </c>
       <c r="K85" t="n">
-        <v>42.85714285714285</v>
+        <v>14.28571428571544</v>
       </c>
       <c r="L85" t="n">
         <v>66.74000000000001</v>
@@ -4794,7 +4814,7 @@
         <v>8.099999999999937</v>
       </c>
       <c r="K86" t="n">
-        <v>42.85714285714285</v>
+        <v>14.28571428571544</v>
       </c>
       <c r="L86" t="n">
         <v>66.75000000000001</v>
@@ -4845,7 +4865,7 @@
         <v>8.199999999999932</v>
       </c>
       <c r="K87" t="n">
-        <v>46.66666666666642</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>66.77000000000001</v>
@@ -4896,7 +4916,7 @@
         <v>8.199999999999932</v>
       </c>
       <c r="K88" t="n">
-        <v>46.66666666666642</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L88" t="n">
         <v>66.77000000000001</v>
@@ -4947,7 +4967,7 @@
         <v>8.199999999999932</v>
       </c>
       <c r="K89" t="n">
-        <v>46.66666666666642</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>66.78</v>
@@ -4998,7 +5018,7 @@
         <v>8.199999999999932</v>
       </c>
       <c r="K90" t="n">
-        <v>42.85714285714228</v>
+        <v>-33.33333333333649</v>
       </c>
       <c r="L90" t="n">
         <v>66.78</v>
@@ -5049,7 +5069,7 @@
         <v>8.199999999999932</v>
       </c>
       <c r="K91" t="n">
-        <v>38.46153846153813</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>66.77</v>
@@ -5100,7 +5120,7 @@
         <v>8.399999999999935</v>
       </c>
       <c r="K92" t="n">
-        <v>38.46153846153813</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L92" t="n">
         <v>66.78999999999999</v>
@@ -5151,7 +5171,7 @@
         <v>8.699999999999932</v>
       </c>
       <c r="K93" t="n">
-        <v>42.85714285714228</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
         <v>66.84</v>
@@ -5202,7 +5222,7 @@
         <v>8.699999999999932</v>
       </c>
       <c r="K94" t="n">
-        <v>53.84615384615419</v>
+        <v>100</v>
       </c>
       <c r="L94" t="n">
         <v>66.89999999999999</v>
@@ -5253,7 +5273,7 @@
         <v>8.999999999999929</v>
       </c>
       <c r="K95" t="n">
-        <v>25.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>66.92999999999998</v>
@@ -5304,7 +5324,7 @@
         <v>9.199999999999932</v>
       </c>
       <c r="K96" t="n">
-        <v>33.33333333333386</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L96" t="n">
         <v>66.97999999999999</v>
@@ -5355,7 +5375,7 @@
         <v>9.299999999999926</v>
       </c>
       <c r="K97" t="n">
-        <v>36.84210526315821</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L97" t="n">
         <v>67.02999999999999</v>
@@ -5406,7 +5426,7 @@
         <v>9.399999999999935</v>
       </c>
       <c r="K98" t="n">
-        <v>33.33333333333386</v>
+        <v>50.00000000000059</v>
       </c>
       <c r="L98" t="n">
         <v>67.08999999999999</v>
@@ -5457,7 +5477,7 @@
         <v>9.399999999999935</v>
       </c>
       <c r="K99" t="n">
-        <v>41.17647058823539</v>
+        <v>50.00000000000059</v>
       </c>
       <c r="L99" t="n">
         <v>67.14999999999999</v>
@@ -5508,7 +5528,7 @@
         <v>9.79999999999994</v>
       </c>
       <c r="K100" t="n">
-        <v>10.00000000000007</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L100" t="n">
         <v>67.16999999999999</v>
@@ -5559,7 +5579,7 @@
         <v>10.19999999999995</v>
       </c>
       <c r="K101" t="n">
-        <v>21.7391304347825</v>
+        <v>22.2222222222224</v>
       </c>
       <c r="L101" t="n">
         <v>67.22999999999999</v>
@@ -5610,7 +5630,7 @@
         <v>10.29999999999994</v>
       </c>
       <c r="K102" t="n">
-        <v>30.43478260869582</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L102" t="n">
         <v>67.28</v>
@@ -5661,7 +5681,7 @@
         <v>10.29999999999994</v>
       </c>
       <c r="K103" t="n">
-        <v>30.43478260869582</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L103" t="n">
         <v>67.3</v>
@@ -5712,7 +5732,7 @@
         <v>10.39999999999993</v>
       </c>
       <c r="K104" t="n">
-        <v>39.13043478260838</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L104" t="n">
         <v>67.33000000000001</v>
@@ -5763,7 +5783,7 @@
         <v>10.49999999999993</v>
       </c>
       <c r="K105" t="n">
-        <v>33.33333333333333</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L105" t="n">
         <v>67.38000000000001</v>
@@ -5814,7 +5834,7 @@
         <v>10.49999999999993</v>
       </c>
       <c r="K106" t="n">
-        <v>33.33333333333333</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L106" t="n">
         <v>67.41</v>
@@ -5865,7 +5885,7 @@
         <v>10.49999999999993</v>
       </c>
       <c r="K107" t="n">
-        <v>30.43478260869582</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L107" t="n">
         <v>67.43000000000001</v>
@@ -5916,7 +5936,7 @@
         <v>10.49999999999993</v>
       </c>
       <c r="K108" t="n">
-        <v>30.43478260869582</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L108" t="n">
         <v>67.44000000000001</v>
@@ -5967,7 +5987,7 @@
         <v>10.59999999999992</v>
       </c>
       <c r="K109" t="n">
-        <v>33.33333333333333</v>
+        <v>75.00000000000088</v>
       </c>
       <c r="L109" t="n">
         <v>67.46000000000001</v>
@@ -6018,7 +6038,7 @@
         <v>10.59999999999992</v>
       </c>
       <c r="K110" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L110" t="n">
         <v>67.52000000000001</v>
@@ -6120,7 +6140,7 @@
         <v>10.59999999999992</v>
       </c>
       <c r="K112" t="n">
-        <v>27.27272727272715</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L112" t="n">
         <v>67.55000000000003</v>
@@ -6171,7 +6191,7 @@
         <v>10.59999999999992</v>
       </c>
       <c r="K113" t="n">
-        <v>15.78947368421045</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>67.56000000000003</v>
@@ -6222,7 +6242,7 @@
         <v>10.59999999999992</v>
       </c>
       <c r="K114" t="n">
-        <v>15.78947368421045</v>
+        <v>100</v>
       </c>
       <c r="L114" t="n">
         <v>67.56000000000003</v>
@@ -6273,7 +6293,7 @@
         <v>10.59999999999992</v>
       </c>
       <c r="K115" t="n">
-        <v>37.49999999999978</v>
+        <v>100</v>
       </c>
       <c r="L115" t="n">
         <v>67.57000000000002</v>
@@ -6324,7 +6344,7 @@
         <v>10.79999999999993</v>
       </c>
       <c r="K116" t="n">
-        <v>37.49999999999978</v>
+        <v>100</v>
       </c>
       <c r="L116" t="n">
         <v>67.60000000000002</v>
@@ -6375,7 +6395,7 @@
         <v>10.99999999999993</v>
       </c>
       <c r="K117" t="n">
-        <v>17.64705882352921</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L117" t="n">
         <v>67.61000000000003</v>
@@ -6426,7 +6446,7 @@
         <v>10.99999999999993</v>
       </c>
       <c r="K118" t="n">
-        <v>12.49999999999933</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>67.62000000000003</v>
@@ -6477,7 +6497,7 @@
         <v>10.99999999999993</v>
       </c>
       <c r="K119" t="n">
-        <v>12.49999999999933</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>67.62000000000003</v>
@@ -6528,7 +6548,7 @@
         <v>10.99999999999993</v>
       </c>
       <c r="K120" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>67.62000000000003</v>
@@ -6579,7 +6599,7 @@
         <v>10.99999999999993</v>
       </c>
       <c r="K121" t="n">
-        <v>24.99999999999911</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>67.62000000000003</v>
@@ -6630,7 +6650,7 @@
         <v>11.09999999999994</v>
       </c>
       <c r="K122" t="n">
-        <v>25.00000000000044</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L122" t="n">
         <v>67.63000000000002</v>
@@ -6681,7 +6701,7 @@
         <v>11.09999999999994</v>
       </c>
       <c r="K123" t="n">
-        <v>25.00000000000044</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L123" t="n">
         <v>67.64000000000003</v>
@@ -6732,7 +6752,7 @@
         <v>11.09999999999994</v>
       </c>
       <c r="K124" t="n">
-        <v>14.28571428571544</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L124" t="n">
         <v>67.65000000000003</v>
@@ -6783,7 +6803,7 @@
         <v>11.09999999999994</v>
       </c>
       <c r="K125" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333017</v>
       </c>
       <c r="L125" t="n">
         <v>67.66000000000004</v>
@@ -6834,7 +6854,7 @@
         <v>11.09999999999994</v>
       </c>
       <c r="K126" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L126" t="n">
         <v>67.65000000000005</v>
@@ -6885,7 +6905,7 @@
         <v>11.29999999999994</v>
       </c>
       <c r="K127" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L127" t="n">
         <v>67.68000000000004</v>
@@ -6936,7 +6956,7 @@
         <v>11.39999999999995</v>
       </c>
       <c r="K128" t="n">
-        <v>33.33333333333228</v>
+        <v>49.99999999999822</v>
       </c>
       <c r="L128" t="n">
         <v>67.70000000000003</v>
@@ -6987,7 +7007,7 @@
         <v>11.49999999999996</v>
       </c>
       <c r="K129" t="n">
-        <v>33.33333333333333</v>
+        <v>59.99999999999886</v>
       </c>
       <c r="L129" t="n">
         <v>67.73000000000003</v>
@@ -7038,7 +7058,7 @@
         <v>11.59999999999995</v>
       </c>
       <c r="K130" t="n">
-        <v>39.99999999999943</v>
+        <v>66.66666666666508</v>
       </c>
       <c r="L130" t="n">
         <v>67.77000000000002</v>
@@ -7089,7 +7109,7 @@
         <v>11.59999999999995</v>
       </c>
       <c r="K131" t="n">
-        <v>39.99999999999943</v>
+        <v>59.99999999999772</v>
       </c>
       <c r="L131" t="n">
         <v>67.81000000000003</v>
@@ -7140,7 +7160,7 @@
         <v>11.79999999999995</v>
       </c>
       <c r="K132" t="n">
-        <v>16.66666666666647</v>
+        <v>14.28571428571312</v>
       </c>
       <c r="L132" t="n">
         <v>67.82000000000002</v>
@@ -7191,7 +7211,7 @@
         <v>11.89999999999995</v>
       </c>
       <c r="K133" t="n">
-        <v>7.692307692308196</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>67.82000000000002</v>
@@ -7242,7 +7262,7 @@
         <v>12.29999999999994</v>
       </c>
       <c r="K134" t="n">
-        <v>29.41176470588206</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L134" t="n">
         <v>67.86000000000001</v>
@@ -7293,7 +7313,7 @@
         <v>12.59999999999995</v>
       </c>
       <c r="K135" t="n">
-        <v>40</v>
+        <v>46.66666666666642</v>
       </c>
       <c r="L135" t="n">
         <v>67.93000000000001</v>
@@ -7344,7 +7364,7 @@
         <v>12.69999999999996</v>
       </c>
       <c r="K136" t="n">
-        <v>26.31578947368374</v>
+        <v>28.57142857142755</v>
       </c>
       <c r="L136" t="n">
         <v>67.98999999999999</v>
@@ -7395,7 +7415,7 @@
         <v>12.99999999999996</v>
       </c>
       <c r="K137" t="n">
-        <v>20</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L137" t="n">
         <v>68</v>
@@ -7446,7 +7466,7 @@
         <v>13.09999999999995</v>
       </c>
       <c r="K138" t="n">
-        <v>23.80952380952355</v>
+        <v>12.49999999999933</v>
       </c>
       <c r="L138" t="n">
         <v>68.03</v>
@@ -7497,7 +7517,7 @@
         <v>13.09999999999995</v>
       </c>
       <c r="K139" t="n">
-        <v>23.80952380952355</v>
+        <v>6.666666666666288</v>
       </c>
       <c r="L139" t="n">
         <v>68.05000000000001</v>
@@ -7548,7 +7568,7 @@
         <v>13.09999999999995</v>
       </c>
       <c r="K140" t="n">
-        <v>23.80952380952355</v>
+        <v>6.666666666666288</v>
       </c>
       <c r="L140" t="n">
         <v>68.06000000000002</v>
@@ -7599,7 +7619,7 @@
         <v>13.09999999999995</v>
       </c>
       <c r="K141" t="n">
-        <v>23.80952380952355</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L141" t="n">
         <v>68.07000000000002</v>
@@ -7650,7 +7670,7 @@
         <v>13.09999999999995</v>
       </c>
       <c r="K142" t="n">
-        <v>19.99999999999943</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L142" t="n">
         <v>68.10000000000002</v>
@@ -7701,7 +7721,7 @@
         <v>13.19999999999996</v>
       </c>
       <c r="K143" t="n">
-        <v>23.80952380952355</v>
+        <v>11.11111111111181</v>
       </c>
       <c r="L143" t="n">
         <v>68.15000000000002</v>
@@ -7752,7 +7772,7 @@
         <v>13.19999999999996</v>
       </c>
       <c r="K144" t="n">
-        <v>23.80952380952355</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L144" t="n">
         <v>68.16000000000003</v>
@@ -7803,7 +7823,7 @@
         <v>13.19999999999996</v>
       </c>
       <c r="K145" t="n">
-        <v>23.80952380952355</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L145" t="n">
         <v>68.14000000000003</v>
@@ -7854,7 +7874,7 @@
         <v>13.29999999999997</v>
       </c>
       <c r="K146" t="n">
-        <v>18.18181818181754</v>
+        <v>33.33333333333017</v>
       </c>
       <c r="L146" t="n">
         <v>68.12000000000003</v>
@@ -7905,7 +7925,7 @@
         <v>13.29999999999997</v>
       </c>
       <c r="K147" t="n">
-        <v>9.999999999999289</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>68.13000000000004</v>
@@ -7956,7 +7976,7 @@
         <v>13.59999999999998</v>
       </c>
       <c r="K148" t="n">
-        <v>27.27272727272727</v>
+        <v>59.99999999999886</v>
       </c>
       <c r="L148" t="n">
         <v>68.16000000000004</v>
@@ -8007,7 +8027,7 @@
         <v>13.59999999999998</v>
       </c>
       <c r="K149" t="n">
-        <v>23.80952380952355</v>
+        <v>59.99999999999886</v>
       </c>
       <c r="L149" t="n">
         <v>68.19000000000003</v>
@@ -8058,7 +8078,7 @@
         <v>13.59999999999998</v>
       </c>
       <c r="K150" t="n">
-        <v>20</v>
+        <v>59.99999999999886</v>
       </c>
       <c r="L150" t="n">
         <v>68.22000000000003</v>
@@ -8109,7 +8129,7 @@
         <v>13.59999999999998</v>
       </c>
       <c r="K151" t="n">
-        <v>20</v>
+        <v>59.99999999999886</v>
       </c>
       <c r="L151" t="n">
         <v>68.25000000000003</v>
@@ -8160,7 +8180,7 @@
         <v>13.59999999999998</v>
       </c>
       <c r="K152" t="n">
-        <v>33.33333333333333</v>
+        <v>49.99999999999822</v>
       </c>
       <c r="L152" t="n">
         <v>68.28000000000002</v>
@@ -8211,7 +8231,7 @@
         <v>13.69999999999997</v>
       </c>
       <c r="K153" t="n">
-        <v>44.44444444444365</v>
+        <v>59.99999999999772</v>
       </c>
       <c r="L153" t="n">
         <v>68.31000000000002</v>
@@ -8262,7 +8282,7 @@
         <v>13.69999999999997</v>
       </c>
       <c r="K154" t="n">
-        <v>28.57142857142828</v>
+        <v>59.99999999999772</v>
       </c>
       <c r="L154" t="n">
         <v>68.34</v>
@@ -8313,7 +8333,7 @@
         <v>13.89999999999998</v>
       </c>
       <c r="K155" t="n">
-        <v>23.07692307692241</v>
+        <v>100</v>
       </c>
       <c r="L155" t="n">
         <v>68.39000000000001</v>
@@ -8364,7 +8384,7 @@
         <v>13.89999999999998</v>
       </c>
       <c r="K156" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L156" t="n">
         <v>68.45000000000002</v>
@@ -8415,7 +8435,7 @@
         <v>14.09999999999998</v>
       </c>
       <c r="K157" t="n">
-        <v>45.45454545454452</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L157" t="n">
         <v>68.49000000000001</v>
@@ -8466,7 +8486,7 @@
         <v>14.19999999999997</v>
       </c>
       <c r="K158" t="n">
-        <v>27.27272727272774</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>68.49000000000001</v>
@@ -8517,7 +8537,7 @@
         <v>14.69999999999997</v>
       </c>
       <c r="K159" t="n">
-        <v>50</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L159" t="n">
         <v>68.54000000000001</v>
@@ -8568,7 +8588,7 @@
         <v>15.19999999999997</v>
       </c>
       <c r="K160" t="n">
-        <v>14.28571428571467</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>68.54000000000001</v>
@@ -8619,7 +8639,7 @@
         <v>15.29999999999997</v>
       </c>
       <c r="K161" t="n">
-        <v>18.1818181818183</v>
+        <v>5.882352941176175</v>
       </c>
       <c r="L161" t="n">
         <v>68.55000000000001</v>
@@ -8670,7 +8690,7 @@
         <v>15.29999999999997</v>
       </c>
       <c r="K162" t="n">
-        <v>18.1818181818183</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>68.56000000000002</v>
@@ -8721,7 +8741,7 @@
         <v>15.39999999999996</v>
       </c>
       <c r="K163" t="n">
-        <v>9.090909090909207</v>
+        <v>-5.882352941176175</v>
       </c>
       <c r="L163" t="n">
         <v>68.55000000000001</v>
@@ -8772,7 +8792,7 @@
         <v>15.79999999999995</v>
       </c>
       <c r="K164" t="n">
-        <v>23.07692307692291</v>
+        <v>5.263157894736606</v>
       </c>
       <c r="L164" t="n">
         <v>68.58000000000001</v>
@@ -8823,7 +8843,7 @@
         <v>16.09999999999995</v>
       </c>
       <c r="K165" t="n">
-        <v>10.34482758620683</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L165" t="n">
         <v>68.56</v>
@@ -8874,7 +8894,7 @@
         <v>16.09999999999995</v>
       </c>
       <c r="K166" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>68.53999999999999</v>
@@ -8925,7 +8945,7 @@
         <v>16.29999999999995</v>
       </c>
       <c r="K167" t="n">
-        <v>6.666666666666793</v>
+        <v>-4.761904761905213</v>
       </c>
       <c r="L167" t="n">
         <v>68.52</v>
@@ -8976,7 +8996,7 @@
         <v>16.29999999999995</v>
       </c>
       <c r="K168" t="n">
-        <v>-3.703703703704055</v>
+        <v>-37.500000000001</v>
       </c>
       <c r="L168" t="n">
         <v>68.50999999999999</v>
@@ -9027,7 +9047,7 @@
         <v>16.29999999999995</v>
       </c>
       <c r="K169" t="n">
-        <v>-3.703703703704055</v>
+        <v>-9.090909090910031</v>
       </c>
       <c r="L169" t="n">
         <v>68.44999999999999</v>
@@ -9078,7 +9098,7 @@
         <v>16.39999999999996</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L170" t="n">
         <v>68.44999999999999</v>
@@ -9129,7 +9149,7 @@
         <v>16.69999999999996</v>
       </c>
       <c r="K171" t="n">
-        <v>9.67741935483868</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L171" t="n">
         <v>68.47</v>
@@ -9180,7 +9200,7 @@
         <v>16.69999999999996</v>
       </c>
       <c r="K172" t="n">
-        <v>9.67741935483868</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L172" t="n">
         <v>68.48999999999999</v>
@@ -9231,7 +9251,7 @@
         <v>16.99999999999996</v>
       </c>
       <c r="K173" t="n">
-        <v>-3.030303030302874</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L173" t="n">
         <v>68.48999999999999</v>
@@ -9282,7 +9302,7 @@
         <v>17.49999999999996</v>
       </c>
       <c r="K174" t="n">
-        <v>-15.78947368421045</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L174" t="n">
         <v>68.40000000000001</v>
@@ -9333,7 +9353,7 @@
         <v>17.79999999999995</v>
       </c>
       <c r="K175" t="n">
-        <v>-12.82051282051289</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L175" t="n">
         <v>68.37</v>
@@ -9384,7 +9404,7 @@
         <v>18.09999999999995</v>
       </c>
       <c r="K176" t="n">
-        <v>-19.0476190476191</v>
+        <v>-22.22222222222178</v>
       </c>
       <c r="L176" t="n">
         <v>68.31</v>
@@ -9435,7 +9455,7 @@
         <v>18.29999999999995</v>
       </c>
       <c r="K177" t="n">
-        <v>-19.0476190476191</v>
+        <v>-29.99999999999972</v>
       </c>
       <c r="L177" t="n">
         <v>68.25000000000001</v>
@@ -9486,7 +9506,7 @@
         <v>18.69999999999995</v>
       </c>
       <c r="K178" t="n">
-        <v>-6.666666666666961</v>
+        <v>-8.333333333333481</v>
       </c>
       <c r="L178" t="n">
         <v>68.23000000000002</v>
@@ -9537,7 +9557,7 @@
         <v>18.69999999999995</v>
       </c>
       <c r="K179" t="n">
-        <v>-20.00000000000043</v>
+        <v>-13.04347826087016</v>
       </c>
       <c r="L179" t="n">
         <v>68.21000000000002</v>
@@ -9588,7 +9608,7 @@
         <v>18.69999999999995</v>
       </c>
       <c r="K180" t="n">
-        <v>-8.571428571428966</v>
+        <v>-30.00000000000064</v>
       </c>
       <c r="L180" t="n">
         <v>68.18000000000004</v>
@@ -9639,7 +9659,7 @@
         <v>18.79999999999994</v>
       </c>
       <c r="K181" t="n">
-        <v>-14.2857142857144</v>
+        <v>-33.33333333333378</v>
       </c>
       <c r="L181" t="n">
         <v>68.11000000000003</v>
@@ -9690,7 +9710,7 @@
         <v>18.99999999999994</v>
       </c>
       <c r="K182" t="n">
-        <v>-18.91891891891913</v>
+        <v>-30.00000000000064</v>
       </c>
       <c r="L182" t="n">
         <v>68.02000000000001</v>
@@ -9741,7 +9761,7 @@
         <v>19.39999999999995</v>
       </c>
       <c r="K183" t="n">
-        <v>-5.000000000000089</v>
+        <v>15.78947368421045</v>
       </c>
       <c r="L183" t="n">
         <v>68.00000000000003</v>
@@ -9792,7 +9812,7 @@
         <v>19.49999999999996</v>
       </c>
       <c r="K184" t="n">
-        <v>-18.91891891891898</v>
+        <v>-5.882352941176962</v>
       </c>
       <c r="L184" t="n">
         <v>68.02000000000002</v>
@@ -9843,7 +9863,7 @@
         <v>19.59999999999997</v>
       </c>
       <c r="K185" t="n">
-        <v>-8.571428571428456</v>
+        <v>19.99999999999962</v>
       </c>
       <c r="L185" t="n">
         <v>68.02000000000002</v>
@@ -9894,7 +9914,7 @@
         <v>19.69999999999997</v>
       </c>
       <c r="K186" t="n">
-        <v>-11.1111111111112</v>
+        <v>28.57142857142755</v>
       </c>
       <c r="L186" t="n">
         <v>68.04000000000003</v>
@@ -9945,7 +9965,7 @@
         <v>19.69999999999997</v>
       </c>
       <c r="K187" t="n">
-        <v>-5.88235294117652</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>68.08000000000003</v>
@@ -9996,7 +10016,7 @@
         <v>19.69999999999997</v>
       </c>
       <c r="K188" t="n">
-        <v>-5.88235294117652</v>
+        <v>0</v>
       </c>
       <c r="L188" t="n">
         <v>68.08000000000003</v>
@@ -10047,7 +10067,7 @@
         <v>19.89999999999996</v>
       </c>
       <c r="K189" t="n">
-        <v>-11.11111111111085</v>
+        <v>-16.66666666666548</v>
       </c>
       <c r="L189" t="n">
         <v>68.06000000000003</v>
@@ -10098,7 +10118,7 @@
         <v>19.89999999999996</v>
       </c>
       <c r="K190" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.090909090908387</v>
       </c>
       <c r="L190" t="n">
         <v>68.04000000000002</v>
@@ -10149,7 +10169,7 @@
         <v>19.99999999999996</v>
       </c>
       <c r="K191" t="n">
-        <v>-21.21212121212131</v>
+        <v>20</v>
       </c>
       <c r="L191" t="n">
         <v>68.04000000000002</v>
@@ -10200,7 +10220,7 @@
         <v>20.29999999999995</v>
       </c>
       <c r="K192" t="n">
-        <v>-27.77777777777782</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L192" t="n">
         <v>68.03000000000003</v>
@@ -10251,7 +10271,7 @@
         <v>20.39999999999996</v>
       </c>
       <c r="K193" t="n">
-        <v>-23.52941176470618</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L193" t="n">
         <v>67.97000000000003</v>
@@ -10302,7 +10322,7 @@
         <v>20.39999999999996</v>
       </c>
       <c r="K194" t="n">
-        <v>-10.34482758620727</v>
+        <v>-75.00000000000134</v>
       </c>
       <c r="L194" t="n">
         <v>67.92000000000003</v>
@@ -10353,7 +10373,7 @@
         <v>20.39999999999996</v>
       </c>
       <c r="K195" t="n">
-        <v>-23.07692307692333</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L195" t="n">
         <v>67.86000000000003</v>
@@ -10404,7 +10424,7 @@
         <v>20.39999999999996</v>
       </c>
       <c r="K196" t="n">
-        <v>-13.04347826086999</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L196" t="n">
         <v>67.81000000000003</v>
@@ -10455,7 +10475,7 @@
         <v>20.49999999999996</v>
       </c>
       <c r="K197" t="n">
-        <v>-9.090909090909207</v>
+        <v>-75.00000000000088</v>
       </c>
       <c r="L197" t="n">
         <v>67.75000000000003</v>
@@ -10506,7 +10526,7 @@
         <v>20.49999999999996</v>
       </c>
       <c r="K198" t="n">
-        <v>-33.33333333333281</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L198" t="n">
         <v>67.69000000000003</v>
@@ -10557,7 +10577,7 @@
         <v>20.59999999999995</v>
       </c>
       <c r="K199" t="n">
-        <v>-36.84210526315719</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L199" t="n">
         <v>67.64000000000001</v>
@@ -10608,7 +10628,7 @@
         <v>20.69999999999996</v>
       </c>
       <c r="K200" t="n">
-        <v>-39.99999999999957</v>
+        <v>-100</v>
       </c>
       <c r="L200" t="n">
         <v>67.58000000000001</v>
@@ -10659,7 +10679,7 @@
         <v>20.79999999999997</v>
       </c>
       <c r="K201" t="n">
-        <v>-29.99999999999929</v>
+        <v>-59.99999999999772</v>
       </c>
       <c r="L201" t="n">
         <v>67.52000000000001</v>
@@ -10710,7 +10730,7 @@
         <v>20.79999999999997</v>
       </c>
       <c r="K202" t="n">
-        <v>-22.22222222222143</v>
+        <v>-49.99999999999645</v>
       </c>
       <c r="L202" t="n">
         <v>67.49000000000001</v>
@@ -10761,7 +10781,7 @@
         <v>20.89999999999996</v>
       </c>
       <c r="K203" t="n">
-        <v>-46.66666666666642</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L203" t="n">
         <v>67.48</v>

--- a/BackTest/2019-10-19 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-19 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S203"/>
+  <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.3999999999999915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.4999999999999858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6999999999999886</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6999999999999886</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.7999999999999829</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7999999999999829</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.8999999999999773</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.09999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>67.42999999999999</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.199999999999974</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-16.66666666666726</v>
-      </c>
-      <c r="L12" t="n">
-        <v>67.41</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.199999999999974</v>
-      </c>
-      <c r="K13" t="n">
-        <v>24.99999999999911</v>
-      </c>
-      <c r="L13" t="n">
-        <v>67.39000000000001</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.599999999999966</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-27.27272727272751</v>
-      </c>
-      <c r="L14" t="n">
-        <v>67.37000000000002</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.899999999999963</v>
-      </c>
-      <c r="K15" t="n">
-        <v>16.66666666666726</v>
-      </c>
-      <c r="L15" t="n">
-        <v>67.37000000000002</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.19999999999996</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-6.666666666666414</v>
-      </c>
-      <c r="L16" t="n">
-        <v>67.36000000000003</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.499999999999957</v>
-      </c>
-      <c r="K17" t="n">
-        <v>17.64705882352951</v>
-      </c>
-      <c r="L17" t="n">
-        <v>67.38000000000002</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.499999999999957</v>
-      </c>
-      <c r="K18" t="n">
-        <v>17.64705882352951</v>
-      </c>
-      <c r="L18" t="n">
-        <v>67.41000000000003</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.599999999999952</v>
-      </c>
-      <c r="K19" t="n">
-        <v>17.64705882352951</v>
-      </c>
-      <c r="L19" t="n">
-        <v>67.45000000000002</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.899999999999949</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-11.11111111111146</v>
-      </c>
-      <c r="L20" t="n">
-        <v>67.45000000000002</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.899999999999949</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-17.64705882352951</v>
-      </c>
-      <c r="L21" t="n">
-        <v>67.43000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>67.42999999999999</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.899999999999949</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-17.64705882352951</v>
-      </c>
-      <c r="L22" t="n">
-        <v>67.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>67.405</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.199999999999946</v>
-      </c>
-      <c r="K23" t="n">
-        <v>24.99999999999978</v>
-      </c>
-      <c r="L23" t="n">
-        <v>67.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>67.395</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.199999999999946</v>
-      </c>
-      <c r="K24" t="n">
-        <v>7.692307692307356</v>
-      </c>
-      <c r="L24" t="n">
-        <v>67.44000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>67.40499999999999</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.499999999999943</v>
-      </c>
-      <c r="K25" t="n">
-        <v>7.692307692307356</v>
-      </c>
-      <c r="L25" t="n">
-        <v>67.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>67.39499999999998</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.599999999999937</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-27.27272727272751</v>
-      </c>
-      <c r="L26" t="n">
-        <v>67.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>67.38999999999999</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.699999999999932</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-16.66666666666726</v>
-      </c>
-      <c r="L27" t="n">
-        <v>67.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>67.38999999999999</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.699999999999932</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-27.27272727272751</v>
-      </c>
-      <c r="L28" t="n">
-        <v>67.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>67.39499999999998</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.699999999999932</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>67.34999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>67.39999999999998</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.799999999999926</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-11.11111111111076</v>
-      </c>
-      <c r="L30" t="n">
-        <v>67.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>67.39499999999998</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.89999999999992</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>67.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>67.38499999999998</v>
-      </c>
-      <c r="N31" t="n">
-        <v>67.39999999999999</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.999999999999915</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-50.00000000000089</v>
-      </c>
-      <c r="L32" t="n">
-        <v>67.33000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>67.36499999999998</v>
-      </c>
-      <c r="N32" t="n">
-        <v>67.37999999999998</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.999999999999915</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-50.00000000000089</v>
-      </c>
-      <c r="L33" t="n">
-        <v>67.29000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>67.345</v>
-      </c>
-      <c r="N33" t="n">
-        <v>67.35999999999999</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.999999999999915</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L34" t="n">
-        <v>67.25000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>67.345</v>
-      </c>
-      <c r="N34" t="n">
-        <v>67.35333333333331</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.999999999999915</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>67.24000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>67.33</v>
-      </c>
-      <c r="N35" t="n">
-        <v>67.34333333333331</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.999999999999915</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L36" t="n">
-        <v>67.24000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>67.33</v>
-      </c>
-      <c r="N36" t="n">
-        <v>67.33999999999997</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.999999999999915</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L37" t="n">
-        <v>67.23000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>67.315</v>
-      </c>
-      <c r="N37" t="n">
-        <v>67.33666666666664</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.999999999999915</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L38" t="n">
-        <v>67.22000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="N38" t="n">
-        <v>67.33666666666664</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.999999999999915</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>67.21000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>67.28</v>
-      </c>
-      <c r="N39" t="n">
-        <v>67.33666666666664</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,35 +1781,15 @@
         <v>67.40333333333329</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.999999999999915</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L40" t="n">
-        <v>67.21000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>67.27500000000001</v>
-      </c>
-      <c r="N40" t="n">
-        <v>67.33333333333331</v>
-      </c>
-      <c r="O40" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2336,37 +1816,15 @@
         <v>67.3983333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.999999999999915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>67.20000000000006</v>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>67.27000000000001</v>
-      </c>
-      <c r="N41" t="n">
-        <v>67.32333333333331</v>
-      </c>
-      <c r="O41" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2393,39 +1851,15 @@
         <v>67.39166666666664</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.7000000000000028</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4.099999999999923</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L42" t="n">
-        <v>67.19000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>67.26000000000002</v>
-      </c>
-      <c r="N42" t="n">
-        <v>67.30666666666664</v>
-      </c>
-      <c r="O42" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,39 +1886,15 @@
         <v>67.3833333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4.199999999999932</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>67.19000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>67.24000000000002</v>
-      </c>
-      <c r="N43" t="n">
-        <v>67.29333333333331</v>
-      </c>
-      <c r="O43" t="n">
-        <v>67.09</v>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2511,39 +1921,15 @@
         <v>67.37499999999997</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J44" t="n">
-        <v>4.199999999999932</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>67.19000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>67.22000000000003</v>
-      </c>
-      <c r="N44" t="n">
-        <v>67.29333333333331</v>
-      </c>
-      <c r="O44" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2570,37 +1956,15 @@
         <v>67.36499999999997</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.8999999999999915</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4.499999999999929</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-59.99999999999772</v>
-      </c>
-      <c r="L45" t="n">
-        <v>67.16000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>67.20000000000003</v>
-      </c>
-      <c r="N45" t="n">
-        <v>67.2733333333333</v>
-      </c>
-      <c r="O45" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="P45" t="n">
-        <v>69.55</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2630,34 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.099999999999994</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4.699999999999932</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-71.42857142856968</v>
-      </c>
-      <c r="L46" t="n">
-        <v>67.11000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>67.17500000000004</v>
-      </c>
-      <c r="N46" t="n">
-        <v>67.25666666666662</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2687,34 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.200000000000003</v>
-      </c>
-      <c r="J47" t="n">
-        <v>4.79999999999994</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-74.99999999999866</v>
-      </c>
-      <c r="L47" t="n">
-        <v>67.05000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>67.14000000000003</v>
-      </c>
-      <c r="N47" t="n">
-        <v>67.22666666666663</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,39 +2061,15 @@
         <v>67.32666666666663</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-1.200000000000003</v>
-      </c>
-      <c r="J48" t="n">
-        <v>4.79999999999994</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-74.99999999999866</v>
-      </c>
-      <c r="L48" t="n">
-        <v>66.99000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>67.10500000000003</v>
-      </c>
-      <c r="N48" t="n">
-        <v>67.19666666666663</v>
-      </c>
-      <c r="O48" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2800,43 +2096,15 @@
         <v>67.31499999999997</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-1.200000000000003</v>
-      </c>
-      <c r="J49" t="n">
-        <v>4.79999999999994</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-74.99999999999866</v>
-      </c>
-      <c r="L49" t="n">
-        <v>66.93000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>67.07000000000002</v>
-      </c>
-      <c r="N49" t="n">
-        <v>67.16333333333328</v>
-      </c>
-      <c r="O49" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2866,38 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-1.299999999999997</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4.899999999999935</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-77.77777777777636</v>
-      </c>
-      <c r="L50" t="n">
-        <v>66.86000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>67.03500000000003</v>
-      </c>
-      <c r="N50" t="n">
-        <v>67.13666666666663</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2927,38 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-1.399999999999991</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4.999999999999929</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-77.77777777777602</v>
-      </c>
-      <c r="L51" t="n">
-        <v>66.78000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>66.99000000000004</v>
-      </c>
-      <c r="N51" t="n">
-        <v>67.10666666666663</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,38 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-1.200000000000003</v>
-      </c>
-      <c r="J52" t="n">
-        <v>5.199999999999918</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-60.00000000000171</v>
-      </c>
-      <c r="L52" t="n">
-        <v>66.73000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>66.96000000000002</v>
-      </c>
-      <c r="N52" t="n">
-        <v>67.0833333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q52" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,38 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-1.399999999999991</v>
-      </c>
-      <c r="J53" t="n">
-        <v>5.399999999999906</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-66.66666666666785</v>
-      </c>
-      <c r="L53" t="n">
-        <v>66.65000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>66.92000000000003</v>
-      </c>
-      <c r="N53" t="n">
-        <v>67.04333333333329</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q53" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3110,38 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-1.399999999999991</v>
-      </c>
-      <c r="J54" t="n">
-        <v>5.399999999999906</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-55.55555555555696</v>
-      </c>
-      <c r="L54" t="n">
-        <v>66.57000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>66.88000000000002</v>
-      </c>
-      <c r="N54" t="n">
-        <v>67.0033333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q54" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3171,36 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>5.499999999999915</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-50.00000000000178</v>
-      </c>
-      <c r="L55" t="n">
-        <v>66.51000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>66.83500000000002</v>
-      </c>
-      <c r="N55" t="n">
-        <v>66.96999999999997</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,34 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-1.399999999999991</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5.599999999999923</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-24.99999999999911</v>
-      </c>
-      <c r="L56" t="n">
-        <v>66.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>66.79500000000003</v>
-      </c>
-      <c r="N56" t="n">
-        <v>66.9433333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3287,34 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-1.599999999999994</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5.799999999999926</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-39.99999999999972</v>
-      </c>
-      <c r="L57" t="n">
-        <v>66.44000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>66.74500000000003</v>
-      </c>
-      <c r="N57" t="n">
-        <v>66.90666666666664</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3344,34 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5.89999999999992</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-27.27272727272751</v>
-      </c>
-      <c r="L58" t="n">
-        <v>66.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>66.70000000000002</v>
-      </c>
-      <c r="N58" t="n">
-        <v>66.87333333333331</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3401,34 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>5.89999999999992</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-20.00000000000057</v>
-      </c>
-      <c r="L59" t="n">
-        <v>66.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>66.65500000000002</v>
-      </c>
-      <c r="N59" t="n">
-        <v>66.83999999999997</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,34 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5.89999999999992</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-11.11111111111216</v>
-      </c>
-      <c r="L60" t="n">
-        <v>66.35999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>66.61000000000001</v>
-      </c>
-      <c r="N60" t="n">
-        <v>66.80999999999997</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3515,34 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J61" t="n">
-        <v>5.89999999999992</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-42.85714285714228</v>
-      </c>
-      <c r="L61" t="n">
-        <v>66.34999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>66.56500000000001</v>
-      </c>
-      <c r="N61" t="n">
-        <v>66.77666666666663</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3569,37 +2551,19 @@
         <v>67.06833333333329</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>-1.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>6.199999999999918</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>24.99999999999822</v>
-      </c>
-      <c r="L62" t="n">
-        <v>66.34999999999999</v>
-      </c>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>66.54000000000001</v>
-      </c>
-      <c r="N62" t="n">
-        <v>66.75666666666663</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3626,38 +2590,24 @@
         <v>67.04666666666661</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>-1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>6.299999999999912</v>
+        <v>66.5</v>
       </c>
       <c r="K63" t="n">
-        <v>11.11111111111041</v>
-      </c>
-      <c r="L63" t="n">
-        <v>66.35999999999999</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>66.50500000000001</v>
-      </c>
-      <c r="N63" t="n">
-        <v>66.73333333333329</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="S63" t="n">
-        <v>0.9845833333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -3683,31 +2633,23 @@
         <v>67.03166666666661</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>-1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>6.299999999999912</v>
+        <v>66.5</v>
       </c>
       <c r="K64" t="n">
-        <v>25.00000000000044</v>
-      </c>
-      <c r="L64" t="n">
-        <v>66.36999999999999</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>66.47</v>
-      </c>
-      <c r="N64" t="n">
-        <v>66.70999999999997</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3734,31 +2676,23 @@
         <v>67.00833333333328</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-1.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>6.699999999999918</v>
+        <v>66.5</v>
       </c>
       <c r="K65" t="n">
-        <v>-27.27272727272845</v>
-      </c>
-      <c r="L65" t="n">
-        <v>66.34999999999999</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>66.42999999999999</v>
-      </c>
-      <c r="N65" t="n">
-        <v>66.6733333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3785,31 +2719,23 @@
         <v>66.98833333333327</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-1.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>6.699999999999918</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>-11.11111111111216</v>
-      </c>
-      <c r="L66" t="n">
-        <v>66.32000000000001</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>66.39999999999999</v>
-      </c>
-      <c r="N66" t="n">
-        <v>66.63666666666664</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3836,31 +2762,23 @@
         <v>66.96833333333328</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-1.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>6.699999999999918</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="K67" t="n">
-        <v>-25.00000000000044</v>
-      </c>
-      <c r="L67" t="n">
-        <v>66.31</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>66.37499999999999</v>
-      </c>
-      <c r="N67" t="n">
-        <v>66.59999999999998</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3887,31 +2805,23 @@
         <v>66.94999999999995</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-1.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>6.699999999999918</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>-25.00000000000044</v>
-      </c>
-      <c r="L68" t="n">
-        <v>66.29000000000001</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>66.34999999999999</v>
-      </c>
-      <c r="N68" t="n">
-        <v>66.56333333333332</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3938,31 +2848,23 @@
         <v>66.9316666666666</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>-1.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>6.699999999999918</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>-25.00000000000044</v>
-      </c>
-      <c r="L69" t="n">
-        <v>66.27000000000001</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>66.32499999999999</v>
-      </c>
-      <c r="N69" t="n">
-        <v>66.52666666666666</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3989,31 +2891,23 @@
         <v>66.91333333333327</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-1.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>6.799999999999926</v>
+        <v>66.2</v>
       </c>
       <c r="K70" t="n">
-        <v>-11.11111111111041</v>
-      </c>
-      <c r="L70" t="n">
-        <v>66.26000000000002</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>66.30999999999999</v>
-      </c>
-      <c r="N70" t="n">
-        <v>66.49333333333331</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4040,31 +2934,23 @@
         <v>66.89333333333327</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>6.89999999999992</v>
+        <v>66.3</v>
       </c>
       <c r="K71" t="n">
-        <v>-42.85714285714228</v>
-      </c>
-      <c r="L71" t="n">
-        <v>66.26000000000002</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>66.30499999999998</v>
-      </c>
-      <c r="N71" t="n">
-        <v>66.46333333333331</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4091,31 +2977,23 @@
         <v>66.87499999999994</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>7.099999999999923</v>
+        <v>66.5</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>66.25000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>66.29999999999998</v>
-      </c>
-      <c r="N72" t="n">
-        <v>66.44333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,31 +3020,23 @@
         <v>66.85999999999994</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>-1.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>7.299999999999926</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>20</v>
-      </c>
-      <c r="L73" t="n">
-        <v>66.27000000000002</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>66.31499999999998</v>
-      </c>
-      <c r="N73" t="n">
-        <v>66.42666666666665</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,31 +3063,23 @@
         <v>66.84999999999994</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-1.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>7.399999999999935</v>
+        <v>66.7</v>
       </c>
       <c r="K74" t="n">
-        <v>71.42857142856968</v>
-      </c>
-      <c r="L74" t="n">
-        <v>66.28000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>66.32499999999997</v>
-      </c>
-      <c r="N74" t="n">
-        <v>66.40666666666665</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,31 +3106,23 @@
         <v>66.83499999999994</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>-1.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>7.399999999999935</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="K75" t="n">
-        <v>71.42857142856968</v>
-      </c>
-      <c r="L75" t="n">
-        <v>66.33000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>66.33999999999997</v>
-      </c>
-      <c r="N75" t="n">
-        <v>66.39666666666666</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4295,31 +3149,23 @@
         <v>66.82499999999995</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>-1.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>7.399999999999935</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="K76" t="n">
-        <v>71.42857142856968</v>
-      </c>
-      <c r="L76" t="n">
-        <v>66.38000000000002</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>66.34999999999997</v>
-      </c>
-      <c r="N76" t="n">
-        <v>66.39333333333332</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4346,31 +3192,23 @@
         <v>66.80999999999993</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>-1.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>7.399999999999935</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="K77" t="n">
-        <v>71.42857142856968</v>
-      </c>
-      <c r="L77" t="n">
-        <v>66.43000000000004</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>66.36999999999996</v>
-      </c>
-      <c r="N77" t="n">
-        <v>66.39333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4397,31 +3235,23 @@
         <v>66.79833333333328</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>7.599999999999937</v>
+        <v>66.8</v>
       </c>
       <c r="K78" t="n">
-        <v>77.77777777777636</v>
-      </c>
-      <c r="L78" t="n">
-        <v>66.50000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>66.39499999999995</v>
-      </c>
-      <c r="N78" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4448,31 +3278,23 @@
         <v>66.78333333333327</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>-1.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>7.699999999999932</v>
+        <v>66.7</v>
       </c>
       <c r="K79" t="n">
-        <v>55.5555555555552</v>
-      </c>
-      <c r="L79" t="n">
-        <v>66.56000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>66.41499999999996</v>
-      </c>
-      <c r="N79" t="n">
-        <v>66.40333333333334</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4502,28 +3324,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>7.799999999999926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>55.5555555555552</v>
-      </c>
-      <c r="L80" t="n">
-        <v>66.62000000000002</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>66.43999999999997</v>
-      </c>
-      <c r="N80" t="n">
-        <v>66.41333333333334</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4553,28 +3365,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.8999999999999915</v>
-      </c>
-      <c r="J81" t="n">
-        <v>7.899999999999935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>50</v>
-      </c>
-      <c r="L81" t="n">
-        <v>66.68000000000002</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>66.46999999999997</v>
-      </c>
-      <c r="N81" t="n">
-        <v>66.43000000000001</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4604,28 +3406,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>7.999999999999943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>14.28571428571312</v>
-      </c>
-      <c r="L82" t="n">
-        <v>66.71000000000001</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>66.47999999999998</v>
-      </c>
-      <c r="N82" t="n">
-        <v>66.43666666666668</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4655,28 +3447,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>7.999999999999943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L83" t="n">
-        <v>66.72</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>66.49499999999998</v>
-      </c>
-      <c r="N83" t="n">
-        <v>66.45000000000002</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4706,28 +3488,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-1.099999999999994</v>
-      </c>
-      <c r="J84" t="n">
-        <v>8.099999999999937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>14.28571428571544</v>
-      </c>
-      <c r="L84" t="n">
-        <v>66.73</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>66.50499999999997</v>
-      </c>
-      <c r="N84" t="n">
-        <v>66.46000000000001</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4757,28 +3529,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-1.099999999999994</v>
-      </c>
-      <c r="J85" t="n">
-        <v>8.099999999999937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>14.28571428571544</v>
-      </c>
-      <c r="L85" t="n">
-        <v>66.74000000000001</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>66.53499999999998</v>
-      </c>
-      <c r="N85" t="n">
-        <v>66.47333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,28 +3570,18 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-1.099999999999994</v>
-      </c>
-      <c r="J86" t="n">
-        <v>8.099999999999937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>14.28571428571544</v>
-      </c>
-      <c r="L86" t="n">
-        <v>66.75000000000001</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>66.56499999999998</v>
-      </c>
-      <c r="N86" t="n">
-        <v>66.48333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4859,28 +3611,18 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>8.199999999999932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>66.77000000000001</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="N87" t="n">
-        <v>66.50333333333334</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4910,28 +3652,18 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>8.199999999999932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>19.99999999999886</v>
-      </c>
-      <c r="L88" t="n">
-        <v>66.77000000000001</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>66.63499999999999</v>
-      </c>
-      <c r="N88" t="n">
-        <v>66.52000000000001</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4961,28 +3693,18 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>8.199999999999932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>66.78</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>66.66999999999999</v>
-      </c>
-      <c r="N89" t="n">
-        <v>66.53666666666668</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5012,28 +3734,18 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>8.199999999999932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>-33.33333333333649</v>
-      </c>
-      <c r="L90" t="n">
-        <v>66.78</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>66.69999999999999</v>
-      </c>
-      <c r="N90" t="n">
-        <v>66.55333333333334</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5063,28 +3775,18 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>8.199999999999932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>66.77</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>66.72499999999999</v>
-      </c>
-      <c r="N91" t="n">
-        <v>66.57000000000001</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5114,28 +3816,18 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.7999999999999972</v>
-      </c>
-      <c r="J92" t="n">
-        <v>8.399999999999935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>50.00000000000178</v>
-      </c>
-      <c r="L92" t="n">
-        <v>66.78999999999999</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>66.74999999999999</v>
-      </c>
-      <c r="N92" t="n">
-        <v>66.58333333333334</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5165,28 +3857,18 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J93" t="n">
-        <v>8.699999999999932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>100</v>
-      </c>
-      <c r="L93" t="n">
-        <v>66.84</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>66.77999999999999</v>
-      </c>
-      <c r="N93" t="n">
-        <v>66.61000000000003</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5216,28 +3898,18 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>8.699999999999932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>100</v>
-      </c>
-      <c r="L94" t="n">
-        <v>66.89999999999999</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>66.81499999999998</v>
-      </c>
-      <c r="N94" t="n">
-        <v>66.6366666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5267,28 +3939,18 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.7999999999999972</v>
-      </c>
-      <c r="J95" t="n">
-        <v>8.999999999999929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L95" t="n">
-        <v>66.92999999999998</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>66.83499999999999</v>
-      </c>
-      <c r="N95" t="n">
-        <v>66.6666666666667</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5318,28 +3980,18 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J96" t="n">
-        <v>9.199999999999932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>40.00000000000057</v>
-      </c>
-      <c r="L96" t="n">
-        <v>66.97999999999999</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>66.86499999999999</v>
-      </c>
-      <c r="N96" t="n">
-        <v>66.70333333333336</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5369,28 +4021,18 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>9.299999999999926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>45.45454545454569</v>
-      </c>
-      <c r="L97" t="n">
-        <v>67.02999999999999</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="N97" t="n">
-        <v>66.74333333333337</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5420,28 +4062,18 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="J98" t="n">
-        <v>9.399999999999935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>50.00000000000059</v>
-      </c>
-      <c r="L98" t="n">
-        <v>67.08999999999999</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>66.93000000000001</v>
-      </c>
-      <c r="N98" t="n">
-        <v>66.7866666666667</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5471,28 +4103,18 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="J99" t="n">
-        <v>9.399999999999935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>50.00000000000059</v>
-      </c>
-      <c r="L99" t="n">
-        <v>67.14999999999999</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>66.965</v>
-      </c>
-      <c r="N99" t="n">
-        <v>66.83000000000006</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5522,28 +4144,18 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.7999999999999972</v>
-      </c>
-      <c r="J100" t="n">
-        <v>9.79999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>12.50000000000011</v>
-      </c>
-      <c r="L100" t="n">
-        <v>67.16999999999999</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>66.97500000000001</v>
-      </c>
-      <c r="N100" t="n">
-        <v>66.85666666666671</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5573,28 +4185,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="J101" t="n">
-        <v>10.19999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>22.2222222222224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>67.22999999999999</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>67.00000000000001</v>
-      </c>
-      <c r="N101" t="n">
-        <v>66.89333333333337</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5624,28 +4226,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J102" t="n">
-        <v>10.29999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>12.50000000000011</v>
-      </c>
-      <c r="L102" t="n">
-        <v>67.28</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>67.03500000000001</v>
-      </c>
-      <c r="N102" t="n">
-        <v>66.9266666666667</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5675,28 +4267,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J103" t="n">
-        <v>10.29999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>12.50000000000011</v>
-      </c>
-      <c r="L103" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>67.07000000000002</v>
-      </c>
-      <c r="N103" t="n">
-        <v>66.95333333333336</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5726,28 +4308,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J104" t="n">
-        <v>10.39999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>42.85714285714228</v>
-      </c>
-      <c r="L104" t="n">
-        <v>67.33000000000001</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>67.11500000000001</v>
-      </c>
-      <c r="N104" t="n">
-        <v>66.98666666666671</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5777,28 +4349,18 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J105" t="n">
-        <v>10.49999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>23.07692307692291</v>
-      </c>
-      <c r="L105" t="n">
-        <v>67.38000000000001</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>67.155</v>
-      </c>
-      <c r="N105" t="n">
-        <v>67.01666666666671</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5828,28 +4390,18 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J106" t="n">
-        <v>10.49999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>16.66666666666686</v>
-      </c>
-      <c r="L106" t="n">
-        <v>67.41</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>67.19500000000001</v>
-      </c>
-      <c r="N106" t="n">
-        <v>67.04666666666671</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5879,28 +4431,18 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J107" t="n">
-        <v>10.49999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>9.090909090908621</v>
-      </c>
-      <c r="L107" t="n">
-        <v>67.43000000000001</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>67.23</v>
-      </c>
-      <c r="N107" t="n">
-        <v>67.07666666666672</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5930,28 +4472,18 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J108" t="n">
-        <v>10.49999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>9.090909090908621</v>
-      </c>
-      <c r="L108" t="n">
-        <v>67.44000000000001</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>67.26500000000001</v>
-      </c>
-      <c r="N108" t="n">
-        <v>67.10000000000005</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5981,28 +4513,18 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J109" t="n">
-        <v>10.59999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>75.00000000000088</v>
-      </c>
-      <c r="L109" t="n">
-        <v>67.46000000000001</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>67.30500000000001</v>
-      </c>
-      <c r="N109" t="n">
-        <v>67.13000000000005</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6032,28 +4554,18 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J110" t="n">
-        <v>10.59999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>50</v>
-      </c>
-      <c r="L110" t="n">
-        <v>67.52000000000001</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>67.345</v>
-      </c>
-      <c r="N110" t="n">
-        <v>67.15666666666672</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,28 +4595,18 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J111" t="n">
-        <v>10.59999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L111" t="n">
-        <v>67.54000000000002</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>67.38500000000001</v>
-      </c>
-      <c r="N111" t="n">
-        <v>67.18000000000006</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,28 +4636,18 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J112" t="n">
-        <v>10.59999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L112" t="n">
-        <v>67.55000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>67.41499999999999</v>
-      </c>
-      <c r="N112" t="n">
-        <v>67.20666666666673</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6185,28 +4677,18 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J113" t="n">
-        <v>10.59999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>67.56000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>67.42999999999999</v>
-      </c>
-      <c r="N113" t="n">
-        <v>67.23333333333341</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6236,28 +4718,18 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J114" t="n">
-        <v>10.59999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>100</v>
-      </c>
-      <c r="L114" t="n">
-        <v>67.56000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>67.44499999999999</v>
-      </c>
-      <c r="N114" t="n">
-        <v>67.26333333333341</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6287,28 +4759,18 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J115" t="n">
-        <v>10.59999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>100</v>
-      </c>
-      <c r="L115" t="n">
-        <v>67.57000000000002</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>67.47499999999999</v>
-      </c>
-      <c r="N115" t="n">
-        <v>67.29333333333341</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6340,26 +4802,16 @@
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>10.79999999999993</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>100</v>
-      </c>
-      <c r="L116" t="n">
-        <v>67.60000000000002</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>67.50499999999998</v>
-      </c>
-      <c r="N116" t="n">
-        <v>67.33000000000007</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6389,28 +4841,18 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J117" t="n">
-        <v>10.99999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>19.99999999999886</v>
-      </c>
-      <c r="L117" t="n">
-        <v>67.61000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>67.51999999999998</v>
-      </c>
-      <c r="N117" t="n">
-        <v>67.35666666666674</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6440,28 +4882,18 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J118" t="n">
-        <v>10.99999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>67.62000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>67.52999999999997</v>
-      </c>
-      <c r="N118" t="n">
-        <v>67.38333333333341</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6491,28 +4923,18 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J119" t="n">
-        <v>10.99999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>67.62000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>67.53999999999996</v>
-      </c>
-      <c r="N119" t="n">
-        <v>67.4100000000001</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6542,28 +4964,18 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J120" t="n">
-        <v>10.99999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>67.62000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>67.56999999999996</v>
-      </c>
-      <c r="N120" t="n">
-        <v>67.43666666666677</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6593,28 +5005,18 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J121" t="n">
-        <v>10.99999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>67.62000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>67.57999999999996</v>
-      </c>
-      <c r="N121" t="n">
-        <v>67.46333333333344</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6644,28 +5046,18 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="J122" t="n">
-        <v>11.09999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>20.00000000000114</v>
-      </c>
-      <c r="L122" t="n">
-        <v>67.63000000000002</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>67.58999999999995</v>
-      </c>
-      <c r="N122" t="n">
-        <v>67.48666666666676</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6695,28 +5087,18 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="J123" t="n">
-        <v>11.09999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>20.00000000000114</v>
-      </c>
-      <c r="L123" t="n">
-        <v>67.64000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>67.59999999999995</v>
-      </c>
-      <c r="N123" t="n">
-        <v>67.5000000000001</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6746,28 +5128,18 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="J124" t="n">
-        <v>11.09999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>20.00000000000114</v>
-      </c>
-      <c r="L124" t="n">
-        <v>67.65000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>67.60499999999996</v>
-      </c>
-      <c r="N124" t="n">
-        <v>67.51333333333343</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6797,28 +5169,18 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="J125" t="n">
-        <v>11.09999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>-33.33333333333017</v>
-      </c>
-      <c r="L125" t="n">
-        <v>67.66000000000004</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>67.61499999999997</v>
-      </c>
-      <c r="N125" t="n">
-        <v>67.53666666666678</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6848,28 +5210,18 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="J126" t="n">
-        <v>11.09999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>100</v>
-      </c>
-      <c r="L126" t="n">
-        <v>67.65000000000005</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>67.62499999999997</v>
-      </c>
-      <c r="N126" t="n">
-        <v>67.55333333333343</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6899,28 +5251,18 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J127" t="n">
-        <v>11.29999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>100</v>
-      </c>
-      <c r="L127" t="n">
-        <v>67.68000000000004</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>67.64499999999997</v>
-      </c>
-      <c r="N127" t="n">
-        <v>67.57333333333342</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6952,26 +5294,16 @@
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>11.39999999999995</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>49.99999999999822</v>
-      </c>
-      <c r="L128" t="n">
-        <v>67.70000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>67.65999999999997</v>
-      </c>
-      <c r="N128" t="n">
-        <v>67.58666666666676</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7001,28 +5333,18 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J129" t="n">
-        <v>11.49999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>59.99999999999886</v>
-      </c>
-      <c r="L129" t="n">
-        <v>67.73000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>67.67499999999998</v>
-      </c>
-      <c r="N129" t="n">
-        <v>67.60333333333342</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7052,28 +5374,18 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J130" t="n">
-        <v>11.59999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>66.66666666666508</v>
-      </c>
-      <c r="L130" t="n">
-        <v>67.77000000000002</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>67.69499999999998</v>
-      </c>
-      <c r="N130" t="n">
-        <v>67.63666666666676</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7103,28 +5415,18 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J131" t="n">
-        <v>11.59999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>59.99999999999772</v>
-      </c>
-      <c r="L131" t="n">
-        <v>67.81000000000003</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>67.71499999999999</v>
-      </c>
-      <c r="N131" t="n">
-        <v>67.65666666666675</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7156,26 +5458,16 @@
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>11.79999999999995</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>14.28571428571312</v>
-      </c>
-      <c r="L132" t="n">
-        <v>67.82000000000002</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>67.72499999999999</v>
-      </c>
-      <c r="N132" t="n">
-        <v>67.66666666666676</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7205,28 +5497,18 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="J133" t="n">
-        <v>11.89999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>67.82000000000002</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>67.72999999999999</v>
-      </c>
-      <c r="N133" t="n">
-        <v>67.67333333333342</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7256,28 +5538,18 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J134" t="n">
-        <v>12.29999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>33.33333333333254</v>
-      </c>
-      <c r="L134" t="n">
-        <v>67.86000000000001</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>67.755</v>
-      </c>
-      <c r="N134" t="n">
-        <v>67.69000000000008</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7307,28 +5579,18 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J135" t="n">
-        <v>12.59999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>46.66666666666642</v>
-      </c>
-      <c r="L135" t="n">
-        <v>67.93000000000001</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>67.795</v>
-      </c>
-      <c r="N135" t="n">
-        <v>67.72000000000008</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7358,29 +5620,19 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J136" t="n">
-        <v>12.69999999999996</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>28.57142857142755</v>
-      </c>
-      <c r="L136" t="n">
-        <v>67.98999999999999</v>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>67.82000000000001</v>
-      </c>
-      <c r="N136" t="n">
-        <v>67.74666666666675</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
+        <v>1.020525525525526</v>
       </c>
     </row>
     <row r="137">
@@ -7409,28 +5661,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J137" t="n">
-        <v>12.99999999999996</v>
-      </c>
-      <c r="K137" t="n">
-        <v>12.50000000000011</v>
-      </c>
-      <c r="L137" t="n">
-        <v>68</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>67.84</v>
-      </c>
-      <c r="N137" t="n">
-        <v>67.76333333333342</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7460,28 +5696,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J138" t="n">
-        <v>13.09999999999995</v>
-      </c>
-      <c r="K138" t="n">
-        <v>12.49999999999933</v>
-      </c>
-      <c r="L138" t="n">
-        <v>68.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>67.86500000000001</v>
-      </c>
-      <c r="N138" t="n">
-        <v>67.78333333333343</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7511,28 +5731,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J139" t="n">
-        <v>13.09999999999995</v>
-      </c>
-      <c r="K139" t="n">
-        <v>6.666666666666288</v>
-      </c>
-      <c r="L139" t="n">
-        <v>68.05000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>67.89000000000001</v>
-      </c>
-      <c r="N139" t="n">
-        <v>67.8000000000001</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7562,28 +5766,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J140" t="n">
-        <v>13.09999999999995</v>
-      </c>
-      <c r="K140" t="n">
-        <v>6.666666666666288</v>
-      </c>
-      <c r="L140" t="n">
-        <v>68.06000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>67.91500000000001</v>
-      </c>
-      <c r="N140" t="n">
-        <v>67.81666666666676</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7613,28 +5801,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J141" t="n">
-        <v>13.09999999999995</v>
-      </c>
-      <c r="K141" t="n">
-        <v>23.07692307692291</v>
-      </c>
-      <c r="L141" t="n">
-        <v>68.07000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>67.94000000000001</v>
-      </c>
-      <c r="N141" t="n">
-        <v>67.83333333333343</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7664,28 +5836,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J142" t="n">
-        <v>13.09999999999995</v>
-      </c>
-      <c r="K142" t="n">
-        <v>33.33333333333254</v>
-      </c>
-      <c r="L142" t="n">
-        <v>68.10000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>67.96000000000001</v>
-      </c>
-      <c r="N142" t="n">
-        <v>67.85000000000009</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7715,28 +5871,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J143" t="n">
-        <v>13.19999999999996</v>
-      </c>
-      <c r="K143" t="n">
-        <v>11.11111111111181</v>
-      </c>
-      <c r="L143" t="n">
-        <v>68.15000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>67.985</v>
-      </c>
-      <c r="N143" t="n">
-        <v>67.87000000000009</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7766,28 +5906,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J144" t="n">
-        <v>13.19999999999996</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L144" t="n">
-        <v>68.16000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="N144" t="n">
-        <v>67.89000000000009</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7817,28 +5941,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J145" t="n">
-        <v>13.19999999999996</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-19.99999999999886</v>
-      </c>
-      <c r="L145" t="n">
-        <v>68.14000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>68.035</v>
-      </c>
-      <c r="N145" t="n">
-        <v>67.91000000000008</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,28 +5976,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J146" t="n">
-        <v>13.29999999999997</v>
-      </c>
-      <c r="K146" t="n">
-        <v>33.33333333333017</v>
-      </c>
-      <c r="L146" t="n">
-        <v>68.12000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>68.05499999999999</v>
-      </c>
-      <c r="N146" t="n">
-        <v>67.92000000000009</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7919,28 +6011,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J147" t="n">
-        <v>13.29999999999997</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>68.13000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>68.06499999999998</v>
-      </c>
-      <c r="N147" t="n">
-        <v>67.93666666666675</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7970,28 +6046,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J148" t="n">
-        <v>13.59999999999998</v>
-      </c>
-      <c r="K148" t="n">
-        <v>59.99999999999886</v>
-      </c>
-      <c r="L148" t="n">
-        <v>68.16000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>68.095</v>
-      </c>
-      <c r="N148" t="n">
-        <v>67.96333333333342</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8021,28 +6081,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J149" t="n">
-        <v>13.59999999999998</v>
-      </c>
-      <c r="K149" t="n">
-        <v>59.99999999999886</v>
-      </c>
-      <c r="L149" t="n">
-        <v>68.19000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>68.11999999999999</v>
-      </c>
-      <c r="N149" t="n">
-        <v>67.99000000000009</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8072,28 +6116,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J150" t="n">
-        <v>13.59999999999998</v>
-      </c>
-      <c r="K150" t="n">
-        <v>59.99999999999886</v>
-      </c>
-      <c r="L150" t="n">
-        <v>68.22000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>68.14</v>
-      </c>
-      <c r="N150" t="n">
-        <v>68.01666666666678</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8123,28 +6151,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J151" t="n">
-        <v>13.59999999999998</v>
-      </c>
-      <c r="K151" t="n">
-        <v>59.99999999999886</v>
-      </c>
-      <c r="L151" t="n">
-        <v>68.25000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>68.16</v>
-      </c>
-      <c r="N151" t="n">
-        <v>68.04333333333345</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8174,28 +6186,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J152" t="n">
-        <v>13.59999999999998</v>
-      </c>
-      <c r="K152" t="n">
-        <v>49.99999999999822</v>
-      </c>
-      <c r="L152" t="n">
-        <v>68.28000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>68.19000000000001</v>
-      </c>
-      <c r="N152" t="n">
-        <v>68.06666666666678</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8225,28 +6221,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J153" t="n">
-        <v>13.69999999999997</v>
-      </c>
-      <c r="K153" t="n">
-        <v>59.99999999999772</v>
-      </c>
-      <c r="L153" t="n">
-        <v>68.31000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>68.23</v>
-      </c>
-      <c r="N153" t="n">
-        <v>68.09333333333345</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8276,28 +6256,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J154" t="n">
-        <v>13.69999999999997</v>
-      </c>
-      <c r="K154" t="n">
-        <v>59.99999999999772</v>
-      </c>
-      <c r="L154" t="n">
-        <v>68.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>68.25000000000001</v>
-      </c>
-      <c r="N154" t="n">
-        <v>68.12000000000013</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8327,28 +6291,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J155" t="n">
-        <v>13.89999999999998</v>
-      </c>
-      <c r="K155" t="n">
-        <v>100</v>
-      </c>
-      <c r="L155" t="n">
-        <v>68.39000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>68.26500000000001</v>
-      </c>
-      <c r="N155" t="n">
-        <v>68.15333333333346</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8378,28 +6326,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J156" t="n">
-        <v>13.89999999999998</v>
-      </c>
-      <c r="K156" t="n">
-        <v>100</v>
-      </c>
-      <c r="L156" t="n">
-        <v>68.45000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>68.28500000000001</v>
-      </c>
-      <c r="N156" t="n">
-        <v>68.1866666666668</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8429,28 +6361,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J157" t="n">
-        <v>14.09999999999998</v>
-      </c>
-      <c r="K157" t="n">
-        <v>19.99999999999886</v>
-      </c>
-      <c r="L157" t="n">
-        <v>68.49000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>68.31000000000002</v>
-      </c>
-      <c r="N157" t="n">
-        <v>68.20666666666679</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8480,28 +6396,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J158" t="n">
-        <v>14.19999999999997</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0</v>
-      </c>
-      <c r="L158" t="n">
-        <v>68.49000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>68.32500000000002</v>
-      </c>
-      <c r="N158" t="n">
-        <v>68.2266666666668</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8531,28 +6431,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="J159" t="n">
-        <v>14.69999999999997</v>
-      </c>
-      <c r="K159" t="n">
-        <v>45.45454545454569</v>
-      </c>
-      <c r="L159" t="n">
-        <v>68.54000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>68.36500000000004</v>
-      </c>
-      <c r="N159" t="n">
-        <v>68.26000000000013</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8582,28 +6466,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J160" t="n">
-        <v>15.19999999999997</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0</v>
-      </c>
-      <c r="L160" t="n">
-        <v>68.54000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>68.38000000000004</v>
-      </c>
-      <c r="N160" t="n">
-        <v>68.27333333333347</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8633,28 +6501,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J161" t="n">
-        <v>15.29999999999997</v>
-      </c>
-      <c r="K161" t="n">
-        <v>5.882352941176175</v>
-      </c>
-      <c r="L161" t="n">
-        <v>68.55000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>68.40000000000005</v>
-      </c>
-      <c r="N161" t="n">
-        <v>68.29000000000013</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8684,28 +6536,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J162" t="n">
-        <v>15.29999999999997</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0</v>
-      </c>
-      <c r="L162" t="n">
-        <v>68.56000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>68.42000000000004</v>
-      </c>
-      <c r="N162" t="n">
-        <v>68.31333333333346</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8735,28 +6571,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J163" t="n">
-        <v>15.39999999999996</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-5.882352941176175</v>
-      </c>
-      <c r="L163" t="n">
-        <v>68.55000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>68.43000000000005</v>
-      </c>
-      <c r="N163" t="n">
-        <v>68.3366666666668</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8786,28 +6606,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="n">
-        <v>15.79999999999995</v>
-      </c>
-      <c r="K164" t="n">
-        <v>5.263157894736606</v>
-      </c>
-      <c r="L164" t="n">
-        <v>68.58000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>68.46000000000005</v>
-      </c>
-      <c r="N164" t="n">
-        <v>68.36000000000014</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8837,28 +6641,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J165" t="n">
-        <v>16.09999999999995</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-9.090909090909326</v>
-      </c>
-      <c r="L165" t="n">
-        <v>68.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>68.47500000000005</v>
-      </c>
-      <c r="N165" t="n">
-        <v>68.36333333333347</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8888,28 +6676,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J166" t="n">
-        <v>16.09999999999995</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0</v>
-      </c>
-      <c r="L166" t="n">
-        <v>68.53999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>68.49500000000005</v>
-      </c>
-      <c r="N166" t="n">
-        <v>68.37000000000013</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8939,28 +6711,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J167" t="n">
-        <v>16.29999999999995</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-4.761904761905213</v>
-      </c>
-      <c r="L167" t="n">
-        <v>68.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>68.50500000000005</v>
-      </c>
-      <c r="N167" t="n">
-        <v>68.38000000000014</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8990,28 +6746,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J168" t="n">
-        <v>16.29999999999995</v>
-      </c>
-      <c r="K168" t="n">
-        <v>-37.500000000001</v>
-      </c>
-      <c r="L168" t="n">
-        <v>68.50999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>68.50000000000004</v>
-      </c>
-      <c r="N168" t="n">
-        <v>68.38666666666681</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9041,28 +6781,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J169" t="n">
-        <v>16.29999999999995</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-9.090909090910031</v>
-      </c>
-      <c r="L169" t="n">
-        <v>68.44999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>68.49500000000003</v>
-      </c>
-      <c r="N169" t="n">
-        <v>68.39333333333349</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9092,28 +6816,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J170" t="n">
-        <v>16.39999999999996</v>
-      </c>
-      <c r="K170" t="n">
-        <v>-9.090909090908621</v>
-      </c>
-      <c r="L170" t="n">
-        <v>68.44999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>68.49500000000003</v>
-      </c>
-      <c r="N170" t="n">
-        <v>68.40333333333349</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9143,28 +6851,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J171" t="n">
-        <v>16.69999999999996</v>
-      </c>
-      <c r="K171" t="n">
-        <v>14.28571428571458</v>
-      </c>
-      <c r="L171" t="n">
-        <v>68.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>68.51000000000003</v>
-      </c>
-      <c r="N171" t="n">
-        <v>68.42333333333349</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9194,28 +6886,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J172" t="n">
-        <v>16.69999999999996</v>
-      </c>
-      <c r="K172" t="n">
-        <v>23.07692307692291</v>
-      </c>
-      <c r="L172" t="n">
-        <v>68.48999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>68.52500000000003</v>
-      </c>
-      <c r="N172" t="n">
-        <v>68.44333333333348</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9245,28 +6921,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J173" t="n">
-        <v>16.99999999999996</v>
-      </c>
-      <c r="K173" t="n">
-        <v>-33.33333333333254</v>
-      </c>
-      <c r="L173" t="n">
-        <v>68.48999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>68.52000000000004</v>
-      </c>
-      <c r="N173" t="n">
-        <v>68.45000000000017</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9296,28 +6956,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J174" t="n">
-        <v>17.49999999999996</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-42.85714285714228</v>
-      </c>
-      <c r="L174" t="n">
-        <v>68.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>68.49000000000004</v>
-      </c>
-      <c r="N174" t="n">
-        <v>68.44000000000018</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9347,28 +6991,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J175" t="n">
-        <v>17.79999999999995</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-17.64705882352921</v>
-      </c>
-      <c r="L175" t="n">
-        <v>68.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>68.46500000000005</v>
-      </c>
-      <c r="N175" t="n">
-        <v>68.44000000000018</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9398,28 +7026,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J176" t="n">
-        <v>18.09999999999995</v>
-      </c>
-      <c r="K176" t="n">
-        <v>-22.22222222222178</v>
-      </c>
-      <c r="L176" t="n">
-        <v>68.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>68.42500000000004</v>
-      </c>
-      <c r="N176" t="n">
-        <v>68.43333333333352</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9449,28 +7061,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="J177" t="n">
-        <v>18.29999999999995</v>
-      </c>
-      <c r="K177" t="n">
-        <v>-29.99999999999972</v>
-      </c>
-      <c r="L177" t="n">
-        <v>68.25000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>68.38500000000005</v>
-      </c>
-      <c r="N177" t="n">
-        <v>68.42000000000017</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9500,28 +7096,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J178" t="n">
-        <v>18.69999999999995</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-8.333333333333481</v>
-      </c>
-      <c r="L178" t="n">
-        <v>68.23000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
-        <v>68.37000000000003</v>
-      </c>
-      <c r="N178" t="n">
-        <v>68.41000000000017</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9551,28 +7131,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J179" t="n">
-        <v>18.69999999999995</v>
-      </c>
-      <c r="K179" t="n">
-        <v>-13.04347826087016</v>
-      </c>
-      <c r="L179" t="n">
-        <v>68.21000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
-        <v>68.33000000000003</v>
-      </c>
-      <c r="N179" t="n">
-        <v>68.40000000000016</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9602,28 +7166,12 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J180" t="n">
-        <v>18.69999999999995</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-30.00000000000064</v>
-      </c>
-      <c r="L180" t="n">
-        <v>68.18000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
-        <v>68.31500000000003</v>
-      </c>
-      <c r="N180" t="n">
-        <v>68.39000000000016</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9653,28 +7201,12 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J181" t="n">
-        <v>18.79999999999994</v>
-      </c>
-      <c r="K181" t="n">
-        <v>-33.33333333333378</v>
-      </c>
-      <c r="L181" t="n">
-        <v>68.11000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
-        <v>68.29000000000002</v>
-      </c>
-      <c r="N181" t="n">
-        <v>68.37666666666682</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9706,1097 +7238,10 @@
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>18.99999999999994</v>
-      </c>
-      <c r="K182" t="n">
-        <v>-30.00000000000064</v>
-      </c>
-      <c r="L182" t="n">
-        <v>68.02000000000001</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
-        <v>68.25500000000002</v>
-      </c>
-      <c r="N182" t="n">
-        <v>68.35666666666683</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C183" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D183" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E183" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F183" t="n">
-        <v>3114.6549</v>
-      </c>
-      <c r="G183" t="n">
-        <v>68.21999999999998</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J183" t="n">
-        <v>19.39999999999995</v>
-      </c>
-      <c r="K183" t="n">
-        <v>15.78947368421045</v>
-      </c>
-      <c r="L183" t="n">
-        <v>68.00000000000003</v>
-      </c>
-      <c r="M183" t="n">
-        <v>68.24500000000002</v>
-      </c>
-      <c r="N183" t="n">
-        <v>68.34666666666682</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>68</v>
-      </c>
-      <c r="C184" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D184" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E184" t="n">
-        <v>68</v>
-      </c>
-      <c r="F184" t="n">
-        <v>13688</v>
-      </c>
-      <c r="G184" t="n">
-        <v>68.22666666666666</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J184" t="n">
-        <v>19.49999999999996</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-5.882352941176962</v>
-      </c>
-      <c r="L184" t="n">
-        <v>68.02000000000002</v>
-      </c>
-      <c r="M184" t="n">
-        <v>68.21000000000001</v>
-      </c>
-      <c r="N184" t="n">
-        <v>68.33333333333348</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C185" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D185" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E185" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F185" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G185" t="n">
-        <v>68.23499999999999</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J185" t="n">
-        <v>19.59999999999997</v>
-      </c>
-      <c r="K185" t="n">
-        <v>19.99999999999962</v>
-      </c>
-      <c r="L185" t="n">
-        <v>68.02000000000002</v>
-      </c>
-      <c r="M185" t="n">
-        <v>68.19500000000002</v>
-      </c>
-      <c r="N185" t="n">
-        <v>68.31666666666682</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C186" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D186" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E186" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1710</v>
-      </c>
-      <c r="G186" t="n">
-        <v>68.24166666666666</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J186" t="n">
-        <v>19.69999999999997</v>
-      </c>
-      <c r="K186" t="n">
-        <v>28.57142857142755</v>
-      </c>
-      <c r="L186" t="n">
-        <v>68.04000000000003</v>
-      </c>
-      <c r="M186" t="n">
-        <v>68.17500000000001</v>
-      </c>
-      <c r="N186" t="n">
-        <v>68.29666666666682</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C187" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D187" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E187" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F187" t="n">
-        <v>13290</v>
-      </c>
-      <c r="G187" t="n">
-        <v>68.245</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J187" t="n">
-        <v>19.69999999999997</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0</v>
-      </c>
-      <c r="L187" t="n">
-        <v>68.08000000000003</v>
-      </c>
-      <c r="M187" t="n">
-        <v>68.16500000000001</v>
-      </c>
-      <c r="N187" t="n">
-        <v>68.28333333333349</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C188" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D188" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E188" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F188" t="n">
-        <v>16897.76</v>
-      </c>
-      <c r="G188" t="n">
-        <v>68.25</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J188" t="n">
-        <v>19.69999999999997</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0</v>
-      </c>
-      <c r="L188" t="n">
-        <v>68.08000000000003</v>
-      </c>
-      <c r="M188" t="n">
-        <v>68.155</v>
-      </c>
-      <c r="N188" t="n">
-        <v>68.27333333333348</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="C189" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="D189" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="E189" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="F189" t="n">
-        <v>13922.401</v>
-      </c>
-      <c r="G189" t="n">
-        <v>68.24999999999999</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J189" t="n">
-        <v>19.89999999999996</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-16.66666666666548</v>
-      </c>
-      <c r="L189" t="n">
-        <v>68.06000000000003</v>
-      </c>
-      <c r="M189" t="n">
-        <v>68.13500000000002</v>
-      </c>
-      <c r="N189" t="n">
-        <v>68.24000000000015</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="D190" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="E190" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G190" t="n">
-        <v>68.24833333333332</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="J190" t="n">
-        <v>19.89999999999996</v>
-      </c>
-      <c r="K190" t="n">
-        <v>-9.090909090908387</v>
-      </c>
-      <c r="L190" t="n">
-        <v>68.04000000000002</v>
-      </c>
-      <c r="M190" t="n">
-        <v>68.11000000000001</v>
-      </c>
-      <c r="N190" t="n">
-        <v>68.22333333333349</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>68</v>
-      </c>
-      <c r="C191" t="n">
-        <v>68</v>
-      </c>
-      <c r="D191" t="n">
-        <v>68</v>
-      </c>
-      <c r="E191" t="n">
-        <v>68</v>
-      </c>
-      <c r="F191" t="n">
-        <v>14849</v>
-      </c>
-      <c r="G191" t="n">
-        <v>68.24833333333332</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J191" t="n">
-        <v>19.99999999999996</v>
-      </c>
-      <c r="K191" t="n">
-        <v>20</v>
-      </c>
-      <c r="L191" t="n">
-        <v>68.04000000000002</v>
-      </c>
-      <c r="M191" t="n">
-        <v>68.07500000000002</v>
-      </c>
-      <c r="N191" t="n">
-        <v>68.20666666666681</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="C192" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="D192" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="E192" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1840.7161</v>
-      </c>
-      <c r="G192" t="n">
-        <v>68.24666666666666</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="J192" t="n">
-        <v>20.29999999999995</v>
-      </c>
-      <c r="K192" t="n">
-        <v>-55.5555555555552</v>
-      </c>
-      <c r="L192" t="n">
-        <v>68.03000000000003</v>
-      </c>
-      <c r="M192" t="n">
-        <v>68.02500000000001</v>
-      </c>
-      <c r="N192" t="n">
-        <v>68.18000000000013</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="C193" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D193" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="E193" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F193" t="n">
-        <v>125743.6637</v>
-      </c>
-      <c r="G193" t="n">
-        <v>68.24499999999999</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J193" t="n">
-        <v>20.39999999999996</v>
-      </c>
-      <c r="K193" t="n">
-        <v>-55.5555555555552</v>
-      </c>
-      <c r="L193" t="n">
-        <v>67.97000000000003</v>
-      </c>
-      <c r="M193" t="n">
-        <v>67.985</v>
-      </c>
-      <c r="N193" t="n">
-        <v>68.15333333333346</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C194" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D194" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E194" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F194" t="n">
-        <v>11872.7842</v>
-      </c>
-      <c r="G194" t="n">
-        <v>68.23666666666666</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J194" t="n">
-        <v>20.39999999999996</v>
-      </c>
-      <c r="K194" t="n">
-        <v>-75.00000000000134</v>
-      </c>
-      <c r="L194" t="n">
-        <v>67.92000000000003</v>
-      </c>
-      <c r="M194" t="n">
-        <v>67.97</v>
-      </c>
-      <c r="N194" t="n">
-        <v>68.11333333333347</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C195" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D195" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E195" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F195" t="n">
-        <v>24561.9999</v>
-      </c>
-      <c r="G195" t="n">
-        <v>68.22333333333333</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J195" t="n">
-        <v>20.39999999999996</v>
-      </c>
-      <c r="K195" t="n">
-        <v>-71.42857142857258</v>
-      </c>
-      <c r="L195" t="n">
-        <v>67.86000000000003</v>
-      </c>
-      <c r="M195" t="n">
-        <v>67.93999999999998</v>
-      </c>
-      <c r="N195" t="n">
-        <v>68.08333333333347</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C196" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D196" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E196" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F196" t="n">
-        <v>12658.1493</v>
-      </c>
-      <c r="G196" t="n">
-        <v>68.21166666666666</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J196" t="n">
-        <v>20.39999999999996</v>
-      </c>
-      <c r="K196" t="n">
-        <v>-71.42857142857258</v>
-      </c>
-      <c r="L196" t="n">
-        <v>67.81000000000003</v>
-      </c>
-      <c r="M196" t="n">
-        <v>67.92499999999998</v>
-      </c>
-      <c r="N196" t="n">
-        <v>68.05333333333347</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="C197" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="D197" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="E197" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="F197" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G197" t="n">
-        <v>68.20333333333333</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J197" t="n">
-        <v>20.49999999999996</v>
-      </c>
-      <c r="K197" t="n">
-        <v>-75.00000000000088</v>
-      </c>
-      <c r="L197" t="n">
-        <v>67.75000000000003</v>
-      </c>
-      <c r="M197" t="n">
-        <v>67.91499999999998</v>
-      </c>
-      <c r="N197" t="n">
-        <v>68.0266666666668</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="C198" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="D198" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="E198" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="F198" t="n">
-        <v>555.3868</v>
-      </c>
-      <c r="G198" t="n">
-        <v>68.19333333333333</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J198" t="n">
-        <v>20.49999999999996</v>
-      </c>
-      <c r="K198" t="n">
-        <v>-66.66666666666825</v>
-      </c>
-      <c r="L198" t="n">
-        <v>67.69000000000003</v>
-      </c>
-      <c r="M198" t="n">
-        <v>67.88499999999998</v>
-      </c>
-      <c r="N198" t="n">
-        <v>68.00000000000013</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="C199" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="D199" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="E199" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="F199" t="n">
-        <v>302.7194</v>
-      </c>
-      <c r="G199" t="n">
-        <v>68.18166666666667</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="J199" t="n">
-        <v>20.59999999999995</v>
-      </c>
-      <c r="K199" t="n">
-        <v>-71.42857142857258</v>
-      </c>
-      <c r="L199" t="n">
-        <v>67.64000000000001</v>
-      </c>
-      <c r="M199" t="n">
-        <v>67.84999999999999</v>
-      </c>
-      <c r="N199" t="n">
-        <v>67.97000000000013</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="C200" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="D200" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="E200" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="F200" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G200" t="n">
-        <v>68.16833333333334</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J200" t="n">
-        <v>20.69999999999996</v>
-      </c>
-      <c r="K200" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L200" t="n">
-        <v>67.58000000000001</v>
-      </c>
-      <c r="M200" t="n">
-        <v>67.80999999999999</v>
-      </c>
-      <c r="N200" t="n">
-        <v>67.93333333333345</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="C201" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="D201" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="E201" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="F201" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G201" t="n">
-        <v>68.15666666666667</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="J201" t="n">
-        <v>20.79999999999997</v>
-      </c>
-      <c r="K201" t="n">
-        <v>-59.99999999999772</v>
-      </c>
-      <c r="L201" t="n">
-        <v>67.52000000000001</v>
-      </c>
-      <c r="M201" t="n">
-        <v>67.78</v>
-      </c>
-      <c r="N201" t="n">
-        <v>67.89000000000013</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="C202" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="D202" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="E202" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="F202" t="n">
-        <v>5648.7484</v>
-      </c>
-      <c r="G202" t="n">
-        <v>68.14500000000001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>-0.3999999999999915</v>
-      </c>
-      <c r="J202" t="n">
-        <v>20.79999999999997</v>
-      </c>
-      <c r="K202" t="n">
-        <v>-49.99999999999645</v>
-      </c>
-      <c r="L202" t="n">
-        <v>67.49000000000001</v>
-      </c>
-      <c r="M202" t="n">
-        <v>67.76000000000001</v>
-      </c>
-      <c r="N202" t="n">
-        <v>67.84666666666678</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="C203" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="D203" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="E203" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="F203" t="n">
-        <v>66678.0695</v>
-      </c>
-      <c r="G203" t="n">
-        <v>68.13333333333335</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J203" t="n">
-        <v>20.89999999999996</v>
-      </c>
-      <c r="K203" t="n">
-        <v>-19.99999999999886</v>
-      </c>
-      <c r="L203" t="n">
-        <v>67.48</v>
-      </c>
-      <c r="M203" t="n">
-        <v>67.72499999999999</v>
-      </c>
-      <c r="N203" t="n">
-        <v>67.81666666666678</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-19 BackTest ENJ.xlsx
@@ -2446,13 +2446,17 @@
         <v>67.13166666666662</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K59" t="n">
+        <v>66.3</v>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
@@ -2481,14 +2485,22 @@
         <v>67.11333333333329</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K60" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2516,14 +2528,22 @@
         <v>67.0883333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K61" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2557,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>66.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="K62" t="n">
-        <v>66.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
@@ -2596,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>66.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2642,7 +2662,7 @@
         <v>66.5</v>
       </c>
       <c r="K64" t="n">
-        <v>66.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2676,22 +2696,14 @@
         <v>67.00833333333328</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K65" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2719,22 +2731,14 @@
         <v>66.98833333333327</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="K66" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2762,22 +2766,14 @@
         <v>66.96833333333328</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="K67" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2805,22 +2801,14 @@
         <v>66.94999999999995</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="K68" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +2836,14 @@
         <v>66.9316666666666</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="K69" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2891,22 +2871,14 @@
         <v>66.91333333333327</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="K70" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2934,22 +2906,14 @@
         <v>66.89333333333327</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K71" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2983,16 +2947,12 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
       <c r="K72" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>66.3</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3020,20 +2980,18 @@
         <v>66.85999999999994</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>66.59999999999999</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>66.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M73" t="n">
@@ -3063,20 +3021,18 @@
         <v>66.84999999999994</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>66.7</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>66.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -3106,22 +3062,14 @@
         <v>66.83499999999994</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K75" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3149,22 +3097,14 @@
         <v>66.82499999999995</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K76" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3192,22 +3132,14 @@
         <v>66.80999999999993</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K77" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3235,22 +3167,14 @@
         <v>66.79833333333328</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K78" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3278,22 +3202,14 @@
         <v>66.78333333333327</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="K79" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3327,14 +3243,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3368,14 +3278,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3409,14 +3313,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3450,14 +3348,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3491,14 +3383,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3532,14 +3418,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3573,14 +3453,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3614,14 +3488,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3655,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3696,14 +3558,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3737,14 +3593,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3778,14 +3628,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3819,14 +3663,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3860,14 +3698,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3901,14 +3733,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3942,14 +3768,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3983,14 +3803,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4024,14 +3838,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4065,14 +3873,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4106,14 +3908,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4147,14 +3943,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4188,14 +3978,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4229,14 +4013,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4270,14 +4048,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4311,14 +4083,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4352,14 +4118,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4393,14 +4153,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4434,14 +4188,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4475,14 +4223,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4516,14 +4258,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4557,14 +4293,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4598,14 +4328,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4639,14 +4363,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4680,14 +4398,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4721,14 +4433,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4762,14 +4468,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4803,14 +4503,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4844,14 +4538,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4885,14 +4573,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4926,14 +4608,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4967,14 +4643,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5008,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5049,14 +4713,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5090,14 +4748,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5131,14 +4783,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5172,14 +4818,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5213,14 +4853,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5254,14 +4888,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5295,14 +4923,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5336,14 +4958,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5377,14 +4993,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5418,14 +5028,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5459,14 +5063,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5500,14 +5098,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5541,14 +5133,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5582,14 +5168,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5623,16 +5203,10 @@
         <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>1.020525525525526</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -5941,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -5976,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -6116,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -6151,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -6186,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-19 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M182"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>67.8</v>
       </c>
       <c r="F2" t="n">
-        <v>955.3244</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>67.51333333333328</v>
+        <v>67.50499999999994</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>67.8</v>
       </c>
       <c r="F3" t="n">
-        <v>938.112</v>
+        <v>955.3244</v>
       </c>
       <c r="G3" t="n">
-        <v>67.5216666666666</v>
+        <v>67.51333333333328</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>67.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="C4" t="n">
-        <v>67.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="D4" t="n">
-        <v>67.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="E4" t="n">
-        <v>67.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F4" t="n">
-        <v>267.6108</v>
+        <v>938.112</v>
       </c>
       <c r="G4" t="n">
-        <v>67.52333333333327</v>
+        <v>67.5216666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>267.6108</v>
       </c>
       <c r="G5" t="n">
-        <v>67.5266666666666</v>
+        <v>67.52333333333327</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,19 +573,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67.3</v>
+        <v>67.5</v>
       </c>
       <c r="C6" t="n">
-        <v>67.3</v>
+        <v>67.5</v>
       </c>
       <c r="D6" t="n">
-        <v>67.3</v>
+        <v>67.5</v>
       </c>
       <c r="E6" t="n">
-        <v>67.3</v>
+        <v>67.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1852.9999</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
         <v>67.5266666666666</v>
@@ -620,7 +620,7 @@
         <v>67.3</v>
       </c>
       <c r="F7" t="n">
-        <v>655</v>
+        <v>1852.9999</v>
       </c>
       <c r="G7" t="n">
         <v>67.5266666666666</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="C8" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="D8" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="E8" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="F8" t="n">
-        <v>5460</v>
+        <v>655</v>
       </c>
       <c r="G8" t="n">
-        <v>67.52499999999992</v>
+        <v>67.5266666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>67.2</v>
       </c>
       <c r="F9" t="n">
-        <v>1081</v>
+        <v>5460</v>
       </c>
       <c r="G9" t="n">
-        <v>67.52333333333326</v>
+        <v>67.52499999999992</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="C10" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="D10" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="E10" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="F10" t="n">
-        <v>935.7667</v>
+        <v>1081</v>
       </c>
       <c r="G10" t="n">
-        <v>67.51999999999992</v>
+        <v>67.52333333333326</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="C11" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="D11" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="E11" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>935.7667</v>
       </c>
       <c r="G11" t="n">
-        <v>67.51666666666659</v>
+        <v>67.51999999999992</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>67.5</v>
       </c>
       <c r="C12" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D12" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E12" t="n">
         <v>67.5</v>
       </c>
       <c r="F12" t="n">
-        <v>5174.583857248521</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>67.51499999999993</v>
+        <v>67.51666666666659</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C13" t="n">
         <v>67.59999999999999</v>
@@ -827,13 +827,13 @@
         <v>67.59999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F13" t="n">
-        <v>150</v>
+        <v>5174.583857248521</v>
       </c>
       <c r="G13" t="n">
-        <v>67.51499999999994</v>
+        <v>67.51499999999993</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>67.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>67.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>7770</v>
+        <v>150</v>
       </c>
       <c r="G14" t="n">
-        <v>67.50499999999994</v>
+        <v>67.51499999999994</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="C15" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="D15" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="E15" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>7770</v>
       </c>
       <c r="G15" t="n">
-        <v>67.49833333333328</v>
+        <v>67.50499999999994</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>67.2</v>
+        <v>67.5</v>
       </c>
       <c r="C16" t="n">
-        <v>67.2</v>
+        <v>67.5</v>
       </c>
       <c r="D16" t="n">
-        <v>67.2</v>
+        <v>67.5</v>
       </c>
       <c r="E16" t="n">
-        <v>67.2</v>
+        <v>67.5</v>
       </c>
       <c r="F16" t="n">
-        <v>3250</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>67.48666666666661</v>
+        <v>67.49833333333328</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="C17" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="D17" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="E17" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>3250</v>
       </c>
       <c r="G17" t="n">
-        <v>67.48166666666661</v>
+        <v>67.48666666666661</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>67.2</v>
+        <v>67.5</v>
       </c>
       <c r="C18" t="n">
         <v>67.5</v>
@@ -1002,13 +1002,13 @@
         <v>67.5</v>
       </c>
       <c r="E18" t="n">
-        <v>67.2</v>
+        <v>67.5</v>
       </c>
       <c r="F18" t="n">
-        <v>1010</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>67.47999999999995</v>
+        <v>67.48166666666661</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>67.59999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="C19" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D19" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E19" t="n">
-        <v>67.59999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>1010</v>
       </c>
       <c r="G19" t="n">
         <v>67.47999999999995</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>161.2548</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>67.47499999999995</v>
+        <v>67.47999999999995</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>67.3</v>
       </c>
       <c r="F21" t="n">
-        <v>426.9884</v>
+        <v>161.2548</v>
       </c>
       <c r="G21" t="n">
-        <v>67.46666666666661</v>
+        <v>67.47499999999995</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>67.3</v>
       </c>
       <c r="F22" t="n">
-        <v>2100</v>
+        <v>426.9884</v>
       </c>
       <c r="G22" t="n">
-        <v>67.45999999999995</v>
+        <v>67.46666666666661</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,19 +1168,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="C23" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="D23" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="E23" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="F23" t="n">
-        <v>171.3313</v>
+        <v>2100</v>
       </c>
       <c r="G23" t="n">
         <v>67.45999999999995</v>
@@ -1215,10 +1215,10 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>171.3313</v>
       </c>
       <c r="G24" t="n">
-        <v>67.46833333333329</v>
+        <v>67.45999999999995</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>7572.3774</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>67.46833333333328</v>
+        <v>67.46833333333329</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="C26" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="D26" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="E26" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="F26" t="n">
-        <v>2780</v>
+        <v>7572.3774</v>
       </c>
       <c r="G26" t="n">
-        <v>67.46333333333328</v>
+        <v>67.46833333333328</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="C27" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="D27" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="E27" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>2780</v>
       </c>
       <c r="G27" t="n">
-        <v>67.46499999999995</v>
+        <v>67.46333333333328</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1352,13 +1352,13 @@
         <v>67.3</v>
       </c>
       <c r="E28" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="F28" t="n">
-        <v>9072.2662</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>67.46666666666663</v>
+        <v>67.46499999999995</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>67.3</v>
       </c>
       <c r="E29" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="F29" t="n">
-        <v>33061.367</v>
+        <v>9072.2662</v>
       </c>
       <c r="G29" t="n">
-        <v>67.4633333333333</v>
+        <v>67.46666666666663</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="C30" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="D30" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="E30" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="F30" t="n">
-        <v>3294</v>
+        <v>33061.367</v>
       </c>
       <c r="G30" t="n">
-        <v>67.45666666666662</v>
+        <v>67.4633333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>67.2</v>
       </c>
       <c r="C31" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="D31" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="E31" t="n">
         <v>67.2</v>
       </c>
       <c r="F31" t="n">
-        <v>1010</v>
+        <v>3294</v>
       </c>
       <c r="G31" t="n">
-        <v>67.45166666666663</v>
+        <v>67.45666666666662</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>67.2</v>
       </c>
       <c r="C32" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="D32" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="E32" t="n">
         <v>67.2</v>
       </c>
       <c r="F32" t="n">
-        <v>11660</v>
+        <v>1010</v>
       </c>
       <c r="G32" t="n">
-        <v>67.44499999999996</v>
+        <v>67.45166666666663</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>67.2</v>
       </c>
       <c r="F33" t="n">
-        <v>3424.7</v>
+        <v>11660</v>
       </c>
       <c r="G33" t="n">
         <v>67.44499999999996</v>
@@ -1565,10 +1565,10 @@
         <v>67.2</v>
       </c>
       <c r="F34" t="n">
-        <v>920.6597</v>
+        <v>3424.7</v>
       </c>
       <c r="G34" t="n">
-        <v>67.43999999999997</v>
+        <v>67.44499999999996</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>67.2</v>
       </c>
       <c r="F35" t="n">
-        <v>7302.9999</v>
+        <v>920.6597</v>
       </c>
       <c r="G35" t="n">
-        <v>67.42999999999996</v>
+        <v>67.43999999999997</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="C36" t="n">
         <v>67.2</v>
       </c>
       <c r="D36" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="E36" t="n">
         <v>67.2</v>
       </c>
       <c r="F36" t="n">
-        <v>317.8137</v>
+        <v>7302.9999</v>
       </c>
       <c r="G36" t="n">
-        <v>67.41999999999994</v>
+        <v>67.42999999999996</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="C37" t="n">
         <v>67.2</v>
       </c>
       <c r="D37" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="E37" t="n">
         <v>67.2</v>
       </c>
       <c r="F37" t="n">
-        <v>37519.6897</v>
+        <v>317.8137</v>
       </c>
       <c r="G37" t="n">
-        <v>67.41333333333328</v>
+        <v>67.41999999999994</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>67.2</v>
       </c>
       <c r="F38" t="n">
-        <v>3149</v>
+        <v>37519.6897</v>
       </c>
       <c r="G38" t="n">
-        <v>67.40999999999995</v>
+        <v>67.41333333333328</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>67.2</v>
       </c>
       <c r="F39" t="n">
-        <v>1000</v>
+        <v>3149</v>
       </c>
       <c r="G39" t="n">
-        <v>67.40666666666662</v>
+        <v>67.40999999999995</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>67.2</v>
       </c>
       <c r="F40" t="n">
-        <v>17333.9999</v>
+        <v>1000</v>
       </c>
       <c r="G40" t="n">
-        <v>67.40333333333329</v>
+        <v>67.40666666666662</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>67.2</v>
       </c>
       <c r="F41" t="n">
-        <v>435.0939</v>
+        <v>17333.9999</v>
       </c>
       <c r="G41" t="n">
-        <v>67.3983333333333</v>
+        <v>67.40333333333329</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>67.09999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="C42" t="n">
-        <v>67.09999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="D42" t="n">
-        <v>67.09999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="E42" t="n">
-        <v>67.09999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="F42" t="n">
-        <v>9509.8351</v>
+        <v>435.0939</v>
       </c>
       <c r="G42" t="n">
-        <v>67.39166666666664</v>
+        <v>67.3983333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>67.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>67.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>67.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>67.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>1500</v>
+        <v>9509.8351</v>
       </c>
       <c r="G43" t="n">
-        <v>67.3833333333333</v>
+        <v>67.39166666666664</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>67.2</v>
       </c>
       <c r="F44" t="n">
-        <v>1683.9999</v>
+        <v>1500</v>
       </c>
       <c r="G44" t="n">
-        <v>67.37499999999997</v>
+        <v>67.3833333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>67</v>
+        <v>67.2</v>
       </c>
       <c r="C45" t="n">
-        <v>66.90000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="D45" t="n">
-        <v>67</v>
+        <v>67.2</v>
       </c>
       <c r="E45" t="n">
-        <v>66.90000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="F45" t="n">
-        <v>20540.4283</v>
+        <v>1683.9999</v>
       </c>
       <c r="G45" t="n">
-        <v>67.36499999999997</v>
+        <v>67.37499999999997</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>67</v>
+      </c>
+      <c r="C46" t="n">
         <v>66.90000000000001</v>
       </c>
-      <c r="C46" t="n">
-        <v>66.7</v>
-      </c>
       <c r="D46" t="n">
+        <v>67</v>
+      </c>
+      <c r="E46" t="n">
         <v>66.90000000000001</v>
       </c>
-      <c r="E46" t="n">
-        <v>66.7</v>
-      </c>
       <c r="F46" t="n">
-        <v>105338.5905</v>
+        <v>20540.4283</v>
       </c>
       <c r="G46" t="n">
-        <v>67.35166666666663</v>
+        <v>67.36499999999997</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>66.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="D47" t="n">
-        <v>66.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="F47" t="n">
-        <v>316.2636</v>
+        <v>105338.5905</v>
       </c>
       <c r="G47" t="n">
-        <v>67.3383333333333</v>
+        <v>67.35166666666663</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>6975.4338</v>
+        <v>316.2636</v>
       </c>
       <c r="G48" t="n">
-        <v>67.32666666666663</v>
+        <v>67.3383333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>2708.3026</v>
+        <v>6975.4338</v>
       </c>
       <c r="G49" t="n">
-        <v>67.31499999999997</v>
+        <v>67.32666666666663</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>163.8502</v>
+        <v>2708.3026</v>
       </c>
       <c r="G50" t="n">
-        <v>67.29999999999997</v>
+        <v>67.31499999999997</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>66.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="C51" t="n">
-        <v>66.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D51" t="n">
-        <v>66.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="E51" t="n">
-        <v>66.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="F51" t="n">
-        <v>161.3313</v>
+        <v>163.8502</v>
       </c>
       <c r="G51" t="n">
-        <v>67.28499999999995</v>
+        <v>67.29999999999997</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>66.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>66.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>66.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>66.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>27.5075</v>
+        <v>161.3313</v>
       </c>
       <c r="G52" t="n">
-        <v>67.2733333333333</v>
+        <v>67.28499999999995</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>66.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>66.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>66.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>66.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>1086</v>
+        <v>27.5075</v>
       </c>
       <c r="G53" t="n">
-        <v>67.24666666666663</v>
+        <v>67.2733333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>66.40000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>222</v>
+        <v>1086</v>
       </c>
       <c r="G54" t="n">
-        <v>67.23166666666661</v>
+        <v>67.24666666666663</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>66.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>66.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>66.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>5336.1004</v>
+        <v>222</v>
       </c>
       <c r="G55" t="n">
-        <v>67.21333333333328</v>
+        <v>67.23166666666661</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>66.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="C56" t="n">
-        <v>66.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="D56" t="n">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
       <c r="E56" t="n">
-        <v>66.40000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="F56" t="n">
-        <v>11541.3946</v>
+        <v>5336.1004</v>
       </c>
       <c r="G56" t="n">
-        <v>67.19499999999995</v>
+        <v>67.21333333333328</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="E57" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>1770.6686</v>
+        <v>11541.3946</v>
       </c>
       <c r="G57" t="n">
-        <v>67.16999999999994</v>
+        <v>67.19499999999995</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="C58" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="D58" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="E58" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="F58" t="n">
-        <v>5312.0061</v>
+        <v>1770.6686</v>
       </c>
       <c r="G58" t="n">
-        <v>67.14999999999995</v>
+        <v>67.16999999999994</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,23 +2440,19 @@
         <v>66.3</v>
       </c>
       <c r="F59" t="n">
-        <v>27.4388</v>
+        <v>5312.0061</v>
       </c>
       <c r="G59" t="n">
-        <v>67.13166666666662</v>
+        <v>67.14999999999995</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K59" t="n">
-        <v>66.3</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
@@ -2479,28 +2475,20 @@
         <v>66.3</v>
       </c>
       <c r="F60" t="n">
-        <v>7846.5551</v>
+        <v>27.4388</v>
       </c>
       <c r="G60" t="n">
-        <v>67.11333333333329</v>
+        <v>67.13166666666662</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K60" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2522,28 +2510,20 @@
         <v>66.3</v>
       </c>
       <c r="F61" t="n">
-        <v>25214.8119</v>
+        <v>7846.5551</v>
       </c>
       <c r="G61" t="n">
-        <v>67.0883333333333</v>
+        <v>67.11333333333329</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K61" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2553,35 +2533,31 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>66.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="C62" t="n">
-        <v>66.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="D62" t="n">
-        <v>66.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E62" t="n">
-        <v>66.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="F62" t="n">
-        <v>12.4624</v>
+        <v>25214.8119</v>
       </c>
       <c r="G62" t="n">
-        <v>67.06833333333329</v>
+        <v>67.0883333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K62" t="n">
-        <v>66.3</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
@@ -2592,40 +2568,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>22.406</v>
+        <v>12.4624</v>
       </c>
       <c r="G63" t="n">
-        <v>67.04666666666661</v>
+        <v>67.06833333333329</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K63" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2647,28 +2615,20 @@
         <v>66.5</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>22.406</v>
       </c>
       <c r="G64" t="n">
-        <v>67.03166666666661</v>
+        <v>67.04666666666661</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K64" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2681,19 +2641,19 @@
         <v>66.5</v>
       </c>
       <c r="C65" t="n">
-        <v>66.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="D65" t="n">
         <v>66.5</v>
       </c>
       <c r="E65" t="n">
-        <v>66.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="F65" t="n">
-        <v>1107.5609</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>67.00833333333328</v>
+        <v>67.03166666666661</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2713,32 +2673,38 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>66.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="C66" t="n">
         <v>66.09999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="E66" t="n">
         <v>66.09999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>396</v>
+        <v>1107.5609</v>
       </c>
       <c r="G66" t="n">
-        <v>66.98833333333327</v>
+        <v>67.00833333333328</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2760,20 +2726,26 @@
         <v>66.09999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>110</v>
+        <v>396</v>
       </c>
       <c r="G67" t="n">
-        <v>66.96833333333328</v>
+        <v>66.98833333333327</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>66.09999999999999</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2795,20 +2767,26 @@
         <v>66.09999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="G68" t="n">
-        <v>66.94999999999995</v>
+        <v>66.96833333333328</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>66.09999999999999</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2824,16 +2802,16 @@
         <v>66.09999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="E69" t="n">
         <v>66.09999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="G69" t="n">
-        <v>66.9316666666666</v>
+        <v>66.94999999999995</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2843,7 +2821,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2853,32 +2835,38 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>66.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>66.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>66.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>66.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G70" t="n">
-        <v>66.91333333333327</v>
+        <v>66.9316666666666</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>66.09999999999999</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2888,22 +2876,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="C71" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="D71" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="E71" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="F71" t="n">
-        <v>41.8341</v>
+        <v>11</v>
       </c>
       <c r="G71" t="n">
-        <v>66.89333333333327</v>
+        <v>66.91333333333327</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2913,7 +2901,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2923,22 +2915,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
       <c r="C72" t="n">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
       <c r="D72" t="n">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
       <c r="E72" t="n">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
       <c r="F72" t="n">
-        <v>3460</v>
+        <v>41.8341</v>
       </c>
       <c r="G72" t="n">
-        <v>66.87499999999994</v>
+        <v>66.89333333333327</v>
       </c>
       <c r="H72" t="n">
         <v>1</v>
@@ -2947,12 +2939,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K72" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="L72" t="inlineStr"/>
+        <v>66.2</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2962,22 +2956,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>66.59999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="C73" t="n">
-        <v>66.7</v>
+        <v>66.5</v>
       </c>
       <c r="D73" t="n">
-        <v>66.7</v>
+        <v>66.5</v>
       </c>
       <c r="E73" t="n">
-        <v>66.59999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="F73" t="n">
-        <v>51664.9714</v>
+        <v>3460</v>
       </c>
       <c r="G73" t="n">
-        <v>66.85999999999994</v>
+        <v>66.87499999999994</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2986,12 +2980,10 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>66.3</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M73" t="n">
@@ -3003,10 +2995,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C74" t="n">
         <v>66.7</v>
-      </c>
-      <c r="C74" t="n">
-        <v>66.59999999999999</v>
       </c>
       <c r="D74" t="n">
         <v>66.7</v>
@@ -3015,10 +3007,10 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>5000</v>
+        <v>51664.9714</v>
       </c>
       <c r="G74" t="n">
-        <v>66.84999999999994</v>
+        <v>66.85999999999994</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3027,12 +3019,10 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>66.3</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -3044,22 +3034,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="C75" t="n">
         <v>66.59999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="E75" t="n">
         <v>66.59999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>3701.9998</v>
+        <v>5000</v>
       </c>
       <c r="G75" t="n">
-        <v>66.83499999999994</v>
+        <v>66.84999999999994</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3069,7 +3059,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3091,10 +3085,10 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>6605.3748</v>
+        <v>3701.9998</v>
       </c>
       <c r="G76" t="n">
-        <v>66.82499999999995</v>
+        <v>66.83499999999994</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3104,7 +3098,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3126,10 +3124,10 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>11549.8113</v>
+        <v>6605.3748</v>
       </c>
       <c r="G77" t="n">
-        <v>66.80999999999993</v>
+        <v>66.82499999999995</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3139,7 +3137,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3149,22 +3151,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>66.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>66.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>66.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>66.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>20530</v>
+        <v>11549.8113</v>
       </c>
       <c r="G78" t="n">
-        <v>66.79833333333328</v>
+        <v>66.80999999999993</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3174,7 +3176,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3184,22 +3190,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="C79" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="D79" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="E79" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="F79" t="n">
-        <v>2034.2875</v>
+        <v>20530</v>
       </c>
       <c r="G79" t="n">
-        <v>66.78333333333327</v>
+        <v>66.79833333333328</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3209,7 +3215,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3219,22 +3229,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="C80" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="D80" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="E80" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="F80" t="n">
-        <v>63964.3362</v>
+        <v>2034.2875</v>
       </c>
       <c r="G80" t="n">
-        <v>66.77499999999993</v>
+        <v>66.78333333333327</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3244,7 +3254,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3257,19 +3271,19 @@
         <v>66.8</v>
       </c>
       <c r="C81" t="n">
-        <v>66.90000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="D81" t="n">
-        <v>66.90000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="E81" t="n">
         <v>66.8</v>
       </c>
       <c r="F81" t="n">
-        <v>20875.5413</v>
+        <v>63964.3362</v>
       </c>
       <c r="G81" t="n">
-        <v>66.76833333333327</v>
+        <v>66.77499999999993</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3279,7 +3293,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3292,19 +3310,19 @@
         <v>66.8</v>
       </c>
       <c r="C82" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E82" t="n">
         <v>66.8</v>
       </c>
       <c r="F82" t="n">
-        <v>291.5032</v>
+        <v>20875.5413</v>
       </c>
       <c r="G82" t="n">
-        <v>66.75999999999993</v>
+        <v>66.76833333333327</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3314,7 +3332,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3336,10 +3358,10 @@
         <v>66.8</v>
       </c>
       <c r="F83" t="n">
-        <v>131.1002</v>
+        <v>291.5032</v>
       </c>
       <c r="G83" t="n">
-        <v>66.74666666666661</v>
+        <v>66.75999999999993</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3349,7 +3371,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3359,22 +3385,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="C84" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="D84" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="E84" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="F84" t="n">
-        <v>929.5757</v>
+        <v>131.1002</v>
       </c>
       <c r="G84" t="n">
-        <v>66.73166666666661</v>
+        <v>66.74666666666661</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3384,7 +3410,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3406,10 +3436,10 @@
         <v>66.7</v>
       </c>
       <c r="F85" t="n">
-        <v>610</v>
+        <v>929.5757</v>
       </c>
       <c r="G85" t="n">
-        <v>66.72166666666661</v>
+        <v>66.73166666666661</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3419,7 +3449,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3441,10 +3475,10 @@
         <v>66.7</v>
       </c>
       <c r="F86" t="n">
-        <v>476.4</v>
+        <v>610</v>
       </c>
       <c r="G86" t="n">
-        <v>66.71333333333327</v>
+        <v>66.72166666666661</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3454,7 +3488,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3464,22 +3502,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="C87" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="D87" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="E87" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="F87" t="n">
-        <v>5000</v>
+        <v>476.4</v>
       </c>
       <c r="G87" t="n">
-        <v>66.70499999999994</v>
+        <v>66.71333333333327</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3489,7 +3527,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3511,10 +3553,10 @@
         <v>66.8</v>
       </c>
       <c r="F88" t="n">
-        <v>1013</v>
+        <v>5000</v>
       </c>
       <c r="G88" t="n">
-        <v>66.6966666666666</v>
+        <v>66.70499999999994</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3524,7 +3566,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3546,10 +3592,10 @@
         <v>66.8</v>
       </c>
       <c r="F89" t="n">
-        <v>3874.9999</v>
+        <v>1013</v>
       </c>
       <c r="G89" t="n">
-        <v>66.68833333333326</v>
+        <v>66.6966666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3559,7 +3605,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3581,10 +3631,10 @@
         <v>66.8</v>
       </c>
       <c r="F90" t="n">
-        <v>661.7488</v>
+        <v>3874.9999</v>
       </c>
       <c r="G90" t="n">
-        <v>66.6816666666666</v>
+        <v>66.68833333333326</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3594,7 +3644,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3616,10 +3670,10 @@
         <v>66.8</v>
       </c>
       <c r="F91" t="n">
-        <v>29046.3214</v>
+        <v>661.7488</v>
       </c>
       <c r="G91" t="n">
-        <v>66.67333333333328</v>
+        <v>66.6816666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3629,7 +3683,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3639,22 +3697,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="C92" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="D92" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="E92" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="F92" t="n">
-        <v>28954.2635</v>
+        <v>29046.3214</v>
       </c>
       <c r="G92" t="n">
-        <v>66.66999999999994</v>
+        <v>66.67333333333328</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3664,7 +3722,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3677,19 +3739,19 @@
         <v>67</v>
       </c>
       <c r="C93" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="D93" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="E93" t="n">
         <v>67</v>
       </c>
       <c r="F93" t="n">
-        <v>54501.9315</v>
+        <v>28954.2635</v>
       </c>
       <c r="G93" t="n">
-        <v>66.67166666666661</v>
+        <v>66.66999999999994</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3699,7 +3761,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3709,7 +3775,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="C94" t="n">
         <v>67.3</v>
@@ -3718,13 +3784,13 @@
         <v>67.3</v>
       </c>
       <c r="E94" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="F94" t="n">
-        <v>2478.3209</v>
+        <v>54501.9315</v>
       </c>
       <c r="G94" t="n">
-        <v>66.67333333333329</v>
+        <v>66.67166666666661</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3734,7 +3800,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3744,22 +3814,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>67.09999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="C95" t="n">
-        <v>67</v>
+        <v>67.3</v>
       </c>
       <c r="D95" t="n">
-        <v>67.09999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="E95" t="n">
-        <v>67</v>
+        <v>67.3</v>
       </c>
       <c r="F95" t="n">
-        <v>2000</v>
+        <v>2478.3209</v>
       </c>
       <c r="G95" t="n">
-        <v>66.66999999999996</v>
+        <v>66.67333333333329</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3769,7 +3839,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3779,19 +3853,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>67.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>67.2</v>
+        <v>67</v>
       </c>
       <c r="D96" t="n">
-        <v>67.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>67.2</v>
+        <v>67</v>
       </c>
       <c r="F96" t="n">
-        <v>489.6335</v>
+        <v>2000</v>
       </c>
       <c r="G96" t="n">
         <v>66.66999999999996</v>
@@ -3804,7 +3878,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3814,35 +3892,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="C97" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="D97" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="E97" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="F97" t="n">
-        <v>90170.14479999999</v>
+        <v>489.6335</v>
       </c>
       <c r="G97" t="n">
-        <v>66.67166666666664</v>
+        <v>66.66999999999996</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3852,25 +3932,25 @@
         <v>67.3</v>
       </c>
       <c r="C98" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="D98" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="E98" t="n">
         <v>67.3</v>
       </c>
       <c r="F98" t="n">
-        <v>14767.77545207715</v>
+        <v>90170.14479999999</v>
       </c>
       <c r="G98" t="n">
-        <v>66.67499999999997</v>
+        <v>66.67166666666664</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3884,7 +3964,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="C99" t="n">
         <v>67.40000000000001</v>
@@ -3893,19 +3973,19 @@
         <v>67.40000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="F99" t="n">
-        <v>36</v>
+        <v>14767.77545207715</v>
       </c>
       <c r="G99" t="n">
-        <v>66.67833333333331</v>
+        <v>66.67499999999997</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3919,22 +3999,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>67.09999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>67</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>67.09999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>67</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>600.1708</v>
+        <v>36</v>
       </c>
       <c r="G100" t="n">
-        <v>66.67499999999998</v>
+        <v>66.67833333333331</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3954,22 +4034,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>67.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>67.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="D101" t="n">
-        <v>67.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>67.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="F101" t="n">
-        <v>115.8753</v>
+        <v>600.1708</v>
       </c>
       <c r="G101" t="n">
-        <v>66.67833333333331</v>
+        <v>66.67499999999998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3989,22 +4069,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>49138.9955</v>
+        <v>115.8753</v>
       </c>
       <c r="G102" t="n">
-        <v>66.68499999999999</v>
+        <v>66.67833333333331</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4030,16 +4110,16 @@
         <v>67.5</v>
       </c>
       <c r="D103" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E103" t="n">
         <v>67.5</v>
       </c>
       <c r="F103" t="n">
-        <v>769.843</v>
+        <v>49138.9955</v>
       </c>
       <c r="G103" t="n">
-        <v>66.68999999999998</v>
+        <v>66.68499999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4062,19 +4142,19 @@
         <v>67.5</v>
       </c>
       <c r="C104" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D104" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E104" t="n">
         <v>67.5</v>
       </c>
       <c r="F104" t="n">
-        <v>19315.3768</v>
+        <v>769.843</v>
       </c>
       <c r="G104" t="n">
-        <v>66.69666666666666</v>
+        <v>66.68999999999998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4097,19 +4177,19 @@
         <v>67.5</v>
       </c>
       <c r="C105" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>67.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E105" t="n">
         <v>67.5</v>
       </c>
       <c r="F105" t="n">
-        <v>6472.756</v>
+        <v>19315.3768</v>
       </c>
       <c r="G105" t="n">
-        <v>66.70666666666665</v>
+        <v>66.69666666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4129,22 +4209,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C106" t="n">
         <v>67.5</v>
       </c>
       <c r="D106" t="n">
-        <v>67.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E106" t="n">
         <v>67.5</v>
       </c>
       <c r="F106" t="n">
-        <v>763.4999</v>
+        <v>6472.756</v>
       </c>
       <c r="G106" t="n">
-        <v>66.71999999999998</v>
+        <v>66.70666666666665</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4164,13 +4244,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C107" t="n">
         <v>67.5</v>
       </c>
       <c r="D107" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E107" t="n">
         <v>67.5</v>
@@ -4179,7 +4259,7 @@
         <v>763.4999</v>
       </c>
       <c r="G107" t="n">
-        <v>66.73499999999999</v>
+        <v>66.71999999999998</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4199,28 +4279,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C108" t="n">
         <v>67.5</v>
       </c>
       <c r="D108" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E108" t="n">
         <v>67.5</v>
       </c>
       <c r="F108" t="n">
-        <v>1558</v>
+        <v>763.4999</v>
       </c>
       <c r="G108" t="n">
-        <v>66.74999999999999</v>
+        <v>66.73499999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4237,25 +4317,25 @@
         <v>67.59999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D109" t="n">
         <v>67.59999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F109" t="n">
-        <v>4478.9556</v>
+        <v>1558</v>
       </c>
       <c r="G109" t="n">
-        <v>66.76666666666667</v>
+        <v>66.74999999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4281,10 +4361,10 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>1878.8647</v>
+        <v>4478.9556</v>
       </c>
       <c r="G110" t="n">
-        <v>66.785</v>
+        <v>66.76666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4316,10 +4396,10 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>1789.0475</v>
+        <v>1878.8647</v>
       </c>
       <c r="G111" t="n">
-        <v>66.80499999999999</v>
+        <v>66.785</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4351,10 +4431,10 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>951</v>
+        <v>1789.0475</v>
       </c>
       <c r="G112" t="n">
-        <v>66.82166666666666</v>
+        <v>66.80499999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4386,10 +4466,10 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>1759.0899</v>
+        <v>951</v>
       </c>
       <c r="G113" t="n">
-        <v>66.84166666666665</v>
+        <v>66.82166666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4421,10 +4501,10 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>4876</v>
+        <v>1759.0899</v>
       </c>
       <c r="G114" t="n">
-        <v>66.86166666666665</v>
+        <v>66.84166666666665</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4456,10 +4536,10 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>1221.9999</v>
+        <v>4876</v>
       </c>
       <c r="G115" t="n">
-        <v>66.88333333333331</v>
+        <v>66.86166666666665</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4479,22 +4559,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>67.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>67.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>67.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>67.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>100</v>
+        <v>1221.9999</v>
       </c>
       <c r="G116" t="n">
-        <v>66.90666666666665</v>
+        <v>66.88333333333331</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4514,22 +4594,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>67.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="C117" t="n">
-        <v>67.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="D117" t="n">
-        <v>67.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E117" t="n">
-        <v>67.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="F117" t="n">
-        <v>27823.9999</v>
+        <v>100</v>
       </c>
       <c r="G117" t="n">
-        <v>66.92999999999998</v>
+        <v>66.90666666666665</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4549,22 +4629,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C118" t="n">
         <v>67.59999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E118" t="n">
         <v>67.59999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>2263</v>
+        <v>27823.9999</v>
       </c>
       <c r="G118" t="n">
-        <v>66.95166666666664</v>
+        <v>66.92999999999998</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4584,22 +4664,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="C119" t="n">
         <v>67.59999999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="E119" t="n">
         <v>67.59999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>5972</v>
+        <v>2263</v>
       </c>
       <c r="G119" t="n">
-        <v>66.9733333333333</v>
+        <v>66.95166666666664</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4631,10 +4711,10 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>105.9731</v>
+        <v>5972</v>
       </c>
       <c r="G120" t="n">
-        <v>66.99499999999996</v>
+        <v>66.9733333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4666,10 +4746,10 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>7000.145</v>
+        <v>105.9731</v>
       </c>
       <c r="G121" t="n">
-        <v>67.01666666666662</v>
+        <v>66.99499999999996</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4689,22 +4769,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>275.5487</v>
+        <v>7000.145</v>
       </c>
       <c r="G122" t="n">
-        <v>67.03499999999995</v>
+        <v>67.01666666666662</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4736,10 +4816,10 @@
         <v>67.7</v>
       </c>
       <c r="F123" t="n">
-        <v>251.9618</v>
+        <v>275.5487</v>
       </c>
       <c r="G123" t="n">
-        <v>67.05499999999996</v>
+        <v>67.03499999999995</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4771,10 +4851,10 @@
         <v>67.7</v>
       </c>
       <c r="F124" t="n">
-        <v>213.7521</v>
+        <v>251.9618</v>
       </c>
       <c r="G124" t="n">
-        <v>67.07499999999996</v>
+        <v>67.05499999999996</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4806,10 +4886,10 @@
         <v>67.7</v>
       </c>
       <c r="F125" t="n">
-        <v>900</v>
+        <v>213.7521</v>
       </c>
       <c r="G125" t="n">
-        <v>67.10166666666662</v>
+        <v>67.07499999999996</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4841,10 +4921,10 @@
         <v>67.7</v>
       </c>
       <c r="F126" t="n">
-        <v>2026.9999</v>
+        <v>900</v>
       </c>
       <c r="G126" t="n">
-        <v>67.12833333333329</v>
+        <v>67.10166666666662</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4864,22 +4944,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>67.90000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="C127" t="n">
-        <v>67.90000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="D127" t="n">
-        <v>67.90000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="E127" t="n">
-        <v>67.90000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="F127" t="n">
-        <v>1000</v>
+        <v>2026.9999</v>
       </c>
       <c r="G127" t="n">
-        <v>67.15833333333329</v>
+        <v>67.12833333333329</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4899,22 +4979,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>10454.1939</v>
+        <v>1000</v>
       </c>
       <c r="G128" t="n">
-        <v>67.18666666666662</v>
+        <v>67.15833333333329</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4934,22 +5014,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="C129" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="D129" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="E129" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F129" t="n">
-        <v>47501.549</v>
+        <v>10454.1939</v>
       </c>
       <c r="G129" t="n">
-        <v>67.21666666666663</v>
+        <v>67.18666666666662</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4972,19 +5052,19 @@
         <v>67.90000000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E130" t="n">
         <v>67.90000000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>2155.9999</v>
+        <v>47501.549</v>
       </c>
       <c r="G130" t="n">
-        <v>67.24666666666664</v>
+        <v>67.21666666666663</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5004,22 +5084,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>68.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C131" t="n">
         <v>68</v>
       </c>
       <c r="D131" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="E131" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F131" t="n">
-        <v>18783.8296</v>
+        <v>2155.9999</v>
       </c>
       <c r="G131" t="n">
-        <v>67.27499999999996</v>
+        <v>67.24666666666664</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5039,22 +5119,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>67.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="D132" t="n">
-        <v>67.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="F132" t="n">
-        <v>14.7492</v>
+        <v>18783.8296</v>
       </c>
       <c r="G132" t="n">
-        <v>67.29666666666664</v>
+        <v>67.27499999999996</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5074,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>67.7</v>
+        <v>67.8</v>
       </c>
       <c r="C133" t="n">
-        <v>67.7</v>
+        <v>67.8</v>
       </c>
       <c r="D133" t="n">
-        <v>67.7</v>
+        <v>67.8</v>
       </c>
       <c r="E133" t="n">
-        <v>67.7</v>
+        <v>67.8</v>
       </c>
       <c r="F133" t="n">
-        <v>3108.6395</v>
+        <v>14.7492</v>
       </c>
       <c r="G133" t="n">
-        <v>67.3133333333333</v>
+        <v>67.29666666666664</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5109,22 +5189,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>68.2</v>
+        <v>67.7</v>
       </c>
       <c r="C134" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="D134" t="n">
-        <v>68.90000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="E134" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="F134" t="n">
-        <v>123533.7695866473</v>
+        <v>3108.6395</v>
       </c>
       <c r="G134" t="n">
-        <v>67.33833333333331</v>
+        <v>67.3133333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5144,22 +5224,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C135" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c r="C135" t="n">
-        <v>68.40000000000001</v>
-      </c>
       <c r="D135" t="n">
-        <v>68.40000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E135" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>27019.1959</v>
+        <v>123533.7695866473</v>
       </c>
       <c r="G135" t="n">
-        <v>67.36833333333331</v>
+        <v>67.33833333333331</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5179,28 +5259,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>68.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>68.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>3049.9707</v>
+        <v>27019.1959</v>
       </c>
       <c r="G136" t="n">
-        <v>67.39666666666665</v>
+        <v>67.36833333333331</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5214,28 +5294,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="C137" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="D137" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="E137" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="F137" t="n">
-        <v>1502</v>
+        <v>3049.9707</v>
       </c>
       <c r="G137" t="n">
-        <v>67.41999999999999</v>
+        <v>67.39666666666665</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5249,28 +5329,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="C138" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="D138" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="E138" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="F138" t="n">
-        <v>7172.9446</v>
+        <v>1502</v>
       </c>
       <c r="G138" t="n">
-        <v>67.44166666666665</v>
+        <v>67.41999999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5296,10 +5376,10 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F139" t="n">
-        <v>21532.9377</v>
+        <v>7172.9446</v>
       </c>
       <c r="G139" t="n">
-        <v>67.46499999999999</v>
+        <v>67.44166666666665</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5331,10 +5411,10 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>1603.3868</v>
+        <v>21532.9377</v>
       </c>
       <c r="G140" t="n">
-        <v>67.48666666666666</v>
+        <v>67.46499999999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5366,10 +5446,10 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F141" t="n">
-        <v>1835.9999</v>
+        <v>1603.3868</v>
       </c>
       <c r="G141" t="n">
-        <v>67.50666666666667</v>
+        <v>67.48666666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5389,22 +5469,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C142" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E142" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="F142" t="n">
-        <v>10423.8775</v>
+        <v>1835.9999</v>
       </c>
       <c r="G142" t="n">
-        <v>67.52833333333334</v>
+        <v>67.50666666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5427,19 +5507,19 @@
         <v>68.2</v>
       </c>
       <c r="C143" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>68.2</v>
+        <v>68.3</v>
       </c>
       <c r="E143" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>104.0064</v>
+        <v>10423.8775</v>
       </c>
       <c r="G143" t="n">
-        <v>67.55166666666666</v>
+        <v>67.52833333333334</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5471,10 +5551,10 @@
         <v>68.2</v>
       </c>
       <c r="F144" t="n">
-        <v>1500</v>
+        <v>104.0064</v>
       </c>
       <c r="G144" t="n">
-        <v>67.57666666666665</v>
+        <v>67.55166666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5506,16 +5586,16 @@
         <v>68.2</v>
       </c>
       <c r="F145" t="n">
-        <v>8470</v>
+        <v>1500</v>
       </c>
       <c r="G145" t="n">
-        <v>67.60166666666666</v>
+        <v>67.57666666666665</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -5529,28 +5609,28 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="C146" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="D146" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="E146" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="F146" t="n">
-        <v>14690.4341</v>
+        <v>8470</v>
       </c>
       <c r="G146" t="n">
-        <v>67.625</v>
+        <v>67.60166666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -5576,10 +5656,10 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F147" t="n">
-        <v>1853.8483</v>
+        <v>14690.4341</v>
       </c>
       <c r="G147" t="n">
-        <v>67.64666666666668</v>
+        <v>67.625</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5599,22 +5679,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>68.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>68.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D148" t="n">
-        <v>68.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E148" t="n">
-        <v>68.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F148" t="n">
-        <v>10</v>
+        <v>1853.8483</v>
       </c>
       <c r="G148" t="n">
-        <v>67.67333333333333</v>
+        <v>67.64666666666668</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5646,10 +5726,10 @@
         <v>68.40000000000001</v>
       </c>
       <c r="F149" t="n">
-        <v>951.683</v>
+        <v>10</v>
       </c>
       <c r="G149" t="n">
-        <v>67.69999999999999</v>
+        <v>67.67333333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5681,16 +5761,16 @@
         <v>68.40000000000001</v>
       </c>
       <c r="F150" t="n">
-        <v>1158.6551</v>
+        <v>951.683</v>
       </c>
       <c r="G150" t="n">
-        <v>67.72666666666665</v>
+        <v>67.69999999999999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -5716,16 +5796,16 @@
         <v>68.40000000000001</v>
       </c>
       <c r="F151" t="n">
-        <v>3630</v>
+        <v>1158.6551</v>
       </c>
       <c r="G151" t="n">
-        <v>67.7533333333333</v>
+        <v>67.72666666666665</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -5751,16 +5831,16 @@
         <v>68.40000000000001</v>
       </c>
       <c r="F152" t="n">
-        <v>7260</v>
+        <v>3630</v>
       </c>
       <c r="G152" t="n">
-        <v>67.77666666666663</v>
+        <v>67.7533333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -5774,22 +5854,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>68.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C153" t="n">
-        <v>68.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D153" t="n">
-        <v>68.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E153" t="n">
-        <v>68.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F153" t="n">
-        <v>6023.8175</v>
+        <v>7260</v>
       </c>
       <c r="G153" t="n">
-        <v>67.79666666666662</v>
+        <v>67.77666666666663</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5821,10 +5901,10 @@
         <v>68.5</v>
       </c>
       <c r="F154" t="n">
-        <v>119317.8599</v>
+        <v>6023.8175</v>
       </c>
       <c r="G154" t="n">
-        <v>67.81666666666662</v>
+        <v>67.79666666666662</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5844,22 +5924,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="C155" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="D155" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="E155" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="F155" t="n">
-        <v>1315.6477</v>
+        <v>119317.8599</v>
       </c>
       <c r="G155" t="n">
-        <v>67.84499999999996</v>
+        <v>67.81666666666662</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5891,10 +5971,10 @@
         <v>68.7</v>
       </c>
       <c r="F156" t="n">
-        <v>25020</v>
+        <v>1315.6477</v>
       </c>
       <c r="G156" t="n">
-        <v>67.86999999999995</v>
+        <v>67.84499999999996</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5917,19 +5997,19 @@
         <v>68.7</v>
       </c>
       <c r="C157" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="D157" t="n">
         <v>68.7</v>
       </c>
       <c r="E157" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="F157" t="n">
-        <v>3500</v>
+        <v>25020</v>
       </c>
       <c r="G157" t="n">
-        <v>67.88999999999994</v>
+        <v>67.86999999999995</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5949,22 +6029,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="C158" t="n">
         <v>68.5</v>
       </c>
-      <c r="C158" t="n">
-        <v>68.40000000000001</v>
-      </c>
       <c r="D158" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="E158" t="n">
         <v>68.5</v>
       </c>
-      <c r="E158" t="n">
-        <v>68.40000000000001</v>
-      </c>
       <c r="F158" t="n">
-        <v>13033.4569</v>
+        <v>3500</v>
       </c>
       <c r="G158" t="n">
-        <v>67.90666666666661</v>
+        <v>67.88999999999994</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5984,22 +6064,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="C159" t="n">
-        <v>68.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D159" t="n">
-        <v>68.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="E159" t="n">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>14531.68099085631</v>
+        <v>13033.4569</v>
       </c>
       <c r="G159" t="n">
-        <v>67.9316666666666</v>
+        <v>67.90666666666661</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6019,22 +6099,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>68.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="C160" t="n">
-        <v>68.40000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D160" t="n">
-        <v>68.59999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E160" t="n">
-        <v>68.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="F160" t="n">
-        <v>29539.3475</v>
+        <v>14531.68099085631</v>
       </c>
       <c r="G160" t="n">
-        <v>67.95499999999994</v>
+        <v>67.9316666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6054,22 +6134,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>68.5</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C161" t="n">
-        <v>68.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D161" t="n">
-        <v>68.5</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E161" t="n">
-        <v>68.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F161" t="n">
-        <v>1590</v>
+        <v>29539.3475</v>
       </c>
       <c r="G161" t="n">
-        <v>67.97333333333327</v>
+        <v>67.95499999999994</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6089,22 +6169,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>68.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="C162" t="n">
         <v>68.5</v>
       </c>
       <c r="D162" t="n">
-        <v>68.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="E162" t="n">
         <v>68.5</v>
       </c>
       <c r="F162" t="n">
-        <v>11966.0792</v>
+        <v>1590</v>
       </c>
       <c r="G162" t="n">
-        <v>67.98999999999994</v>
+        <v>67.97333333333327</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6124,22 +6204,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>68.40000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C163" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="D163" t="n">
-        <v>68.40000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E163" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="F163" t="n">
-        <v>5056.9999</v>
+        <v>11966.0792</v>
       </c>
       <c r="G163" t="n">
-        <v>68.00499999999992</v>
+        <v>67.98999999999994</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6159,22 +6239,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>68.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>68.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D164" t="n">
-        <v>68.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E164" t="n">
-        <v>68.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F164" t="n">
-        <v>10</v>
+        <v>5056.9999</v>
       </c>
       <c r="G164" t="n">
-        <v>68.02499999999993</v>
+        <v>68.00499999999992</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6194,22 +6274,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>68.5</v>
+        <v>68.8</v>
       </c>
       <c r="C165" t="n">
-        <v>68.5</v>
+        <v>68.8</v>
       </c>
       <c r="D165" t="n">
-        <v>68.5</v>
+        <v>68.8</v>
       </c>
       <c r="E165" t="n">
-        <v>68.5</v>
+        <v>68.8</v>
       </c>
       <c r="F165" t="n">
-        <v>38797.0131</v>
+        <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>68.0416666666666</v>
+        <v>68.02499999999993</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6241,10 +6321,10 @@
         <v>68.5</v>
       </c>
       <c r="F166" t="n">
-        <v>12124.677</v>
+        <v>38797.0131</v>
       </c>
       <c r="G166" t="n">
-        <v>68.05833333333327</v>
+        <v>68.0416666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6264,22 +6344,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>68.3</v>
+        <v>68.5</v>
       </c>
       <c r="C167" t="n">
-        <v>68.3</v>
+        <v>68.5</v>
       </c>
       <c r="D167" t="n">
-        <v>68.3</v>
+        <v>68.5</v>
       </c>
       <c r="E167" t="n">
-        <v>68.3</v>
+        <v>68.5</v>
       </c>
       <c r="F167" t="n">
-        <v>12931.721</v>
+        <v>12124.677</v>
       </c>
       <c r="G167" t="n">
-        <v>68.07166666666662</v>
+        <v>68.05833333333327</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6311,10 +6391,10 @@
         <v>68.3</v>
       </c>
       <c r="F168" t="n">
-        <v>3335.9647</v>
+        <v>12931.721</v>
       </c>
       <c r="G168" t="n">
-        <v>68.08499999999995</v>
+        <v>68.07166666666662</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6346,10 +6426,10 @@
         <v>68.3</v>
       </c>
       <c r="F169" t="n">
-        <v>503.9939</v>
+        <v>3335.9647</v>
       </c>
       <c r="G169" t="n">
-        <v>68.09666666666662</v>
+        <v>68.08499999999995</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6369,22 +6449,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>68.40000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="C170" t="n">
-        <v>68.40000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="D170" t="n">
-        <v>68.40000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="E170" t="n">
-        <v>68.40000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="F170" t="n">
-        <v>15306.6229</v>
+        <v>503.9939</v>
       </c>
       <c r="G170" t="n">
-        <v>68.10999999999996</v>
+        <v>68.09666666666662</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6404,22 +6484,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C171" t="n">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D171" t="n">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E171" t="n">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F171" t="n">
-        <v>15900</v>
+        <v>15306.6229</v>
       </c>
       <c r="G171" t="n">
-        <v>68.12833333333329</v>
+        <v>68.10999999999996</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6451,10 +6531,10 @@
         <v>68.7</v>
       </c>
       <c r="F172" t="n">
-        <v>72793.2896</v>
+        <v>15900</v>
       </c>
       <c r="G172" t="n">
-        <v>68.14666666666663</v>
+        <v>68.12833333333329</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6474,22 +6554,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="C173" t="n">
-        <v>68.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="D173" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="E173" t="n">
-        <v>68.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="F173" t="n">
-        <v>2080</v>
+        <v>72793.2896</v>
       </c>
       <c r="G173" t="n">
-        <v>68.15999999999997</v>
+        <v>68.14666666666663</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6509,22 +6589,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>68.3</v>
+        <v>68.5</v>
       </c>
       <c r="C174" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D174" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="E174" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F174" t="n">
-        <v>207681</v>
+        <v>2080</v>
       </c>
       <c r="G174" t="n">
-        <v>68.16499999999998</v>
+        <v>68.15999999999997</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6544,22 +6624,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>68.2</v>
+        <v>68.3</v>
       </c>
       <c r="C175" t="n">
-        <v>68.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D175" t="n">
-        <v>68.2</v>
+        <v>68.7</v>
       </c>
       <c r="E175" t="n">
-        <v>68.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F175" t="n">
-        <v>278.3724</v>
+        <v>207681</v>
       </c>
       <c r="G175" t="n">
-        <v>68.17499999999998</v>
+        <v>68.16499999999998</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6579,22 +6659,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>67.90000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="C176" t="n">
-        <v>67.90000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="D176" t="n">
-        <v>67.90000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="E176" t="n">
-        <v>67.90000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="F176" t="n">
-        <v>13999</v>
+        <v>278.3724</v>
       </c>
       <c r="G176" t="n">
-        <v>68.17666666666665</v>
+        <v>68.17499999999998</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6614,22 +6694,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C177" t="n">
-        <v>67.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D177" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E177" t="n">
-        <v>67.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F177" t="n">
-        <v>24682.4888</v>
+        <v>13999</v>
       </c>
       <c r="G177" t="n">
-        <v>68.17833333333331</v>
+        <v>68.17666666666665</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6649,22 +6729,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="C178" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="D178" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E178" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="F178" t="n">
-        <v>564</v>
+        <v>24682.4888</v>
       </c>
       <c r="G178" t="n">
-        <v>68.18666666666664</v>
+        <v>68.17833333333331</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6690,16 +6770,16 @@
         <v>68.09999999999999</v>
       </c>
       <c r="D179" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E179" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="F179" t="n">
-        <v>4415.2863</v>
+        <v>564</v>
       </c>
       <c r="G179" t="n">
-        <v>68.19499999999998</v>
+        <v>68.18666666666664</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6725,16 +6805,16 @@
         <v>68.09999999999999</v>
       </c>
       <c r="D180" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="E180" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="F180" t="n">
-        <v>1510</v>
+        <v>4415.2863</v>
       </c>
       <c r="G180" t="n">
-        <v>68.2033333333333</v>
+        <v>68.19499999999998</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6754,22 +6834,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C181" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D181" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E181" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F181" t="n">
-        <v>2000</v>
+        <v>1510</v>
       </c>
       <c r="G181" t="n">
-        <v>68.20999999999998</v>
+        <v>68.2033333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6789,22 +6869,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="C182" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="D182" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="E182" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="F182" t="n">
-        <v>1312.3586</v>
+        <v>2000</v>
       </c>
       <c r="G182" t="n">
-        <v>68.21166666666664</v>
+        <v>68.20999999999998</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6819,6 +6899,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="C183" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="D183" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1312.3586</v>
+      </c>
+      <c r="G183" t="n">
+        <v>68.21166666666664</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-19 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-19 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
+        <v>67.4666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>67.50499999999994</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>955.3244</v>
       </c>
       <c r="G3" t="n">
+        <v>67.49333333333337</v>
+      </c>
+      <c r="H3" t="n">
         <v>67.51333333333328</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>938.112</v>
       </c>
       <c r="G4" t="n">
+        <v>67.5266666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>67.5216666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>267.6108</v>
       </c>
       <c r="G5" t="n">
+        <v>67.53333333333337</v>
+      </c>
+      <c r="H5" t="n">
         <v>67.52333333333327</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
+        <v>67.54000000000005</v>
+      </c>
+      <c r="H6" t="n">
         <v>67.5266666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1852.9999</v>
       </c>
       <c r="G7" t="n">
+        <v>67.54000000000005</v>
+      </c>
+      <c r="H7" t="n">
         <v>67.5266666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>655</v>
       </c>
       <c r="G8" t="n">
+        <v>67.54000000000005</v>
+      </c>
+      <c r="H8" t="n">
         <v>67.5266666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>5460</v>
       </c>
       <c r="G9" t="n">
+        <v>67.48666666666672</v>
+      </c>
+      <c r="H9" t="n">
         <v>67.52499999999992</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1081</v>
       </c>
       <c r="G10" t="n">
+        <v>67.48000000000006</v>
+      </c>
+      <c r="H10" t="n">
         <v>67.52333333333326</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>935.7667</v>
       </c>
       <c r="G11" t="n">
+        <v>67.4733333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>67.51999999999992</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
+        <v>67.47333333333339</v>
+      </c>
+      <c r="H12" t="n">
         <v>67.51666666666659</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>5174.583857248521</v>
       </c>
       <c r="G13" t="n">
+        <v>67.46666666666671</v>
+      </c>
+      <c r="H13" t="n">
         <v>67.51499999999993</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>150</v>
       </c>
       <c r="G14" t="n">
+        <v>67.47333333333337</v>
+      </c>
+      <c r="H14" t="n">
         <v>67.51499999999994</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>7770</v>
       </c>
       <c r="G15" t="n">
+        <v>67.46000000000005</v>
+      </c>
+      <c r="H15" t="n">
         <v>67.50499999999994</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
+        <v>67.46666666666671</v>
+      </c>
+      <c r="H16" t="n">
         <v>67.49833333333328</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>3250</v>
       </c>
       <c r="G17" t="n">
+        <v>67.4266666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>67.48666666666661</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
+        <v>67.40666666666671</v>
+      </c>
+      <c r="H18" t="n">
         <v>67.48166666666661</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>1010</v>
       </c>
       <c r="G19" t="n">
+        <v>67.38666666666671</v>
+      </c>
+      <c r="H19" t="n">
         <v>67.47999999999995</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>10</v>
       </c>
       <c r="G20" t="n">
+        <v>67.40000000000003</v>
+      </c>
+      <c r="H20" t="n">
         <v>67.47999999999995</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>161.2548</v>
       </c>
       <c r="G21" t="n">
+        <v>67.38666666666671</v>
+      </c>
+      <c r="H21" t="n">
         <v>67.47499999999995</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>426.9884</v>
       </c>
       <c r="G22" t="n">
+        <v>67.38666666666671</v>
+      </c>
+      <c r="H22" t="n">
         <v>67.46666666666661</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>2100</v>
       </c>
       <c r="G23" t="n">
+        <v>67.38666666666671</v>
+      </c>
+      <c r="H23" t="n">
         <v>67.45999999999995</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>171.3313</v>
       </c>
       <c r="G24" t="n">
+        <v>67.41333333333337</v>
+      </c>
+      <c r="H24" t="n">
         <v>67.45999999999995</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>10</v>
       </c>
       <c r="G25" t="n">
+        <v>67.44000000000003</v>
+      </c>
+      <c r="H25" t="n">
         <v>67.46833333333329</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>7572.3774</v>
       </c>
       <c r="G26" t="n">
+        <v>67.44000000000003</v>
+      </c>
+      <c r="H26" t="n">
         <v>67.46833333333328</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2780</v>
       </c>
       <c r="G27" t="n">
+        <v>67.42000000000003</v>
+      </c>
+      <c r="H27" t="n">
         <v>67.46333333333328</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
+        <v>67.40000000000002</v>
+      </c>
+      <c r="H28" t="n">
         <v>67.46499999999995</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>9072.2662</v>
       </c>
       <c r="G29" t="n">
+        <v>67.38000000000002</v>
+      </c>
+      <c r="H29" t="n">
         <v>67.46666666666663</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>33061.367</v>
       </c>
       <c r="G30" t="n">
+        <v>67.3866666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>67.4633333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>3294</v>
       </c>
       <c r="G31" t="n">
+        <v>67.3666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>67.45666666666662</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>1010</v>
       </c>
       <c r="G32" t="n">
+        <v>67.37333333333336</v>
+      </c>
+      <c r="H32" t="n">
         <v>67.45166666666663</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>11660</v>
       </c>
       <c r="G33" t="n">
+        <v>67.35333333333337</v>
+      </c>
+      <c r="H33" t="n">
         <v>67.44499999999996</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>3424.7</v>
       </c>
       <c r="G34" t="n">
+        <v>67.33333333333336</v>
+      </c>
+      <c r="H34" t="n">
         <v>67.44499999999996</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>920.6597</v>
       </c>
       <c r="G35" t="n">
+        <v>67.3066666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>67.43999999999997</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>7302.9999</v>
       </c>
       <c r="G36" t="n">
+        <v>67.30000000000003</v>
+      </c>
+      <c r="H36" t="n">
         <v>67.42999999999996</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>317.8137</v>
       </c>
       <c r="G37" t="n">
+        <v>67.29333333333336</v>
+      </c>
+      <c r="H37" t="n">
         <v>67.41999999999994</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>37519.6897</v>
       </c>
       <c r="G38" t="n">
+        <v>67.2866666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>67.41333333333328</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>3149</v>
       </c>
       <c r="G39" t="n">
+        <v>67.26000000000005</v>
+      </c>
+      <c r="H39" t="n">
         <v>67.40999999999995</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>1000</v>
       </c>
       <c r="G40" t="n">
+        <v>67.23333333333338</v>
+      </c>
+      <c r="H40" t="n">
         <v>67.40666666666662</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>17333.9999</v>
       </c>
       <c r="G41" t="n">
+        <v>67.2266666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>67.40333333333329</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>435.0939</v>
       </c>
       <c r="G42" t="n">
+        <v>67.2266666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>67.3983333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>9509.8351</v>
       </c>
       <c r="G43" t="n">
+        <v>67.21333333333337</v>
+      </c>
+      <c r="H43" t="n">
         <v>67.39166666666664</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>1500</v>
       </c>
       <c r="G44" t="n">
+        <v>67.20666666666671</v>
+      </c>
+      <c r="H44" t="n">
         <v>67.3833333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>1683.9999</v>
       </c>
       <c r="G45" t="n">
+        <v>67.20000000000005</v>
+      </c>
+      <c r="H45" t="n">
         <v>67.37499999999997</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>20540.4283</v>
       </c>
       <c r="G46" t="n">
+        <v>67.18000000000005</v>
+      </c>
+      <c r="H46" t="n">
         <v>67.36499999999997</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>105338.5905</v>
       </c>
       <c r="G47" t="n">
+        <v>67.14000000000006</v>
+      </c>
+      <c r="H47" t="n">
         <v>67.35166666666663</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>316.2636</v>
       </c>
       <c r="G48" t="n">
+        <v>67.10000000000005</v>
+      </c>
+      <c r="H48" t="n">
         <v>67.3383333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>6975.4338</v>
       </c>
       <c r="G49" t="n">
+        <v>67.06000000000003</v>
+      </c>
+      <c r="H49" t="n">
         <v>67.32666666666663</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>2708.3026</v>
       </c>
       <c r="G50" t="n">
+        <v>67.02000000000002</v>
+      </c>
+      <c r="H50" t="n">
         <v>67.31499999999997</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>163.8502</v>
       </c>
       <c r="G51" t="n">
+        <v>66.97333333333336</v>
+      </c>
+      <c r="H51" t="n">
         <v>67.29999999999997</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>161.3313</v>
       </c>
       <c r="G52" t="n">
+        <v>66.92000000000003</v>
+      </c>
+      <c r="H52" t="n">
         <v>67.28499999999995</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>27.5075</v>
       </c>
       <c r="G53" t="n">
+        <v>66.88000000000002</v>
+      </c>
+      <c r="H53" t="n">
         <v>67.2733333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>1086</v>
       </c>
       <c r="G54" t="n">
+        <v>66.82666666666668</v>
+      </c>
+      <c r="H54" t="n">
         <v>67.24666666666663</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>222</v>
       </c>
       <c r="G55" t="n">
+        <v>66.77333333333335</v>
+      </c>
+      <c r="H55" t="n">
         <v>67.23166666666661</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>5336.1004</v>
       </c>
       <c r="G56" t="n">
+        <v>66.71333333333335</v>
+      </c>
+      <c r="H56" t="n">
         <v>67.21333333333328</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>11541.3946</v>
       </c>
       <c r="G57" t="n">
+        <v>66.66000000000003</v>
+      </c>
+      <c r="H57" t="n">
         <v>67.19499999999995</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>1770.6686</v>
       </c>
       <c r="G58" t="n">
+        <v>66.60000000000002</v>
+      </c>
+      <c r="H58" t="n">
         <v>67.16999999999994</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>5312.0061</v>
       </c>
       <c r="G59" t="n">
+        <v>66.54000000000002</v>
+      </c>
+      <c r="H59" t="n">
         <v>67.14999999999995</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>27.4388</v>
       </c>
       <c r="G60" t="n">
+        <v>66.48000000000002</v>
+      </c>
+      <c r="H60" t="n">
         <v>67.13166666666662</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>7846.5551</v>
       </c>
       <c r="G61" t="n">
+        <v>66.44000000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>67.11333333333329</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>25214.8119</v>
       </c>
       <c r="G62" t="n">
+        <v>66.41333333333336</v>
+      </c>
+      <c r="H62" t="n">
         <v>67.0883333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>12.4624</v>
       </c>
       <c r="G63" t="n">
+        <v>66.41333333333334</v>
+      </c>
+      <c r="H63" t="n">
         <v>67.06833333333329</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>22.406</v>
       </c>
       <c r="G64" t="n">
+        <v>66.40666666666668</v>
+      </c>
+      <c r="H64" t="n">
         <v>67.04666666666661</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>10</v>
       </c>
       <c r="G65" t="n">
+        <v>66.40000000000002</v>
+      </c>
+      <c r="H65" t="n">
         <v>67.03166666666661</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,24 +2885,21 @@
         <v>1107.5609</v>
       </c>
       <c r="G66" t="n">
+        <v>66.37333333333336</v>
+      </c>
+      <c r="H66" t="n">
         <v>67.00833333333328</v>
       </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>66.5</v>
+        <v>0</v>
       </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2729,24 +2923,21 @@
         <v>396</v>
       </c>
       <c r="G67" t="n">
+        <v>66.35333333333335</v>
+      </c>
+      <c r="H67" t="n">
         <v>66.98833333333327</v>
       </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>66.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2770,24 +2961,21 @@
         <v>110</v>
       </c>
       <c r="G68" t="n">
+        <v>66.32000000000002</v>
+      </c>
+      <c r="H68" t="n">
         <v>66.96833333333328</v>
       </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>66.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,22 +2999,21 @@
         <v>154</v>
       </c>
       <c r="G69" t="n">
+        <v>66.30000000000003</v>
+      </c>
+      <c r="H69" t="n">
         <v>66.94999999999995</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2850,24 +3037,25 @@
         <v>44</v>
       </c>
       <c r="G70" t="n">
+        <v>66.28000000000003</v>
+      </c>
+      <c r="H70" t="n">
         <v>66.9316666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
         <v>66.09999999999999</v>
       </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2891,22 +3079,29 @@
         <v>11</v>
       </c>
       <c r="G71" t="n">
+        <v>66.27333333333335</v>
+      </c>
+      <c r="H71" t="n">
         <v>66.91333333333327</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="L71" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2930,24 +3125,29 @@
         <v>41.8341</v>
       </c>
       <c r="G72" t="n">
+        <v>66.26666666666669</v>
+      </c>
+      <c r="H72" t="n">
         <v>66.89333333333327</v>
       </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
         <v>66.2</v>
       </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2971,22 +3171,25 @@
         <v>3460</v>
       </c>
       <c r="G73" t="n">
+        <v>66.28666666666669</v>
+      </c>
+      <c r="H73" t="n">
         <v>66.87499999999994</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="L73" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3010,22 +3213,29 @@
         <v>51664.9714</v>
       </c>
       <c r="G74" t="n">
+        <v>66.31333333333336</v>
+      </c>
+      <c r="H74" t="n">
         <v>66.85999999999994</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="L74" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,22 +3259,29 @@
         <v>5000</v>
       </c>
       <c r="G75" t="n">
+        <v>66.33333333333336</v>
+      </c>
+      <c r="H75" t="n">
         <v>66.84999999999994</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="L75" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3088,22 +3305,25 @@
         <v>3701.9998</v>
       </c>
       <c r="G76" t="n">
+        <v>66.35333333333337</v>
+      </c>
+      <c r="H76" t="n">
         <v>66.83499999999994</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L76" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3127,22 +3347,27 @@
         <v>6605.3748</v>
       </c>
       <c r="G77" t="n">
+        <v>66.37333333333336</v>
+      </c>
+      <c r="H77" t="n">
         <v>66.82499999999995</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3166,22 +3391,27 @@
         <v>11549.8113</v>
       </c>
       <c r="G78" t="n">
+        <v>66.37333333333335</v>
+      </c>
+      <c r="H78" t="n">
         <v>66.80999999999993</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3205,22 +3435,25 @@
         <v>20530</v>
       </c>
       <c r="G79" t="n">
+        <v>66.39333333333336</v>
+      </c>
+      <c r="H79" t="n">
         <v>66.79833333333328</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="L79" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3244,22 +3477,29 @@
         <v>2034.2875</v>
       </c>
       <c r="G80" t="n">
+        <v>66.40666666666669</v>
+      </c>
+      <c r="H80" t="n">
         <v>66.78333333333327</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="L80" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,22 +3523,29 @@
         <v>63964.3362</v>
       </c>
       <c r="G81" t="n">
+        <v>66.45333333333335</v>
+      </c>
+      <c r="H81" t="n">
         <v>66.77499999999993</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="L81" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3322,22 +3569,21 @@
         <v>20875.5413</v>
       </c>
       <c r="G82" t="n">
+        <v>66.50666666666669</v>
+      </c>
+      <c r="H82" t="n">
         <v>66.76833333333327</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3361,22 +3607,21 @@
         <v>291.5032</v>
       </c>
       <c r="G83" t="n">
+        <v>66.55333333333336</v>
+      </c>
+      <c r="H83" t="n">
         <v>66.75999999999993</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3400,22 +3645,21 @@
         <v>131.1002</v>
       </c>
       <c r="G84" t="n">
+        <v>66.60000000000002</v>
+      </c>
+      <c r="H84" t="n">
         <v>66.74666666666661</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,22 +3683,21 @@
         <v>929.5757</v>
       </c>
       <c r="G85" t="n">
+        <v>66.64000000000001</v>
+      </c>
+      <c r="H85" t="n">
         <v>66.73166666666661</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,22 +3721,21 @@
         <v>610</v>
       </c>
       <c r="G86" t="n">
+        <v>66.67333333333335</v>
+      </c>
+      <c r="H86" t="n">
         <v>66.72166666666661</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3517,22 +3759,21 @@
         <v>476.4</v>
       </c>
       <c r="G87" t="n">
+        <v>66.70000000000002</v>
+      </c>
+      <c r="H87" t="n">
         <v>66.71333333333327</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,22 +3797,21 @@
         <v>5000</v>
       </c>
       <c r="G88" t="n">
+        <v>66.72000000000001</v>
+      </c>
+      <c r="H88" t="n">
         <v>66.70499999999994</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3595,22 +3835,21 @@
         <v>1013</v>
       </c>
       <c r="G89" t="n">
+        <v>66.72666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>66.6966666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3634,22 +3873,21 @@
         <v>3874.9999</v>
       </c>
       <c r="G90" t="n">
+        <v>66.73999999999999</v>
+      </c>
+      <c r="H90" t="n">
         <v>66.68833333333326</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3673,22 +3911,21 @@
         <v>661.7488</v>
       </c>
       <c r="G91" t="n">
+        <v>66.75333333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>66.6816666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,22 +3949,21 @@
         <v>29046.3214</v>
       </c>
       <c r="G92" t="n">
+        <v>66.76666666666668</v>
+      </c>
+      <c r="H92" t="n">
         <v>66.67333333333328</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3751,22 +3987,21 @@
         <v>28954.2635</v>
       </c>
       <c r="G93" t="n">
+        <v>66.79333333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>66.66999999999994</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3790,22 +4025,21 @@
         <v>54501.9315</v>
       </c>
       <c r="G94" t="n">
+        <v>66.82666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>66.67166666666661</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3829,22 +4063,21 @@
         <v>2478.3209</v>
       </c>
       <c r="G95" t="n">
+        <v>66.86666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>66.67333333333329</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3868,22 +4101,21 @@
         <v>2000</v>
       </c>
       <c r="G96" t="n">
+        <v>66.88000000000001</v>
+      </c>
+      <c r="H96" t="n">
         <v>66.66999999999996</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3907,22 +4139,23 @@
         <v>489.6335</v>
       </c>
       <c r="G97" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="H97" t="n">
         <v>66.66999999999996</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3944,18 +4177,21 @@
         <v>90170.14479999999</v>
       </c>
       <c r="G98" t="n">
+        <v>66.93333333333335</v>
+      </c>
+      <c r="H98" t="n">
         <v>66.67166666666664</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3979,18 +4215,21 @@
         <v>14767.77545207715</v>
       </c>
       <c r="G99" t="n">
+        <v>66.97333333333336</v>
+      </c>
+      <c r="H99" t="n">
         <v>66.67499999999997</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,18 +4253,21 @@
         <v>36</v>
       </c>
       <c r="G100" t="n">
+        <v>67.02000000000002</v>
+      </c>
+      <c r="H100" t="n">
         <v>66.67833333333331</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4049,18 +4291,21 @@
         <v>600.1708</v>
       </c>
       <c r="G101" t="n">
+        <v>67.04000000000002</v>
+      </c>
+      <c r="H101" t="n">
         <v>66.67499999999998</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4084,18 +4329,21 @@
         <v>115.8753</v>
       </c>
       <c r="G102" t="n">
+        <v>67.08666666666669</v>
+      </c>
+      <c r="H102" t="n">
         <v>66.67833333333331</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4119,18 +4367,21 @@
         <v>49138.9955</v>
       </c>
       <c r="G103" t="n">
+        <v>67.13333333333337</v>
+      </c>
+      <c r="H103" t="n">
         <v>66.68499999999999</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4154,18 +4405,21 @@
         <v>769.843</v>
       </c>
       <c r="G104" t="n">
+        <v>67.18000000000004</v>
+      </c>
+      <c r="H104" t="n">
         <v>66.68999999999998</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4189,18 +4443,21 @@
         <v>19315.3768</v>
       </c>
       <c r="G105" t="n">
+        <v>67.23333333333336</v>
+      </c>
+      <c r="H105" t="n">
         <v>66.69666666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4224,18 +4481,21 @@
         <v>6472.756</v>
       </c>
       <c r="G106" t="n">
+        <v>67.28000000000003</v>
+      </c>
+      <c r="H106" t="n">
         <v>66.70666666666665</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4259,18 +4519,21 @@
         <v>763.4999</v>
       </c>
       <c r="G107" t="n">
+        <v>67.3266666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>66.71999999999998</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4294,18 +4557,21 @@
         <v>763.4999</v>
       </c>
       <c r="G108" t="n">
+        <v>67.36000000000004</v>
+      </c>
+      <c r="H108" t="n">
         <v>66.73499999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4329,18 +4595,21 @@
         <v>1558</v>
       </c>
       <c r="G109" t="n">
+        <v>67.37333333333338</v>
+      </c>
+      <c r="H109" t="n">
         <v>66.74999999999999</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4364,18 +4633,21 @@
         <v>4478.9556</v>
       </c>
       <c r="G110" t="n">
+        <v>67.39333333333337</v>
+      </c>
+      <c r="H110" t="n">
         <v>66.76666666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4399,18 +4671,21 @@
         <v>1878.8647</v>
       </c>
       <c r="G111" t="n">
+        <v>67.43333333333337</v>
+      </c>
+      <c r="H111" t="n">
         <v>66.785</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4434,18 +4709,21 @@
         <v>1789.0475</v>
       </c>
       <c r="G112" t="n">
+        <v>67.46000000000002</v>
+      </c>
+      <c r="H112" t="n">
         <v>66.80499999999999</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4469,18 +4747,21 @@
         <v>951</v>
       </c>
       <c r="G113" t="n">
+        <v>67.48000000000002</v>
+      </c>
+      <c r="H113" t="n">
         <v>66.82166666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,18 +4785,21 @@
         <v>1759.0899</v>
       </c>
       <c r="G114" t="n">
+        <v>67.49333333333335</v>
+      </c>
+      <c r="H114" t="n">
         <v>66.84166666666665</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4539,18 +4823,21 @@
         <v>4876</v>
       </c>
       <c r="G115" t="n">
+        <v>67.50666666666669</v>
+      </c>
+      <c r="H115" t="n">
         <v>66.86166666666665</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4574,18 +4861,21 @@
         <v>1221.9999</v>
       </c>
       <c r="G116" t="n">
+        <v>67.54666666666668</v>
+      </c>
+      <c r="H116" t="n">
         <v>66.88333333333331</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4609,18 +4899,21 @@
         <v>100</v>
       </c>
       <c r="G117" t="n">
+        <v>67.57333333333335</v>
+      </c>
+      <c r="H117" t="n">
         <v>66.90666666666665</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4644,18 +4937,21 @@
         <v>27823.9999</v>
       </c>
       <c r="G118" t="n">
+        <v>67.58000000000001</v>
+      </c>
+      <c r="H118" t="n">
         <v>66.92999999999998</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4679,18 +4975,21 @@
         <v>2263</v>
       </c>
       <c r="G119" t="n">
+        <v>67.58666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>66.95166666666664</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4714,18 +5013,21 @@
         <v>5972</v>
       </c>
       <c r="G120" t="n">
+        <v>67.58666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>66.9733333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4749,18 +5051,21 @@
         <v>105.9731</v>
       </c>
       <c r="G121" t="n">
+        <v>67.59333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>66.99499999999996</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4784,18 +5089,21 @@
         <v>7000.145</v>
       </c>
       <c r="G122" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="H122" t="n">
         <v>67.01666666666662</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4819,18 +5127,21 @@
         <v>275.5487</v>
       </c>
       <c r="G123" t="n">
+        <v>67.61333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>67.03499999999995</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4854,18 +5165,21 @@
         <v>251.9618</v>
       </c>
       <c r="G124" t="n">
+        <v>67.62666666666668</v>
+      </c>
+      <c r="H124" t="n">
         <v>67.05499999999996</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4889,18 +5203,21 @@
         <v>213.7521</v>
       </c>
       <c r="G125" t="n">
+        <v>67.63333333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>67.07499999999996</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4924,18 +5241,21 @@
         <v>900</v>
       </c>
       <c r="G126" t="n">
+        <v>67.64</v>
+      </c>
+      <c r="H126" t="n">
         <v>67.10166666666662</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4959,18 +5279,21 @@
         <v>2026.9999</v>
       </c>
       <c r="G127" t="n">
+        <v>67.64666666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>67.12833333333329</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4994,18 +5317,21 @@
         <v>1000</v>
       </c>
       <c r="G128" t="n">
+        <v>67.66666666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>67.15833333333329</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5029,18 +5355,21 @@
         <v>10454.1939</v>
       </c>
       <c r="G129" t="n">
+        <v>67.67999999999999</v>
+      </c>
+      <c r="H129" t="n">
         <v>67.18666666666662</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5064,18 +5393,21 @@
         <v>47501.549</v>
       </c>
       <c r="G130" t="n">
+        <v>67.69999999999999</v>
+      </c>
+      <c r="H130" t="n">
         <v>67.21666666666663</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5099,18 +5431,21 @@
         <v>2155.9999</v>
       </c>
       <c r="G131" t="n">
+        <v>67.72666666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>67.24666666666664</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5134,18 +5469,21 @@
         <v>18783.8296</v>
       </c>
       <c r="G132" t="n">
+        <v>67.74000000000001</v>
+      </c>
+      <c r="H132" t="n">
         <v>67.27499999999996</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5169,18 +5507,21 @@
         <v>14.7492</v>
       </c>
       <c r="G133" t="n">
+        <v>67.75333333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>67.29666666666664</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5204,18 +5545,21 @@
         <v>3108.6395</v>
       </c>
       <c r="G134" t="n">
+        <v>67.76000000000001</v>
+      </c>
+      <c r="H134" t="n">
         <v>67.3133333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5239,18 +5583,21 @@
         <v>123533.7695866473</v>
       </c>
       <c r="G135" t="n">
+        <v>67.79333333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>67.33833333333331</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5274,18 +5621,21 @@
         <v>27019.1959</v>
       </c>
       <c r="G136" t="n">
+        <v>67.84666666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>67.36833333333331</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5309,18 +5659,21 @@
         <v>3049.9707</v>
       </c>
       <c r="G137" t="n">
+        <v>67.89333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>67.39666666666665</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,18 +5697,21 @@
         <v>1502</v>
       </c>
       <c r="G138" t="n">
+        <v>67.91333333333334</v>
+      </c>
+      <c r="H138" t="n">
         <v>67.41999999999999</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5379,18 +5735,21 @@
         <v>7172.9446</v>
       </c>
       <c r="G139" t="n">
+        <v>67.94</v>
+      </c>
+      <c r="H139" t="n">
         <v>67.44166666666665</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5414,18 +5773,21 @@
         <v>21532.9377</v>
       </c>
       <c r="G140" t="n">
+        <v>67.96666666666665</v>
+      </c>
+      <c r="H140" t="n">
         <v>67.46499999999999</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5449,18 +5811,21 @@
         <v>1603.3868</v>
       </c>
       <c r="G141" t="n">
+        <v>67.99333333333331</v>
+      </c>
+      <c r="H141" t="n">
         <v>67.48666666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5484,18 +5849,21 @@
         <v>1835.9999</v>
       </c>
       <c r="G142" t="n">
+        <v>68.01999999999997</v>
+      </c>
+      <c r="H142" t="n">
         <v>67.50666666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5519,18 +5887,21 @@
         <v>10423.8775</v>
       </c>
       <c r="G143" t="n">
+        <v>68.03333333333329</v>
+      </c>
+      <c r="H143" t="n">
         <v>67.52833333333334</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5554,18 +5925,21 @@
         <v>104.0064</v>
       </c>
       <c r="G144" t="n">
+        <v>68.05999999999996</v>
+      </c>
+      <c r="H144" t="n">
         <v>67.55166666666666</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5589,18 +5963,21 @@
         <v>1500</v>
       </c>
       <c r="G145" t="n">
+        <v>68.07999999999997</v>
+      </c>
+      <c r="H145" t="n">
         <v>67.57666666666665</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5624,18 +6001,21 @@
         <v>8470</v>
       </c>
       <c r="G146" t="n">
+        <v>68.09333333333329</v>
+      </c>
+      <c r="H146" t="n">
         <v>67.60166666666666</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5659,18 +6039,21 @@
         <v>14690.4341</v>
       </c>
       <c r="G147" t="n">
+        <v>68.09999999999995</v>
+      </c>
+      <c r="H147" t="n">
         <v>67.625</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5694,18 +6077,21 @@
         <v>1853.8483</v>
       </c>
       <c r="G148" t="n">
+        <v>68.11999999999995</v>
+      </c>
+      <c r="H148" t="n">
         <v>67.64666666666668</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5729,18 +6115,21 @@
         <v>10</v>
       </c>
       <c r="G149" t="n">
+        <v>68.16666666666661</v>
+      </c>
+      <c r="H149" t="n">
         <v>67.67333333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5764,18 +6153,21 @@
         <v>951.683</v>
       </c>
       <c r="G150" t="n">
+        <v>68.18666666666662</v>
+      </c>
+      <c r="H150" t="n">
         <v>67.69999999999999</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5799,18 +6191,21 @@
         <v>1158.6551</v>
       </c>
       <c r="G151" t="n">
+        <v>68.18666666666662</v>
+      </c>
+      <c r="H151" t="n">
         <v>67.72666666666665</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5834,18 +6229,21 @@
         <v>3630</v>
       </c>
       <c r="G152" t="n">
+        <v>68.1933333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>67.7533333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5869,18 +6267,21 @@
         <v>7260</v>
       </c>
       <c r="G153" t="n">
+        <v>68.21999999999997</v>
+      </c>
+      <c r="H153" t="n">
         <v>67.77666666666663</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5904,18 +6305,21 @@
         <v>6023.8175</v>
       </c>
       <c r="G154" t="n">
+        <v>68.24666666666663</v>
+      </c>
+      <c r="H154" t="n">
         <v>67.79666666666662</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5939,18 +6343,21 @@
         <v>119317.8599</v>
       </c>
       <c r="G155" t="n">
+        <v>68.2733333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>67.81666666666662</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5974,18 +6381,21 @@
         <v>1315.6477</v>
       </c>
       <c r="G156" t="n">
+        <v>68.3133333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>67.84499999999996</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6009,18 +6419,21 @@
         <v>25020</v>
       </c>
       <c r="G157" t="n">
+        <v>68.35333333333331</v>
+      </c>
+      <c r="H157" t="n">
         <v>67.86999999999995</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6044,18 +6457,21 @@
         <v>3500</v>
       </c>
       <c r="G158" t="n">
+        <v>68.37999999999998</v>
+      </c>
+      <c r="H158" t="n">
         <v>67.88999999999994</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6079,18 +6495,21 @@
         <v>13033.4569</v>
       </c>
       <c r="G159" t="n">
+        <v>68.39333333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>67.90666666666661</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6114,18 +6533,21 @@
         <v>14531.68099085631</v>
       </c>
       <c r="G160" t="n">
+        <v>68.44</v>
+      </c>
+      <c r="H160" t="n">
         <v>67.9316666666666</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6149,18 +6571,21 @@
         <v>29539.3475</v>
       </c>
       <c r="G161" t="n">
+        <v>68.45333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>67.95499999999994</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6184,18 +6609,21 @@
         <v>1590</v>
       </c>
       <c r="G162" t="n">
+        <v>68.48</v>
+      </c>
+      <c r="H162" t="n">
         <v>67.97333333333327</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6219,18 +6647,21 @@
         <v>11966.0792</v>
       </c>
       <c r="G163" t="n">
+        <v>68.50666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>67.98999999999994</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6254,18 +6685,21 @@
         <v>5056.9999</v>
       </c>
       <c r="G164" t="n">
+        <v>68.50666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>68.00499999999992</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6289,18 +6723,21 @@
         <v>10</v>
       </c>
       <c r="G165" t="n">
+        <v>68.53333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>68.02499999999993</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6324,18 +6761,21 @@
         <v>38797.0131</v>
       </c>
       <c r="G166" t="n">
+        <v>68.53999999999999</v>
+      </c>
+      <c r="H166" t="n">
         <v>68.0416666666666</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6359,18 +6799,21 @@
         <v>12124.677</v>
       </c>
       <c r="G167" t="n">
+        <v>68.54666666666665</v>
+      </c>
+      <c r="H167" t="n">
         <v>68.05833333333327</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6394,18 +6837,21 @@
         <v>12931.721</v>
       </c>
       <c r="G168" t="n">
+        <v>68.53999999999998</v>
+      </c>
+      <c r="H168" t="n">
         <v>68.07166666666662</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6429,18 +6875,21 @@
         <v>3335.9647</v>
       </c>
       <c r="G169" t="n">
+        <v>68.52666666666664</v>
+      </c>
+      <c r="H169" t="n">
         <v>68.08499999999995</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6464,18 +6913,21 @@
         <v>503.9939</v>
       </c>
       <c r="G170" t="n">
+        <v>68.51333333333331</v>
+      </c>
+      <c r="H170" t="n">
         <v>68.09666666666662</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6499,18 +6951,21 @@
         <v>15306.6229</v>
       </c>
       <c r="G171" t="n">
+        <v>68.49333333333331</v>
+      </c>
+      <c r="H171" t="n">
         <v>68.10999999999996</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6534,18 +6989,21 @@
         <v>15900</v>
       </c>
       <c r="G172" t="n">
+        <v>68.49333333333331</v>
+      </c>
+      <c r="H172" t="n">
         <v>68.12833333333329</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6569,18 +7027,21 @@
         <v>72793.2896</v>
       </c>
       <c r="G173" t="n">
+        <v>68.50666666666665</v>
+      </c>
+      <c r="H173" t="n">
         <v>68.14666666666663</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6604,18 +7065,21 @@
         <v>2080</v>
       </c>
       <c r="G174" t="n">
+        <v>68.50666666666665</v>
+      </c>
+      <c r="H174" t="n">
         <v>68.15999999999997</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6639,18 +7103,21 @@
         <v>207681</v>
       </c>
       <c r="G175" t="n">
+        <v>68.43999999999998</v>
+      </c>
+      <c r="H175" t="n">
         <v>68.16499999999998</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6674,18 +7141,21 @@
         <v>278.3724</v>
       </c>
       <c r="G176" t="n">
+        <v>68.42666666666665</v>
+      </c>
+      <c r="H176" t="n">
         <v>68.17499999999998</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6709,18 +7179,21 @@
         <v>13999</v>
       </c>
       <c r="G177" t="n">
+        <v>68.38666666666664</v>
+      </c>
+      <c r="H177" t="n">
         <v>68.17666666666665</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6744,18 +7217,21 @@
         <v>24682.4888</v>
       </c>
       <c r="G178" t="n">
+        <v>68.33333333333331</v>
+      </c>
+      <c r="H178" t="n">
         <v>68.17833333333331</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6779,18 +7255,21 @@
         <v>564</v>
       </c>
       <c r="G179" t="n">
+        <v>68.3133333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>68.18666666666664</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6814,18 +7293,21 @@
         <v>4415.2863</v>
       </c>
       <c r="G180" t="n">
+        <v>68.26666666666664</v>
+      </c>
+      <c r="H180" t="n">
         <v>68.19499999999998</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6849,18 +7331,21 @@
         <v>1510</v>
       </c>
       <c r="G181" t="n">
+        <v>68.23999999999997</v>
+      </c>
+      <c r="H181" t="n">
         <v>68.2033333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6884,18 +7369,21 @@
         <v>2000</v>
       </c>
       <c r="G182" t="n">
+        <v>68.20666666666664</v>
+      </c>
+      <c r="H182" t="n">
         <v>68.20999999999998</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6919,18 +7407,401 @@
         <v>1312.3586</v>
       </c>
       <c r="G183" t="n">
+        <v>68.1733333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>68.21166666666664</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C184" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3114.6549</v>
+      </c>
+      <c r="G184" t="n">
+        <v>68.16666666666664</v>
+      </c>
+      <c r="H184" t="n">
+        <v>68.21999999999998</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>68</v>
+      </c>
+      <c r="C185" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D185" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="E185" t="n">
+        <v>68</v>
+      </c>
+      <c r="F185" t="n">
+        <v>13688</v>
+      </c>
+      <c r="G185" t="n">
+        <v>68.15333333333329</v>
+      </c>
+      <c r="H185" t="n">
+        <v>68.22666666666666</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C186" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D186" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E186" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F186" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>68.13999999999997</v>
+      </c>
+      <c r="H186" t="n">
+        <v>68.23499999999999</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C187" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D187" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="E187" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1710</v>
+      </c>
+      <c r="G187" t="n">
+        <v>68.09999999999997</v>
+      </c>
+      <c r="H187" t="n">
+        <v>68.24166666666666</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C188" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D188" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="E188" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F188" t="n">
+        <v>13290</v>
+      </c>
+      <c r="G188" t="n">
+        <v>68.05999999999996</v>
+      </c>
+      <c r="H188" t="n">
+        <v>68.245</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C189" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D189" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="E189" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F189" t="n">
+        <v>16897.76</v>
+      </c>
+      <c r="G189" t="n">
+        <v>68.03999999999995</v>
+      </c>
+      <c r="H189" t="n">
+        <v>68.25</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D190" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="E190" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F190" t="n">
+        <v>13922.401</v>
+      </c>
+      <c r="G190" t="n">
+        <v>68.03999999999995</v>
+      </c>
+      <c r="H190" t="n">
+        <v>68.24999999999999</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C191" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D191" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="E191" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G191" t="n">
+        <v>68.01999999999995</v>
+      </c>
+      <c r="H191" t="n">
+        <v>68.24833333333332</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>68</v>
+      </c>
+      <c r="C192" t="n">
+        <v>68</v>
+      </c>
+      <c r="D192" t="n">
+        <v>68</v>
+      </c>
+      <c r="E192" t="n">
+        <v>68</v>
+      </c>
+      <c r="F192" t="n">
+        <v>14849</v>
+      </c>
+      <c r="G192" t="n">
+        <v>68.02666666666661</v>
+      </c>
+      <c r="H192" t="n">
+        <v>68.24833333333332</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="C193" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="D193" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="E193" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1840.7161</v>
+      </c>
+      <c r="G193" t="n">
+        <v>68.02666666666661</v>
+      </c>
+      <c r="H193" t="n">
+        <v>68.24666666666666</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-19 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M222"/>
+  <dimension ref="A1:N180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="C2" t="n">
-        <v>67.59999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="D2" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="E2" t="n">
-        <v>67.59999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="F2" t="n">
-        <v>22.18934911242604</v>
+        <v>7770</v>
       </c>
       <c r="G2" t="n">
-        <v>-5010116.63850103</v>
+        <v>-5021917.04784378</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="C3" t="n">
-        <v>67.2</v>
+        <v>67.5</v>
       </c>
       <c r="D3" t="n">
-        <v>67.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="E3" t="n">
-        <v>67.2</v>
+        <v>67.5</v>
       </c>
       <c r="F3" t="n">
-        <v>5470</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>-5015586.63850103</v>
+        <v>-5021907.04784378</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>67.8</v>
+        <v>67.2</v>
       </c>
       <c r="C4" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="D4" t="n">
-        <v>67.8</v>
+        <v>67.2</v>
       </c>
       <c r="E4" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="F4" t="n">
-        <v>1299.638</v>
+        <v>3250</v>
       </c>
       <c r="G4" t="n">
-        <v>-5014287.00050103</v>
+        <v>-5025157.04784378</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67.8</v>
+        <v>67.5</v>
       </c>
       <c r="C5" t="n">
-        <v>67.8</v>
+        <v>67.5</v>
       </c>
       <c r="D5" t="n">
-        <v>67.8</v>
+        <v>67.5</v>
       </c>
       <c r="E5" t="n">
-        <v>67.8</v>
+        <v>67.5</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-5014187.00050103</v>
+        <v>-5025147.04784378</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67.8</v>
+        <v>67.2</v>
       </c>
       <c r="C6" t="n">
-        <v>67.8</v>
+        <v>67.5</v>
       </c>
       <c r="D6" t="n">
-        <v>67.8</v>
+        <v>67.5</v>
       </c>
       <c r="E6" t="n">
-        <v>67.8</v>
+        <v>67.2</v>
       </c>
       <c r="F6" t="n">
-        <v>302.2719</v>
+        <v>1010</v>
       </c>
       <c r="G6" t="n">
-        <v>-5014187.00050103</v>
+        <v>-5025147.04784378</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,10 +630,10 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>14.7928</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>-5014201.79330103</v>
+        <v>-5025137.04784378</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="C8" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="D8" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="E8" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="F8" t="n">
-        <v>213</v>
+        <v>161.2548</v>
       </c>
       <c r="G8" t="n">
-        <v>-5014414.79330103</v>
+        <v>-5025298.302643781</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="C9" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="D9" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="E9" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="F9" t="n">
-        <v>213</v>
+        <v>426.9884</v>
       </c>
       <c r="G9" t="n">
-        <v>-5014414.79330103</v>
+        <v>-5025298.302643781</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="C10" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="D10" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="E10" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="F10" t="n">
-        <v>10680</v>
+        <v>2100</v>
       </c>
       <c r="G10" t="n">
-        <v>-5014414.79330103</v>
+        <v>-5025298.302643781</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>5000</v>
+        <v>171.3313</v>
       </c>
       <c r="G11" t="n">
-        <v>-5009414.79330103</v>
+        <v>-5025126.971343781</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>1690</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-5009414.79330103</v>
+        <v>-5025126.971343781</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>67.7</v>
+        <v>67.3</v>
       </c>
       <c r="C13" t="n">
-        <v>67.7</v>
+        <v>67.3</v>
       </c>
       <c r="D13" t="n">
-        <v>67.7</v>
+        <v>67.3</v>
       </c>
       <c r="E13" t="n">
-        <v>67.7</v>
+        <v>67.3</v>
       </c>
       <c r="F13" t="n">
-        <v>1185.1709</v>
+        <v>7572.3774</v>
       </c>
       <c r="G13" t="n">
-        <v>-5008229.62240103</v>
+        <v>-5032699.348743781</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>67.7</v>
+        <v>67.2</v>
       </c>
       <c r="C14" t="n">
-        <v>67.7</v>
+        <v>67.2</v>
       </c>
       <c r="D14" t="n">
-        <v>67.7</v>
+        <v>67.2</v>
       </c>
       <c r="E14" t="n">
-        <v>67.7</v>
+        <v>67.2</v>
       </c>
       <c r="F14" t="n">
-        <v>1769.0387</v>
+        <v>2780</v>
       </c>
       <c r="G14" t="n">
-        <v>-5008229.62240103</v>
+        <v>-5035479.348743781</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="C15" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="D15" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="E15" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="F15" t="n">
-        <v>32084.9333</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>-5040314.555701029</v>
+        <v>-5035469.348743781</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="C16" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="D16" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="E16" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="F16" t="n">
-        <v>663.4074000000001</v>
+        <v>9072.2662</v>
       </c>
       <c r="G16" t="n">
-        <v>-5040314.555701029</v>
+        <v>-5035469.348743781</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="C17" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="D17" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="E17" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="F17" t="n">
-        <v>194.611</v>
+        <v>33061.367</v>
       </c>
       <c r="G17" t="n">
-        <v>-5040509.166701029</v>
+        <v>-5035469.348743781</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="C18" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="D18" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="E18" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="F18" t="n">
-        <v>785.9027</v>
+        <v>3294</v>
       </c>
       <c r="G18" t="n">
-        <v>-5041295.069401029</v>
+        <v>-5038763.348743781</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,13 +1043,14 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="C19" t="n">
         <v>67.3</v>
@@ -1037,13 +1059,13 @@
         <v>67.3</v>
       </c>
       <c r="E19" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="F19" t="n">
-        <v>786.9638</v>
+        <v>1010</v>
       </c>
       <c r="G19" t="n">
-        <v>-5041295.069401029</v>
+        <v>-5037753.348743781</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>67.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="C20" t="n">
-        <v>67.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="D20" t="n">
-        <v>67.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="E20" t="n">
-        <v>67.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="F20" t="n">
-        <v>2990</v>
+        <v>11660</v>
       </c>
       <c r="G20" t="n">
-        <v>-5038305.069401029</v>
+        <v>-5049413.348743781</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="C21" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="D21" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="E21" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="F21" t="n">
-        <v>1550</v>
+        <v>3424.7</v>
       </c>
       <c r="G21" t="n">
-        <v>-5039855.069401029</v>
+        <v>-5049413.348743781</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>67.8</v>
+        <v>67.2</v>
       </c>
       <c r="C22" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="D22" t="n">
-        <v>69.2</v>
+        <v>67.2</v>
       </c>
       <c r="E22" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="F22" t="n">
-        <v>8178.9934</v>
+        <v>920.6597</v>
       </c>
       <c r="G22" t="n">
-        <v>-5039855.069401029</v>
+        <v>-5049413.348743781</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>67.59999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="C23" t="n">
-        <v>68</v>
+        <v>67.2</v>
       </c>
       <c r="D23" t="n">
-        <v>68</v>
+        <v>67.2</v>
       </c>
       <c r="E23" t="n">
-        <v>67.09999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="F23" t="n">
-        <v>16563.0917</v>
+        <v>7302.9999</v>
       </c>
       <c r="G23" t="n">
-        <v>-5023291.97770103</v>
+        <v>-5049413.348743781</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="C24" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D24" t="n">
         <v>67.3</v>
-      </c>
-      <c r="D24" t="n">
-        <v>67.40000000000001</v>
       </c>
       <c r="E24" t="n">
         <v>67.2</v>
       </c>
       <c r="F24" t="n">
-        <v>2500</v>
+        <v>317.8137</v>
       </c>
       <c r="G24" t="n">
-        <v>-5025791.97770103</v>
+        <v>-5049413.348743781</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>67.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="C25" t="n">
-        <v>67.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="D25" t="n">
-        <v>67.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="E25" t="n">
-        <v>67.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="F25" t="n">
-        <v>272.5849</v>
+        <v>37519.6897</v>
       </c>
       <c r="G25" t="n">
-        <v>-5025519.39280103</v>
+        <v>-5049413.348743781</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>67.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="C26" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="D26" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="E26" t="n">
-        <v>67.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="F26" t="n">
-        <v>195.2278</v>
+        <v>3149</v>
       </c>
       <c r="G26" t="n">
-        <v>-5025324.165001029</v>
+        <v>-5049413.348743781</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>67.7</v>
+        <v>67.2</v>
       </c>
       <c r="C27" t="n">
-        <v>67.7</v>
+        <v>67.2</v>
       </c>
       <c r="D27" t="n">
-        <v>67.7</v>
+        <v>67.2</v>
       </c>
       <c r="E27" t="n">
-        <v>67.7</v>
+        <v>67.2</v>
       </c>
       <c r="F27" t="n">
-        <v>14334.9252</v>
+        <v>1000</v>
       </c>
       <c r="G27" t="n">
-        <v>-5010989.239801029</v>
+        <v>-5049413.348743781</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="C28" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="D28" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="E28" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="F28" t="n">
-        <v>1557</v>
+        <v>17333.9999</v>
       </c>
       <c r="G28" t="n">
-        <v>-5012546.239801029</v>
+        <v>-5049413.348743781</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>67.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="C29" t="n">
-        <v>67.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="D29" t="n">
-        <v>67.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="E29" t="n">
-        <v>67.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="F29" t="n">
-        <v>160.5479</v>
+        <v>435.0939</v>
       </c>
       <c r="G29" t="n">
-        <v>-5012706.787701028</v>
+        <v>-5049413.348743781</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>67.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>67.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>67.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>67.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>6609.792</v>
+        <v>9509.8351</v>
       </c>
       <c r="G30" t="n">
-        <v>-5012706.787701028</v>
+        <v>-5058923.18384378</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>67.8</v>
+        <v>67.2</v>
       </c>
       <c r="C31" t="n">
-        <v>67.8</v>
+        <v>67.2</v>
       </c>
       <c r="D31" t="n">
-        <v>67.8</v>
+        <v>67.2</v>
       </c>
       <c r="E31" t="n">
-        <v>67.8</v>
+        <v>67.2</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="G31" t="n">
-        <v>-5012696.787701028</v>
+        <v>-5057423.18384378</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>67.8</v>
+        <v>67.2</v>
       </c>
       <c r="C32" t="n">
-        <v>67.8</v>
+        <v>67.2</v>
       </c>
       <c r="D32" t="n">
-        <v>67.8</v>
+        <v>67.2</v>
       </c>
       <c r="E32" t="n">
-        <v>67.8</v>
+        <v>67.2</v>
       </c>
       <c r="F32" t="n">
-        <v>955.3244</v>
+        <v>1683.9999</v>
       </c>
       <c r="G32" t="n">
-        <v>-5012696.787701028</v>
+        <v>-5057423.18384378</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>67.8</v>
+        <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>67.8</v>
+        <v>67</v>
       </c>
       <c r="E33" t="n">
-        <v>67.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>938.112</v>
+        <v>20540.4283</v>
       </c>
       <c r="G33" t="n">
-        <v>-5012696.787701028</v>
+        <v>-5077963.61214378</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>67.40000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>67.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="D34" t="n">
-        <v>67.40000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>67.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="F34" t="n">
-        <v>267.6108</v>
+        <v>105338.5905</v>
       </c>
       <c r="G34" t="n">
-        <v>-5012964.398501028</v>
+        <v>-5183302.20264378</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>67.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>67.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>67.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>67.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>316.2636</v>
       </c>
       <c r="G35" t="n">
-        <v>-5012954.398501028</v>
+        <v>-5183618.46624378</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>1852.9999</v>
+        <v>6975.4338</v>
       </c>
       <c r="G36" t="n">
-        <v>-5014807.398401028</v>
+        <v>-5183618.46624378</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>655</v>
+        <v>2708.3026</v>
       </c>
       <c r="G37" t="n">
-        <v>-5014807.398401028</v>
+        <v>-5183618.46624378</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>67.2</v>
+        <v>66.5</v>
       </c>
       <c r="C38" t="n">
-        <v>67.2</v>
+        <v>66.5</v>
       </c>
       <c r="D38" t="n">
-        <v>67.2</v>
+        <v>66.5</v>
       </c>
       <c r="E38" t="n">
-        <v>67.2</v>
+        <v>66.5</v>
       </c>
       <c r="F38" t="n">
-        <v>5460</v>
+        <v>163.8502</v>
       </c>
       <c r="G38" t="n">
-        <v>-5020267.398401028</v>
+        <v>-5183782.31644378</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>67.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>67.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>67.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>67.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>1081</v>
+        <v>161.3313</v>
       </c>
       <c r="G39" t="n">
-        <v>-5020267.398401028</v>
+        <v>-5183943.64774378</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>935.7667</v>
+        <v>27.5075</v>
       </c>
       <c r="G40" t="n">
-        <v>-5019331.631701029</v>
+        <v>-5183916.14024378</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>67.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>67.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>67.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>67.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>1086</v>
       </c>
       <c r="G41" t="n">
-        <v>-5019321.631701029</v>
+        <v>-5185002.14024378</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>67.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>67.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>67.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>67.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>5174.583857248521</v>
+        <v>222</v>
       </c>
       <c r="G42" t="n">
-        <v>-5014147.04784378</v>
+        <v>-5185002.14024378</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>67.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="C43" t="n">
-        <v>67.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="D43" t="n">
-        <v>67.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E43" t="n">
-        <v>67.59999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="F43" t="n">
-        <v>150</v>
+        <v>5336.1004</v>
       </c>
       <c r="G43" t="n">
-        <v>-5014147.04784378</v>
+        <v>-5190338.24064378</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>67.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>67.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>67.3</v>
+        <v>66.5</v>
       </c>
       <c r="E44" t="n">
-        <v>67.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>7770</v>
+        <v>11541.3946</v>
       </c>
       <c r="G44" t="n">
-        <v>-5021917.04784378</v>
+        <v>-5178796.84604378</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>67.5</v>
+        <v>66.2</v>
       </c>
       <c r="C45" t="n">
-        <v>67.5</v>
+        <v>66.2</v>
       </c>
       <c r="D45" t="n">
-        <v>67.5</v>
+        <v>66.2</v>
       </c>
       <c r="E45" t="n">
-        <v>67.5</v>
+        <v>66.2</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>1770.6686</v>
       </c>
       <c r="G45" t="n">
-        <v>-5021907.04784378</v>
+        <v>-5180567.51464378</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>67.2</v>
+        <v>66.3</v>
       </c>
       <c r="C46" t="n">
-        <v>67.2</v>
+        <v>66.3</v>
       </c>
       <c r="D46" t="n">
-        <v>67.2</v>
+        <v>66.3</v>
       </c>
       <c r="E46" t="n">
-        <v>67.2</v>
+        <v>66.3</v>
       </c>
       <c r="F46" t="n">
-        <v>3250</v>
+        <v>5312.0061</v>
       </c>
       <c r="G46" t="n">
-        <v>-5025157.04784378</v>
+        <v>-5175255.50854378</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,63 +2051,69 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>67.5</v>
+        <v>66.3</v>
       </c>
       <c r="C47" t="n">
-        <v>67.5</v>
+        <v>66.3</v>
       </c>
       <c r="D47" t="n">
-        <v>67.5</v>
+        <v>66.3</v>
       </c>
       <c r="E47" t="n">
-        <v>67.5</v>
+        <v>66.3</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>27.4388</v>
       </c>
       <c r="G47" t="n">
-        <v>-5025147.04784378</v>
+        <v>-5175255.50854378</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>66.3</v>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>67.2</v>
+        <v>66.3</v>
       </c>
       <c r="C48" t="n">
-        <v>67.5</v>
+        <v>66.3</v>
       </c>
       <c r="D48" t="n">
-        <v>67.5</v>
+        <v>66.3</v>
       </c>
       <c r="E48" t="n">
-        <v>67.2</v>
+        <v>66.3</v>
       </c>
       <c r="F48" t="n">
-        <v>1010</v>
+        <v>7846.5551</v>
       </c>
       <c r="G48" t="n">
-        <v>-5025147.04784378</v>
+        <v>-5175255.50854378</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2067,78 +2122,86 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>66.3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>66.3</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>67.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="C49" t="n">
-        <v>67.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="D49" t="n">
-        <v>67.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E49" t="n">
-        <v>67.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>25214.8119</v>
       </c>
       <c r="G49" t="n">
-        <v>-5025137.04784378</v>
+        <v>-5175255.50854378</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K49" t="n">
+        <v>66.3</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>161.2548</v>
+        <v>12.4624</v>
       </c>
       <c r="G50" t="n">
-        <v>-5025298.302643781</v>
+        <v>-5175243.04614378</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2147,203 +2210,194 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>66.3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>67.3</v>
+        <v>66.5</v>
       </c>
       <c r="C51" t="n">
-        <v>67.3</v>
+        <v>66.5</v>
       </c>
       <c r="D51" t="n">
-        <v>67.3</v>
+        <v>66.5</v>
       </c>
       <c r="E51" t="n">
-        <v>67.3</v>
+        <v>66.5</v>
       </c>
       <c r="F51" t="n">
-        <v>426.9884</v>
+        <v>22.406</v>
       </c>
       <c r="G51" t="n">
-        <v>-5025298.302643781</v>
+        <v>-5175265.452143781</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>66.3</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>67.3</v>
+        <v>66.5</v>
       </c>
       <c r="C52" t="n">
-        <v>67.3</v>
+        <v>66.5</v>
       </c>
       <c r="D52" t="n">
-        <v>67.3</v>
+        <v>66.5</v>
       </c>
       <c r="E52" t="n">
-        <v>67.3</v>
+        <v>66.5</v>
       </c>
       <c r="F52" t="n">
-        <v>2100</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>-5025298.302643781</v>
+        <v>-5175265.452143781</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>66.3</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>67.59999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="C53" t="n">
-        <v>67.59999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>67.59999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="E53" t="n">
-        <v>67.59999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>171.3313</v>
+        <v>1107.5609</v>
       </c>
       <c r="G53" t="n">
-        <v>-5025126.971343781</v>
+        <v>-5176373.013043781</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>67.3</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>67.59999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>67.59999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>67.59999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="E54" t="n">
-        <v>67.59999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>396</v>
       </c>
       <c r="G54" t="n">
-        <v>-5025126.971343781</v>
+        <v>-5176373.013043781</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>67.59999999999999</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>67.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>67.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>67.3</v>
+        <v>66.2</v>
       </c>
       <c r="E55" t="n">
-        <v>67.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>7572.3774</v>
+        <v>110</v>
       </c>
       <c r="G55" t="n">
-        <v>-5032699.348743781</v>
+        <v>-5176373.013043781</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2353,83 +2407,85 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>67.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>67.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>67.2</v>
+        <v>66.2</v>
       </c>
       <c r="E56" t="n">
-        <v>67.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>2780</v>
+        <v>154</v>
       </c>
       <c r="G56" t="n">
-        <v>-5035479.348743781</v>
+        <v>-5176373.013043781</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>66.09999999999999</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>67.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>67.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>67.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>67.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G57" t="n">
-        <v>-5035469.348743781</v>
+        <v>-5176373.013043781</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>66.09999999999999</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2439,36 +2495,39 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>67.3</v>
+        <v>66.2</v>
       </c>
       <c r="C58" t="n">
-        <v>67.3</v>
+        <v>66.2</v>
       </c>
       <c r="D58" t="n">
-        <v>67.3</v>
+        <v>66.2</v>
       </c>
       <c r="E58" t="n">
-        <v>67.2</v>
+        <v>66.2</v>
       </c>
       <c r="F58" t="n">
-        <v>9072.2662</v>
+        <v>11</v>
       </c>
       <c r="G58" t="n">
-        <v>-5035469.348743781</v>
+        <v>-5176362.013043781</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>66.09999999999999</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2478,36 +2537,39 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>67.3</v>
+        <v>66.3</v>
       </c>
       <c r="C59" t="n">
-        <v>67.3</v>
+        <v>66.3</v>
       </c>
       <c r="D59" t="n">
-        <v>67.3</v>
+        <v>66.3</v>
       </c>
       <c r="E59" t="n">
-        <v>67.3</v>
+        <v>66.3</v>
       </c>
       <c r="F59" t="n">
-        <v>33061.367</v>
+        <v>41.8341</v>
       </c>
       <c r="G59" t="n">
-        <v>-5035469.348743781</v>
+        <v>-5176320.178943781</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>66.2</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -2517,36 +2579,39 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>67.2</v>
+        <v>66.5</v>
       </c>
       <c r="C60" t="n">
-        <v>67.2</v>
+        <v>66.5</v>
       </c>
       <c r="D60" t="n">
-        <v>67.2</v>
+        <v>66.5</v>
       </c>
       <c r="E60" t="n">
-        <v>67.2</v>
+        <v>66.5</v>
       </c>
       <c r="F60" t="n">
-        <v>3294</v>
+        <v>3460</v>
       </c>
       <c r="G60" t="n">
-        <v>-5038763.348743781</v>
+        <v>-5172860.178943781</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>66.3</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
@@ -2556,36 +2621,39 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>67.3</v>
+        <v>66.7</v>
       </c>
       <c r="D61" t="n">
-        <v>67.3</v>
+        <v>66.7</v>
       </c>
       <c r="E61" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>1010</v>
+        <v>51664.9714</v>
       </c>
       <c r="G61" t="n">
-        <v>-5037753.348743781</v>
+        <v>-5121195.207543781</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -2595,28 +2663,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="C62" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="E62" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>11660</v>
+        <v>5000</v>
       </c>
       <c r="G62" t="n">
-        <v>-5049413.348743781</v>
+        <v>-5126195.207543781</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -2625,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>67.3</v>
+        <v>66.7</v>
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
@@ -2636,28 +2705,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>3424.7</v>
+        <v>3701.9998</v>
       </c>
       <c r="G63" t="n">
-        <v>-5049413.348743781</v>
+        <v>-5126195.207543781</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -2666,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
@@ -2677,28 +2747,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>920.6597</v>
+        <v>6605.3748</v>
       </c>
       <c r="G64" t="n">
-        <v>-5049413.348743781</v>
+        <v>-5126195.207543781</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -2707,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
@@ -2718,38 +2789,37 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>67.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>7302.9999</v>
+        <v>11549.8113</v>
       </c>
       <c r="G65" t="n">
-        <v>-5049413.348743781</v>
+        <v>-5126195.207543781</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>67.2</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -2759,38 +2829,37 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>67.3</v>
+        <v>66.8</v>
       </c>
       <c r="C66" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="D66" t="n">
-        <v>67.3</v>
+        <v>66.8</v>
       </c>
       <c r="E66" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="F66" t="n">
-        <v>317.8137</v>
+        <v>20530</v>
       </c>
       <c r="G66" t="n">
-        <v>-5049413.348743781</v>
+        <v>-5105665.207543781</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>67.2</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -2800,28 +2869,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="C67" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="D67" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="E67" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="F67" t="n">
-        <v>37519.6897</v>
+        <v>2034.2875</v>
       </c>
       <c r="G67" t="n">
-        <v>-5049413.348743781</v>
+        <v>-5107699.495043781</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2839,28 +2909,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="C68" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="D68" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="E68" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="F68" t="n">
-        <v>3149</v>
+        <v>63964.3362</v>
       </c>
       <c r="G68" t="n">
-        <v>-5049413.348743781</v>
+        <v>-5043735.158843781</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2878,28 +2949,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="C69" t="n">
-        <v>67.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>67.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="F69" t="n">
-        <v>1000</v>
+        <v>20875.5413</v>
       </c>
       <c r="G69" t="n">
-        <v>-5049413.348743781</v>
+        <v>-5022859.617543781</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2917,28 +2989,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="C70" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="D70" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="E70" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="F70" t="n">
-        <v>17333.9999</v>
+        <v>291.5032</v>
       </c>
       <c r="G70" t="n">
-        <v>-5049413.348743781</v>
+        <v>-5023151.120743781</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2956,28 +3029,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="C71" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="D71" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="E71" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="F71" t="n">
-        <v>435.0939</v>
+        <v>131.1002</v>
       </c>
       <c r="G71" t="n">
-        <v>-5049413.348743781</v>
+        <v>-5023151.120743781</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2995,38 +3069,37 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>67.09999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="C72" t="n">
-        <v>67.09999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="D72" t="n">
-        <v>67.09999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="E72" t="n">
-        <v>67.09999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="F72" t="n">
-        <v>9509.8351</v>
+        <v>929.5757</v>
       </c>
       <c r="G72" t="n">
-        <v>-5058923.18384378</v>
+        <v>-5024080.696443781</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>67.2</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
@@ -3036,28 +3109,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="C73" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="D73" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="E73" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="F73" t="n">
-        <v>1500</v>
+        <v>610</v>
       </c>
       <c r="G73" t="n">
-        <v>-5057423.18384378</v>
+        <v>-5024080.696443781</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3075,38 +3149,37 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="C74" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="D74" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="E74" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="F74" t="n">
-        <v>1683.9999</v>
+        <v>476.4</v>
       </c>
       <c r="G74" t="n">
-        <v>-5057423.18384378</v>
+        <v>-5024080.696443781</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>67.2</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -3116,28 +3189,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="C75" t="n">
-        <v>66.90000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="D75" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="E75" t="n">
-        <v>66.90000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="F75" t="n">
-        <v>20540.4283</v>
+        <v>5000</v>
       </c>
       <c r="G75" t="n">
-        <v>-5077963.61214378</v>
+        <v>-5019080.696443781</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3155,28 +3229,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>66.90000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="C76" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="D76" t="n">
-        <v>66.90000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="E76" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="F76" t="n">
-        <v>105338.5905</v>
+        <v>1013</v>
       </c>
       <c r="G76" t="n">
-        <v>-5183302.20264378</v>
+        <v>-5019080.696443781</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3194,38 +3269,37 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>66.59999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="C77" t="n">
-        <v>66.59999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="D77" t="n">
-        <v>66.59999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="E77" t="n">
-        <v>66.59999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="F77" t="n">
-        <v>316.2636</v>
+        <v>3874.9999</v>
       </c>
       <c r="G77" t="n">
-        <v>-5183618.46624378</v>
+        <v>-5019080.696443781</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>66.7</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3235,38 +3309,37 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>66.59999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="C78" t="n">
-        <v>66.59999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="D78" t="n">
-        <v>66.59999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="E78" t="n">
-        <v>66.59999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="F78" t="n">
-        <v>6975.4338</v>
+        <v>661.7488</v>
       </c>
       <c r="G78" t="n">
-        <v>-5183618.46624378</v>
+        <v>-5019080.696443781</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>66.59999999999999</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3276,38 +3349,37 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>66.59999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="C79" t="n">
-        <v>66.59999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="D79" t="n">
-        <v>66.59999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="E79" t="n">
-        <v>66.59999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="F79" t="n">
-        <v>2708.3026</v>
+        <v>29046.3214</v>
       </c>
       <c r="G79" t="n">
-        <v>-5183618.46624378</v>
+        <v>-5019080.696443781</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>66.59999999999999</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3317,38 +3389,37 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>66.5</v>
+        <v>67</v>
       </c>
       <c r="C80" t="n">
-        <v>66.5</v>
+        <v>67</v>
       </c>
       <c r="D80" t="n">
-        <v>66.5</v>
+        <v>67</v>
       </c>
       <c r="E80" t="n">
-        <v>66.5</v>
+        <v>67</v>
       </c>
       <c r="F80" t="n">
-        <v>163.8502</v>
+        <v>28954.2635</v>
       </c>
       <c r="G80" t="n">
-        <v>-5183782.31644378</v>
+        <v>-4990126.432943781</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>66.59999999999999</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3358,38 +3429,37 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>66.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="C81" t="n">
-        <v>66.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="D81" t="n">
-        <v>66.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="E81" t="n">
-        <v>66.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="F81" t="n">
-        <v>161.3313</v>
+        <v>54501.9315</v>
       </c>
       <c r="G81" t="n">
-        <v>-5183943.64774378</v>
+        <v>-4935624.501443781</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>66.5</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3399,38 +3469,37 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>66.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="C82" t="n">
-        <v>66.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="D82" t="n">
-        <v>66.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="E82" t="n">
-        <v>66.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="F82" t="n">
-        <v>27.5075</v>
+        <v>2478.3209</v>
       </c>
       <c r="G82" t="n">
-        <v>-5183916.14024378</v>
+        <v>-4935624.501443781</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>66.40000000000001</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -3440,38 +3509,37 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>66.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>66.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="D83" t="n">
-        <v>66.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>66.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="F83" t="n">
-        <v>1086</v>
+        <v>2000</v>
       </c>
       <c r="G83" t="n">
-        <v>-5185002.14024378</v>
+        <v>-4937624.501443781</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>66.59999999999999</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3481,38 +3549,37 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>66.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="C84" t="n">
-        <v>66.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="D84" t="n">
-        <v>66.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="E84" t="n">
-        <v>66.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="F84" t="n">
-        <v>222</v>
+        <v>489.6335</v>
       </c>
       <c r="G84" t="n">
-        <v>-5185002.14024378</v>
+        <v>-4937134.86794378</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>66.40000000000001</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -3522,38 +3589,37 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>66.3</v>
+        <v>67.3</v>
       </c>
       <c r="C85" t="n">
-        <v>66.3</v>
+        <v>67.3</v>
       </c>
       <c r="D85" t="n">
-        <v>66.3</v>
+        <v>67.3</v>
       </c>
       <c r="E85" t="n">
-        <v>66.2</v>
+        <v>67.3</v>
       </c>
       <c r="F85" t="n">
-        <v>5336.1004</v>
+        <v>90170.14479999999</v>
       </c>
       <c r="G85" t="n">
-        <v>-5190338.24064378</v>
+        <v>-4846964.723143781</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>66.40000000000001</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
@@ -3563,38 +3629,37 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>66.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="C86" t="n">
-        <v>66.40000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>66.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>66.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="F86" t="n">
-        <v>11541.3946</v>
+        <v>14767.77545207715</v>
       </c>
       <c r="G86" t="n">
-        <v>-5178796.84604378</v>
+        <v>-4832196.947691703</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>66.3</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -3604,38 +3669,37 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>66.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>66.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>66.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>66.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>1770.6686</v>
+        <v>36</v>
       </c>
       <c r="G87" t="n">
-        <v>-5180567.51464378</v>
+        <v>-4832196.947691703</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>66.40000000000001</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
@@ -3645,38 +3709,37 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>66.3</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>66.3</v>
+        <v>67</v>
       </c>
       <c r="D88" t="n">
-        <v>66.3</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>66.3</v>
+        <v>67</v>
       </c>
       <c r="F88" t="n">
-        <v>5312.0061</v>
+        <v>600.1708</v>
       </c>
       <c r="G88" t="n">
-        <v>-5175255.50854378</v>
+        <v>-4832797.118491704</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>66.2</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3686,28 +3749,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>66.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>66.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>66.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>66.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>27.4388</v>
+        <v>115.8753</v>
       </c>
       <c r="G89" t="n">
-        <v>-5175255.50854378</v>
+        <v>-4832681.243191703</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3725,28 +3789,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>66.3</v>
+        <v>67.5</v>
       </c>
       <c r="C90" t="n">
-        <v>66.3</v>
+        <v>67.5</v>
       </c>
       <c r="D90" t="n">
-        <v>66.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>66.3</v>
+        <v>67.5</v>
       </c>
       <c r="F90" t="n">
-        <v>7846.5551</v>
+        <v>49138.9955</v>
       </c>
       <c r="G90" t="n">
-        <v>-5175255.50854378</v>
+        <v>-4783542.247691703</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3764,38 +3829,37 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>66.3</v>
+        <v>67.5</v>
       </c>
       <c r="C91" t="n">
-        <v>66.3</v>
+        <v>67.5</v>
       </c>
       <c r="D91" t="n">
-        <v>66.3</v>
+        <v>67.5</v>
       </c>
       <c r="E91" t="n">
-        <v>66.3</v>
+        <v>67.5</v>
       </c>
       <c r="F91" t="n">
-        <v>25214.8119</v>
+        <v>769.843</v>
       </c>
       <c r="G91" t="n">
-        <v>-5175255.50854378</v>
+        <v>-4783542.247691703</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>66.3</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3805,38 +3869,37 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>66.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C92" t="n">
-        <v>66.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>66.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>66.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F92" t="n">
-        <v>12.4624</v>
+        <v>19315.3768</v>
       </c>
       <c r="G92" t="n">
-        <v>-5175243.04614378</v>
+        <v>-4764226.870891703</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>66.3</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3846,38 +3909,37 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>66.5</v>
+        <v>67.5</v>
       </c>
       <c r="C93" t="n">
-        <v>66.5</v>
+        <v>67.5</v>
       </c>
       <c r="D93" t="n">
-        <v>66.5</v>
+        <v>67.8</v>
       </c>
       <c r="E93" t="n">
-        <v>66.5</v>
+        <v>67.5</v>
       </c>
       <c r="F93" t="n">
-        <v>22.406</v>
+        <v>6472.756</v>
       </c>
       <c r="G93" t="n">
-        <v>-5175265.452143781</v>
+        <v>-4770699.626891703</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>66.59999999999999</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -3887,38 +3949,37 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>66.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>66.5</v>
+        <v>67.5</v>
       </c>
       <c r="D94" t="n">
-        <v>66.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>66.5</v>
+        <v>67.5</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>763.4999</v>
       </c>
       <c r="G94" t="n">
-        <v>-5175265.452143781</v>
+        <v>-4770699.626891703</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>66.5</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -3928,38 +3989,37 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>66.5</v>
+        <v>67.5</v>
       </c>
       <c r="C95" t="n">
-        <v>66.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D95" t="n">
-        <v>66.5</v>
+        <v>67.5</v>
       </c>
       <c r="E95" t="n">
-        <v>66.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F95" t="n">
-        <v>1107.5609</v>
+        <v>763.4999</v>
       </c>
       <c r="G95" t="n">
-        <v>-5176373.013043781</v>
+        <v>-4770699.626891703</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>66.5</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -3969,38 +4029,37 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>66.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>66.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D96" t="n">
-        <v>66.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>66.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F96" t="n">
-        <v>396</v>
+        <v>1558</v>
       </c>
       <c r="G96" t="n">
-        <v>-5176373.013043781</v>
+        <v>-4770699.626891703</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -4010,28 +4069,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>66.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>66.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>66.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>66.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>110</v>
+        <v>4478.9556</v>
       </c>
       <c r="G97" t="n">
-        <v>-5176373.013043781</v>
+        <v>-4766220.671291703</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4049,28 +4109,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>66.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>66.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>66.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>66.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>154</v>
+        <v>1878.8647</v>
       </c>
       <c r="G98" t="n">
-        <v>-5176373.013043781</v>
+        <v>-4766220.671291703</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4088,28 +4149,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>66.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>66.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>66.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>66.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>44</v>
+        <v>1789.0475</v>
       </c>
       <c r="G99" t="n">
-        <v>-5176373.013043781</v>
+        <v>-4766220.671291703</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4127,28 +4189,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>66.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>66.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>66.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>66.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>11</v>
+        <v>951</v>
       </c>
       <c r="G100" t="n">
-        <v>-5176362.013043781</v>
+        <v>-4766220.671291703</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4166,28 +4229,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>66.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>66.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>66.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>66.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>41.8341</v>
+        <v>1759.0899</v>
       </c>
       <c r="G101" t="n">
-        <v>-5176320.178943781</v>
+        <v>-4766220.671291703</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4205,28 +4269,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>66.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>66.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>66.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>66.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>3460</v>
+        <v>4876</v>
       </c>
       <c r="G102" t="n">
-        <v>-5172860.178943781</v>
+        <v>-4766220.671291703</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4244,28 +4309,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>66.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>66.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>66.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>66.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>51664.9714</v>
+        <v>1221.9999</v>
       </c>
       <c r="G103" t="n">
-        <v>-5121195.207543781</v>
+        <v>-4766220.671291703</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4283,28 +4349,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>66.7</v>
+        <v>67.8</v>
       </c>
       <c r="C104" t="n">
-        <v>66.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="D104" t="n">
-        <v>66.7</v>
+        <v>67.8</v>
       </c>
       <c r="E104" t="n">
-        <v>66.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="F104" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G104" t="n">
-        <v>-5126195.207543781</v>
+        <v>-4766120.671291703</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4322,28 +4389,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>66.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>66.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>66.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>66.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>3701.9998</v>
+        <v>27823.9999</v>
       </c>
       <c r="G105" t="n">
-        <v>-5126195.207543781</v>
+        <v>-4793944.671191704</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4361,28 +4429,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>66.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="C106" t="n">
-        <v>66.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>66.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="E106" t="n">
-        <v>66.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>6605.3748</v>
+        <v>2263</v>
       </c>
       <c r="G106" t="n">
-        <v>-5126195.207543781</v>
+        <v>-4793944.671191704</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4400,28 +4469,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>66.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>66.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>66.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>66.59999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>11549.8113</v>
+        <v>5972</v>
       </c>
       <c r="G107" t="n">
-        <v>-5126195.207543781</v>
+        <v>-4793944.671191704</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4439,28 +4509,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>66.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>66.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>66.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>66.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>20530</v>
+        <v>105.9731</v>
       </c>
       <c r="G108" t="n">
-        <v>-5105665.207543781</v>
+        <v>-4793944.671191704</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4478,28 +4549,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>66.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>66.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>66.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>66.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>2034.2875</v>
+        <v>7000.145</v>
       </c>
       <c r="G109" t="n">
-        <v>-5107699.495043781</v>
+        <v>-4793944.671191704</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4517,28 +4589,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="C110" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="D110" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="E110" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="F110" t="n">
-        <v>63964.3362</v>
+        <v>275.5487</v>
       </c>
       <c r="G110" t="n">
-        <v>-5043735.158843781</v>
+        <v>-4793669.122491703</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4556,28 +4629,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="C111" t="n">
-        <v>66.90000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="D111" t="n">
-        <v>66.90000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="E111" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="F111" t="n">
-        <v>20875.5413</v>
+        <v>251.9618</v>
       </c>
       <c r="G111" t="n">
-        <v>-5022859.617543781</v>
+        <v>-4793669.122491703</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4595,28 +4669,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="C112" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="D112" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="E112" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="F112" t="n">
-        <v>291.5032</v>
+        <v>213.7521</v>
       </c>
       <c r="G112" t="n">
-        <v>-5023151.120743781</v>
+        <v>-4793669.122491703</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4634,28 +4709,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="C113" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="D113" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="E113" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="F113" t="n">
-        <v>131.1002</v>
+        <v>900</v>
       </c>
       <c r="G113" t="n">
-        <v>-5023151.120743781</v>
+        <v>-4793669.122491703</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4673,28 +4749,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>66.7</v>
+        <v>67.7</v>
       </c>
       <c r="C114" t="n">
-        <v>66.7</v>
+        <v>67.7</v>
       </c>
       <c r="D114" t="n">
-        <v>66.7</v>
+        <v>67.7</v>
       </c>
       <c r="E114" t="n">
-        <v>66.7</v>
+        <v>67.7</v>
       </c>
       <c r="F114" t="n">
-        <v>929.5757</v>
+        <v>2026.9999</v>
       </c>
       <c r="G114" t="n">
-        <v>-5024080.696443781</v>
+        <v>-4793669.122491703</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4712,28 +4789,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>66.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>66.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>66.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>66.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>610</v>
+        <v>1000</v>
       </c>
       <c r="G115" t="n">
-        <v>-5024080.696443781</v>
+        <v>-4792669.122491703</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4751,28 +4829,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>66.7</v>
+        <v>67.8</v>
       </c>
       <c r="C116" t="n">
-        <v>66.7</v>
+        <v>67.8</v>
       </c>
       <c r="D116" t="n">
-        <v>66.7</v>
+        <v>67.8</v>
       </c>
       <c r="E116" t="n">
-        <v>66.7</v>
+        <v>67.8</v>
       </c>
       <c r="F116" t="n">
-        <v>476.4</v>
+        <v>10454.1939</v>
       </c>
       <c r="G116" t="n">
-        <v>-5024080.696443781</v>
+        <v>-4803123.316391704</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4790,28 +4869,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>66.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>66.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>66.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>66.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>5000</v>
+        <v>47501.549</v>
       </c>
       <c r="G117" t="n">
-        <v>-5019080.696443781</v>
+        <v>-4755621.767391704</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4829,28 +4909,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>66.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>66.8</v>
+        <v>68</v>
       </c>
       <c r="D118" t="n">
-        <v>66.8</v>
+        <v>68</v>
       </c>
       <c r="E118" t="n">
-        <v>66.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>1013</v>
+        <v>2155.9999</v>
       </c>
       <c r="G118" t="n">
-        <v>-5019080.696443781</v>
+        <v>-4753465.767491704</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4868,28 +4949,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>66.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>66.8</v>
+        <v>68</v>
       </c>
       <c r="D119" t="n">
-        <v>66.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>66.8</v>
+        <v>68</v>
       </c>
       <c r="F119" t="n">
-        <v>3874.9999</v>
+        <v>18783.8296</v>
       </c>
       <c r="G119" t="n">
-        <v>-5019080.696443781</v>
+        <v>-4753465.767491704</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4907,28 +4989,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>66.8</v>
+        <v>67.8</v>
       </c>
       <c r="C120" t="n">
-        <v>66.8</v>
+        <v>67.8</v>
       </c>
       <c r="D120" t="n">
-        <v>66.8</v>
+        <v>67.8</v>
       </c>
       <c r="E120" t="n">
-        <v>66.8</v>
+        <v>67.8</v>
       </c>
       <c r="F120" t="n">
-        <v>661.7488</v>
+        <v>14.7492</v>
       </c>
       <c r="G120" t="n">
-        <v>-5019080.696443781</v>
+        <v>-4753480.516691704</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4946,28 +5029,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="C121" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="D121" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="E121" t="n">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="F121" t="n">
-        <v>29046.3214</v>
+        <v>3108.6395</v>
       </c>
       <c r="G121" t="n">
-        <v>-5019080.696443781</v>
+        <v>-4756589.156191704</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4985,28 +5069,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>67</v>
+        <v>68.2</v>
       </c>
       <c r="C122" t="n">
-        <v>67</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>67</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>67</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>28954.2635</v>
+        <v>123533.7695866473</v>
       </c>
       <c r="G122" t="n">
-        <v>-4990126.432943781</v>
+        <v>-4633055.386605057</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5024,28 +5109,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>67</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>67.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>67</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>54501.9315</v>
+        <v>27019.1959</v>
       </c>
       <c r="G123" t="n">
-        <v>-4935624.501443781</v>
+        <v>-4606036.190705057</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5063,28 +5149,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>67.3</v>
+        <v>68.3</v>
       </c>
       <c r="C124" t="n">
-        <v>67.3</v>
+        <v>68.3</v>
       </c>
       <c r="D124" t="n">
-        <v>67.3</v>
+        <v>68.3</v>
       </c>
       <c r="E124" t="n">
-        <v>67.3</v>
+        <v>68.3</v>
       </c>
       <c r="F124" t="n">
-        <v>2478.3209</v>
+        <v>3049.9707</v>
       </c>
       <c r="G124" t="n">
-        <v>-4935624.501443781</v>
+        <v>-4609086.161405058</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5102,28 +5189,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>67.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="C125" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D125" t="n">
-        <v>67.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="E125" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F125" t="n">
-        <v>2000</v>
+        <v>1502</v>
       </c>
       <c r="G125" t="n">
-        <v>-4937624.501443781</v>
+        <v>-4610588.161405058</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5141,28 +5229,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>67.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>67.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>67.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>67.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>489.6335</v>
+        <v>7172.9446</v>
       </c>
       <c r="G126" t="n">
-        <v>-4937134.86794378</v>
+        <v>-4603415.216805058</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5180,28 +5269,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>67.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>67.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>67.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>67.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>90170.14479999999</v>
+        <v>21532.9377</v>
       </c>
       <c r="G127" t="n">
-        <v>-4846964.723143781</v>
+        <v>-4603415.216805058</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5219,28 +5309,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>67.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>67.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>67.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>67.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>14767.77545207715</v>
+        <v>1603.3868</v>
       </c>
       <c r="G128" t="n">
-        <v>-4832196.947691703</v>
+        <v>-4603415.216805058</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5258,28 +5349,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>67.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>67.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>67.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>67.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>36</v>
+        <v>1835.9999</v>
       </c>
       <c r="G129" t="n">
-        <v>-4832196.947691703</v>
+        <v>-4603415.216805058</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5297,28 +5389,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>67.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="C130" t="n">
-        <v>67</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>67.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="E130" t="n">
-        <v>67</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>600.1708</v>
+        <v>10423.8775</v>
       </c>
       <c r="G130" t="n">
-        <v>-4832797.118491704</v>
+        <v>-4603415.216805058</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5336,28 +5429,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>67.40000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="C131" t="n">
-        <v>67.40000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="D131" t="n">
-        <v>67.40000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="E131" t="n">
-        <v>67.40000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="F131" t="n">
-        <v>115.8753</v>
+        <v>104.0064</v>
       </c>
       <c r="G131" t="n">
-        <v>-4832681.243191703</v>
+        <v>-4603311.210405057</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5375,28 +5469,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>67.5</v>
+        <v>68.2</v>
       </c>
       <c r="C132" t="n">
-        <v>67.5</v>
+        <v>68.2</v>
       </c>
       <c r="D132" t="n">
-        <v>67.59999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="E132" t="n">
-        <v>67.5</v>
+        <v>68.2</v>
       </c>
       <c r="F132" t="n">
-        <v>49138.9955</v>
+        <v>1500</v>
       </c>
       <c r="G132" t="n">
-        <v>-4783542.247691703</v>
+        <v>-4603311.210405057</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5414,28 +5509,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>67.5</v>
+        <v>68.2</v>
       </c>
       <c r="C133" t="n">
-        <v>67.5</v>
+        <v>68.2</v>
       </c>
       <c r="D133" t="n">
-        <v>67.5</v>
+        <v>68.2</v>
       </c>
       <c r="E133" t="n">
-        <v>67.5</v>
+        <v>68.2</v>
       </c>
       <c r="F133" t="n">
-        <v>769.843</v>
+        <v>8470</v>
       </c>
       <c r="G133" t="n">
-        <v>-4783542.247691703</v>
+        <v>-4603311.210405057</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5453,28 +5549,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>67.5</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>67.59999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>67.59999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>67.5</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>19315.3768</v>
+        <v>14690.4341</v>
       </c>
       <c r="G134" t="n">
-        <v>-4764226.870891703</v>
+        <v>-4618001.644505057</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5492,28 +5589,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>67.5</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>67.5</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>67.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>67.5</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>6472.756</v>
+        <v>1853.8483</v>
       </c>
       <c r="G135" t="n">
-        <v>-4770699.626891703</v>
+        <v>-4618001.644505057</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5531,28 +5629,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>67.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>67.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>763.4999</v>
+        <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>-4770699.626891703</v>
+        <v>-4617991.644505057</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5570,28 +5669,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>67.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>67.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>67.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>67.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>763.4999</v>
+        <v>951.683</v>
       </c>
       <c r="G137" t="n">
-        <v>-4770699.626891703</v>
+        <v>-4617991.644505057</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5609,28 +5709,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>67.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>67.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F138" t="n">
-        <v>1558</v>
+        <v>1158.6551</v>
       </c>
       <c r="G138" t="n">
-        <v>-4770699.626891703</v>
+        <v>-4617991.644505057</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5648,28 +5749,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>4478.9556</v>
+        <v>3630</v>
       </c>
       <c r="G139" t="n">
-        <v>-4766220.671291703</v>
+        <v>-4617991.644505057</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5687,28 +5789,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>1878.8647</v>
+        <v>7260</v>
       </c>
       <c r="G140" t="n">
-        <v>-4766220.671291703</v>
+        <v>-4617991.644505057</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5726,28 +5829,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="C141" t="n">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="D141" t="n">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="E141" t="n">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="F141" t="n">
-        <v>1789.0475</v>
+        <v>6023.8175</v>
       </c>
       <c r="G141" t="n">
-        <v>-4766220.671291703</v>
+        <v>-4611967.827005058</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5765,28 +5869,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="C142" t="n">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="D142" t="n">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="E142" t="n">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="F142" t="n">
-        <v>951</v>
+        <v>119317.8599</v>
       </c>
       <c r="G142" t="n">
-        <v>-4766220.671291703</v>
+        <v>-4611967.827005058</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5804,28 +5909,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>67.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="C143" t="n">
-        <v>67.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="D143" t="n">
-        <v>67.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="E143" t="n">
-        <v>67.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="F143" t="n">
-        <v>1759.0899</v>
+        <v>1315.6477</v>
       </c>
       <c r="G143" t="n">
-        <v>-4766220.671291703</v>
+        <v>-4610652.179305058</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5843,28 +5949,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>67.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="C144" t="n">
-        <v>67.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="D144" t="n">
-        <v>67.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="E144" t="n">
-        <v>67.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="F144" t="n">
-        <v>4876</v>
+        <v>25020</v>
       </c>
       <c r="G144" t="n">
-        <v>-4766220.671291703</v>
+        <v>-4610652.179305058</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5882,28 +5989,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>67.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="C145" t="n">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="D145" t="n">
-        <v>67.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="E145" t="n">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="F145" t="n">
-        <v>1221.9999</v>
+        <v>3500</v>
       </c>
       <c r="G145" t="n">
-        <v>-4766220.671291703</v>
+        <v>-4614152.179305058</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5921,28 +6029,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>67.8</v>
+        <v>68.5</v>
       </c>
       <c r="C146" t="n">
-        <v>67.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D146" t="n">
-        <v>67.8</v>
+        <v>68.5</v>
       </c>
       <c r="E146" t="n">
-        <v>67.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F146" t="n">
-        <v>100</v>
+        <v>13033.4569</v>
       </c>
       <c r="G146" t="n">
-        <v>-4766120.671291703</v>
+        <v>-4627185.636205058</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5960,28 +6069,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>67.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="C147" t="n">
-        <v>67.59999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D147" t="n">
-        <v>67.59999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E147" t="n">
-        <v>67.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="F147" t="n">
-        <v>27823.9999</v>
+        <v>14531.68099085631</v>
       </c>
       <c r="G147" t="n">
-        <v>-4793944.671191704</v>
+        <v>-4612653.955214201</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5999,28 +6109,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>67.7</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D148" t="n">
-        <v>67.7</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E148" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F148" t="n">
-        <v>2263</v>
+        <v>29539.3475</v>
       </c>
       <c r="G148" t="n">
-        <v>-4793944.671191704</v>
+        <v>-4642193.302714202</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6038,28 +6149,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="C149" t="n">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="D149" t="n">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="E149" t="n">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="F149" t="n">
-        <v>5972</v>
+        <v>1590</v>
       </c>
       <c r="G149" t="n">
-        <v>-4793944.671191704</v>
+        <v>-4640603.302714202</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6077,28 +6189,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>67.59999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C150" t="n">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="D150" t="n">
-        <v>67.59999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E150" t="n">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="F150" t="n">
-        <v>105.9731</v>
+        <v>11966.0792</v>
       </c>
       <c r="G150" t="n">
-        <v>-4793944.671191704</v>
+        <v>-4640603.302714202</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6116,28 +6229,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C151" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D151" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E151" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F151" t="n">
-        <v>7000.145</v>
+        <v>5056.9999</v>
       </c>
       <c r="G151" t="n">
-        <v>-4793944.671191704</v>
+        <v>-4645660.302614202</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6155,28 +6269,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>67.7</v>
+        <v>68.8</v>
       </c>
       <c r="C152" t="n">
-        <v>67.7</v>
+        <v>68.8</v>
       </c>
       <c r="D152" t="n">
-        <v>67.7</v>
+        <v>68.8</v>
       </c>
       <c r="E152" t="n">
-        <v>67.7</v>
+        <v>68.8</v>
       </c>
       <c r="F152" t="n">
-        <v>275.5487</v>
+        <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>-4793669.122491703</v>
+        <v>-4645650.302614202</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6194,496 +6309,463 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>67.7</v>
+        <v>68.5</v>
       </c>
       <c r="C153" t="n">
-        <v>67.7</v>
+        <v>68.5</v>
       </c>
       <c r="D153" t="n">
-        <v>67.7</v>
+        <v>68.5</v>
       </c>
       <c r="E153" t="n">
-        <v>67.7</v>
+        <v>68.5</v>
       </c>
       <c r="F153" t="n">
-        <v>251.9618</v>
+        <v>38797.0131</v>
       </c>
       <c r="G153" t="n">
-        <v>-4793669.122491703</v>
+        <v>-4684447.315714202</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>67.7</v>
+        <v>68.5</v>
       </c>
       <c r="C154" t="n">
-        <v>67.7</v>
+        <v>68.5</v>
       </c>
       <c r="D154" t="n">
-        <v>67.7</v>
+        <v>68.5</v>
       </c>
       <c r="E154" t="n">
-        <v>67.7</v>
+        <v>68.5</v>
       </c>
       <c r="F154" t="n">
-        <v>213.7521</v>
+        <v>12124.677</v>
       </c>
       <c r="G154" t="n">
-        <v>-4793669.122491703</v>
+        <v>-4684447.315714202</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>67.7</v>
+        <v>68.3</v>
       </c>
       <c r="C155" t="n">
-        <v>67.7</v>
+        <v>68.3</v>
       </c>
       <c r="D155" t="n">
-        <v>67.7</v>
+        <v>68.3</v>
       </c>
       <c r="E155" t="n">
-        <v>67.7</v>
+        <v>68.3</v>
       </c>
       <c r="F155" t="n">
-        <v>900</v>
+        <v>12931.721</v>
       </c>
       <c r="G155" t="n">
-        <v>-4793669.122491703</v>
+        <v>-4697379.036714202</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>67.7</v>
+        <v>68.3</v>
       </c>
       <c r="C156" t="n">
-        <v>67.7</v>
+        <v>68.3</v>
       </c>
       <c r="D156" t="n">
-        <v>67.7</v>
+        <v>68.3</v>
       </c>
       <c r="E156" t="n">
-        <v>67.7</v>
+        <v>68.3</v>
       </c>
       <c r="F156" t="n">
-        <v>2026.9999</v>
+        <v>3335.9647</v>
       </c>
       <c r="G156" t="n">
-        <v>-4793669.122491703</v>
+        <v>-4697379.036714202</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>67.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="C157" t="n">
-        <v>67.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="D157" t="n">
-        <v>67.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="E157" t="n">
-        <v>67.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="F157" t="n">
-        <v>1000</v>
+        <v>503.9939</v>
       </c>
       <c r="G157" t="n">
-        <v>-4792669.122491703</v>
+        <v>-4697379.036714202</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>67.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>67.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D158" t="n">
-        <v>67.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E158" t="n">
-        <v>67.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>10454.1939</v>
+        <v>15306.6229</v>
       </c>
       <c r="G158" t="n">
-        <v>-4803123.316391704</v>
+        <v>-4682072.413814202</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>67.90000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="C159" t="n">
-        <v>67.90000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="D159" t="n">
-        <v>67.90000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="E159" t="n">
-        <v>67.90000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="F159" t="n">
-        <v>47501.549</v>
+        <v>15900</v>
       </c>
       <c r="G159" t="n">
-        <v>-4755621.767391704</v>
+        <v>-4666172.413814202</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>67.90000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="C160" t="n">
-        <v>68</v>
+        <v>68.7</v>
       </c>
       <c r="D160" t="n">
-        <v>68</v>
+        <v>68.7</v>
       </c>
       <c r="E160" t="n">
-        <v>67.90000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="F160" t="n">
-        <v>2155.9999</v>
+        <v>72793.2896</v>
       </c>
       <c r="G160" t="n">
-        <v>-4753465.767491704</v>
+        <v>-4666172.413814202</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>68.09999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="C161" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D161" t="n">
-        <v>68.09999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="E161" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F161" t="n">
-        <v>18783.8296</v>
+        <v>2080</v>
       </c>
       <c r="G161" t="n">
-        <v>-4753465.767491704</v>
+        <v>-4668252.413814202</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>67.8</v>
+        <v>68.3</v>
       </c>
       <c r="C162" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D162" t="n">
-        <v>67.8</v>
+        <v>68.7</v>
       </c>
       <c r="E162" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F162" t="n">
-        <v>14.7492</v>
+        <v>207681</v>
       </c>
       <c r="G162" t="n">
-        <v>-4753480.516691704</v>
+        <v>-4875933.413814202</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>67.7</v>
+        <v>68.2</v>
       </c>
       <c r="C163" t="n">
-        <v>67.7</v>
+        <v>68.2</v>
       </c>
       <c r="D163" t="n">
-        <v>67.7</v>
+        <v>68.2</v>
       </c>
       <c r="E163" t="n">
-        <v>67.7</v>
+        <v>68.2</v>
       </c>
       <c r="F163" t="n">
-        <v>3108.6395</v>
+        <v>278.3724</v>
       </c>
       <c r="G163" t="n">
-        <v>-4756589.156191704</v>
+        <v>-4875655.041414202</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>68.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>68.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D164" t="n">
-        <v>68.90000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E164" t="n">
-        <v>68.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F164" t="n">
-        <v>123533.7695866473</v>
+        <v>13999</v>
       </c>
       <c r="G164" t="n">
-        <v>-4633055.386605057</v>
+        <v>-4889654.041414202</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="C165" t="n">
-        <v>68.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="D165" t="n">
-        <v>68.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="E165" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="F165" t="n">
-        <v>27019.1959</v>
+        <v>24682.4888</v>
       </c>
       <c r="G165" t="n">
-        <v>-4606036.190705057</v>
+        <v>-4914336.530214203</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6693,36 +6775,33 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D166" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E166" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F166" t="n">
-        <v>3049.9707</v>
+        <v>564</v>
       </c>
       <c r="G166" t="n">
-        <v>-4609086.161405058</v>
+        <v>-4913772.530214203</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6732,36 +6811,33 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C167" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D167" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="E167" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F167" t="n">
-        <v>1502</v>
+        <v>4415.2863</v>
       </c>
       <c r="G167" t="n">
-        <v>-4610588.161405058</v>
+        <v>-4913772.530214203</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6771,14 +6847,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6797,88 +6870,82 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F168" t="n">
-        <v>7172.9446</v>
+        <v>1510</v>
       </c>
       <c r="G168" t="n">
-        <v>-4603415.216805058</v>
+        <v>-4913772.530214203</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="C169" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="D169" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="E169" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="F169" t="n">
-        <v>21532.9377</v>
+        <v>2000</v>
       </c>
       <c r="G169" t="n">
-        <v>-4603415.216805058</v>
+        <v>-4915772.530214203</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="C170" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="D170" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E170" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="F170" t="n">
-        <v>1603.3868</v>
+        <v>1312.3586</v>
       </c>
       <c r="G170" t="n">
-        <v>-4603415.216805058</v>
+        <v>-4917084.888814203</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6888,14 +6955,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6905,19 +6969,19 @@
         <v>68.09999999999999</v>
       </c>
       <c r="C171" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="D171" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="E171" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="F171" t="n">
-        <v>1835.9999</v>
+        <v>3114.6549</v>
       </c>
       <c r="G171" t="n">
-        <v>-4603415.216805058</v>
+        <v>-4913970.233914202</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6927,36 +6991,33 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>68.2</v>
+        <v>68</v>
       </c>
       <c r="C172" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="D172" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E172" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="F172" t="n">
-        <v>10423.8775</v>
+        <v>13688</v>
       </c>
       <c r="G172" t="n">
-        <v>-4603415.216805058</v>
+        <v>-4927658.233914202</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6966,21 +7027,18 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C173" t="n">
         <v>68.2</v>
@@ -6989,13 +7047,13 @@
         <v>68.2</v>
       </c>
       <c r="E173" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F173" t="n">
-        <v>104.0064</v>
+        <v>12000</v>
       </c>
       <c r="G173" t="n">
-        <v>-4603311.210405057</v>
+        <v>-4915658.233914202</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7005,92 +7063,83 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C174" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D174" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E174" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F174" t="n">
-        <v>1500</v>
+        <v>1710</v>
       </c>
       <c r="G174" t="n">
-        <v>-4603311.210405057</v>
+        <v>-4917368.233914202</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C175" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D175" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E175" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F175" t="n">
-        <v>8470</v>
+        <v>13290</v>
       </c>
       <c r="G175" t="n">
-        <v>-4603311.210405057</v>
+        <v>-4917368.233914202</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7109,127 +7158,118 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F176" t="n">
-        <v>14690.4341</v>
+        <v>16897.76</v>
       </c>
       <c r="G176" t="n">
-        <v>-4618001.644505057</v>
+        <v>-4917368.233914202</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>68.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C177" t="n">
-        <v>68.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D177" t="n">
-        <v>68.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E177" t="n">
-        <v>68.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F177" t="n">
-        <v>1853.8483</v>
+        <v>13922.401</v>
       </c>
       <c r="G177" t="n">
-        <v>-4618001.644505057</v>
+        <v>-4931290.634914202</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>68.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C178" t="n">
-        <v>68.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D178" t="n">
-        <v>68.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E178" t="n">
-        <v>68.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F178" t="n">
-        <v>10</v>
+        <v>0.0001</v>
       </c>
       <c r="G178" t="n">
-        <v>-4617991.644505057</v>
+        <v>-4931290.634914202</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>68.40000000000001</v>
+        <v>68</v>
       </c>
       <c r="C179" t="n">
-        <v>68.40000000000001</v>
+        <v>68</v>
       </c>
       <c r="D179" t="n">
-        <v>68.40000000000001</v>
+        <v>68</v>
       </c>
       <c r="E179" t="n">
-        <v>68.40000000000001</v>
+        <v>68</v>
       </c>
       <c r="F179" t="n">
-        <v>951.683</v>
+        <v>14849</v>
       </c>
       <c r="G179" t="n">
-        <v>-4617991.644505057</v>
+        <v>-4916441.634914202</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7239,36 +7279,33 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>68.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="C180" t="n">
-        <v>68.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="D180" t="n">
-        <v>68.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="E180" t="n">
-        <v>68.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="F180" t="n">
-        <v>1158.6551</v>
+        <v>1840.7161</v>
       </c>
       <c r="G180" t="n">
-        <v>-4617991.644505057</v>
+        <v>-4918282.351014202</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7278,1506 +7315,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="C181" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="D181" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="E181" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="F181" t="n">
-        <v>3630</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-4617991.644505057</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="D182" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="E182" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="F182" t="n">
-        <v>7260</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-4617991.644505057</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="C183" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D183" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E183" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="F183" t="n">
-        <v>6023.8175</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-4611967.827005058</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="C184" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D184" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E184" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="F184" t="n">
-        <v>119317.8599</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-4611967.827005058</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="C185" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="D185" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="E185" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="F185" t="n">
-        <v>1315.6477</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-4610652.179305058</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="C186" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="D186" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="E186" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="F186" t="n">
-        <v>25020</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-4610652.179305058</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="C187" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D187" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="E187" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="F187" t="n">
-        <v>3500</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-4614152.179305058</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="C188" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="D188" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E188" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="F188" t="n">
-        <v>13033.4569</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-4627185.636205058</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="C189" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="D189" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="E189" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="F189" t="n">
-        <v>14531.68099085631</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-4612653.955214201</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="C190" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="D190" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="E190" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="F190" t="n">
-        <v>29539.3475</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-4642193.302714202</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="C191" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D191" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E191" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="F191" t="n">
-        <v>1590</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-4640603.302714202</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D192" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="E192" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="F192" t="n">
-        <v>11966.0792</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-4640603.302714202</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="C193" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="D193" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="E193" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="F193" t="n">
-        <v>5056.9999</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-4645660.302614202</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C194" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="D194" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E194" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F194" t="n">
-        <v>10</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-4645650.302614202</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="C195" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D195" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E195" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="F195" t="n">
-        <v>38797.0131</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-4684447.315714202</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="C196" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D196" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E196" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="F196" t="n">
-        <v>12124.677</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-4684447.315714202</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="C197" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="D197" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="E197" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="F197" t="n">
-        <v>12931.721</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-4697379.036714202</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="C198" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="D198" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="E198" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="F198" t="n">
-        <v>3335.9647</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-4697379.036714202</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="C199" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="D199" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="E199" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="F199" t="n">
-        <v>503.9939</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-4697379.036714202</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="C200" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="D200" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="E200" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="F200" t="n">
-        <v>15306.6229</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-4682072.413814202</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="C201" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="D201" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="E201" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="F201" t="n">
-        <v>15900</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-4666172.413814202</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="C202" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="D202" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="E202" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="F202" t="n">
-        <v>72793.2896</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-4666172.413814202</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="C203" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="D203" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E203" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="F203" t="n">
-        <v>2080</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-4668252.413814202</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="C204" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="D204" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="E204" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="F204" t="n">
-        <v>207681</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-4875933.413814202</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="C205" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D205" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E205" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="F205" t="n">
-        <v>278.3724</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-4875655.041414202</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="C206" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="D206" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="E206" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="F206" t="n">
-        <v>13999</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-4889654.041414202</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="C207" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="D207" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="E207" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="F207" t="n">
-        <v>24682.4888</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-4914336.530214203</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C208" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D208" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E208" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F208" t="n">
-        <v>564</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-4913772.530214203</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C209" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D209" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E209" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F209" t="n">
-        <v>4415.2863</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-4913772.530214203</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C210" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D210" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E210" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F210" t="n">
-        <v>1510</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-4913772.530214203</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>68</v>
-      </c>
-      <c r="C211" t="n">
-        <v>68</v>
-      </c>
-      <c r="D211" t="n">
-        <v>68</v>
-      </c>
-      <c r="E211" t="n">
-        <v>68</v>
-      </c>
-      <c r="F211" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-4915772.530214203</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="C212" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="D212" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="E212" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1312.3586</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-4917084.888814203</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D213" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E213" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F213" t="n">
-        <v>3114.6549</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-4913970.233914202</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>68</v>
-      </c>
-      <c r="C214" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D214" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E214" t="n">
-        <v>68</v>
-      </c>
-      <c r="F214" t="n">
-        <v>13688</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-4927658.233914202</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D215" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E215" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F215" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-4915658.233914202</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C216" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D216" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E216" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F216" t="n">
-        <v>1710</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-4917368.233914202</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C217" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D217" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E217" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F217" t="n">
-        <v>13290</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-4917368.233914202</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C218" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D218" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E218" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F218" t="n">
-        <v>16897.76</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-4917368.233914202</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="C219" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="D219" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="E219" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="F219" t="n">
-        <v>13922.401</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-4931290.634914202</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="C220" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="D220" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="E220" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="F220" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-4931290.634914202</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>68</v>
-      </c>
-      <c r="C221" t="n">
-        <v>68</v>
-      </c>
-      <c r="D221" t="n">
-        <v>68</v>
-      </c>
-      <c r="E221" t="n">
-        <v>68</v>
-      </c>
-      <c r="F221" t="n">
-        <v>14849</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-4916441.634914202</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="C222" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="D222" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="E222" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="F222" t="n">
-        <v>1840.7161</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-4918282.351014202</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
+      <c r="N180" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-19 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N251"/>
+  <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,22 +4246,15 @@
         <v>-5175255.50854378</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="K117" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4638,3082 +4281,2958 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C119" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D119" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E119" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F119" t="n">
+        <v>7846.5551</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-5175255.50854378</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E120" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>25214.8119</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-5175255.50854378</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C121" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D121" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E121" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F121" t="n">
+        <v>12.4624</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-5175243.04614378</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>22.406</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-5175265.452143781</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-5175265.452143781</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D124" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1107.5609</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-5176373.013043781</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C125" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D125" t="n">
         <v>66.2</v>
       </c>
-      <c r="L118" t="inlineStr">
+      <c r="E125" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F125" t="n">
+        <v>396</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-5176373.013043781</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C126" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D126" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F126" t="n">
+        <v>110</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-5176373.013043781</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C127" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D127" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F127" t="n">
+        <v>154</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-5176373.013043781</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C128" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D128" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="E128" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F128" t="n">
+        <v>44</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-5176373.013043781</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="J128" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C129" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F129" t="n">
+        <v>11</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-5176362.013043781</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+      <c r="I129" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="J129" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
         <v>66.3</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C130" t="n">
         <v>66.3</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D130" t="n">
         <v>66.3</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E130" t="n">
         <v>66.3</v>
       </c>
-      <c r="F119" t="n">
-        <v>7846.5551</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-5175255.50854378</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K119" t="n">
+      <c r="F130" t="n">
+        <v>41.8341</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-5176320.178943781</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+      <c r="I130" t="n">
         <v>66.2</v>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="J130" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3460</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-5172860.178943781</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+      <c r="I131" t="n">
         <v>66.3</v>
       </c>
-      <c r="C120" t="n">
+      <c r="J131" t="n">
         <v>66.3</v>
       </c>
-      <c r="D120" t="n">
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C132" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F132" t="n">
+        <v>51664.9714</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-5121195.207543781</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+      <c r="I132" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J132" t="n">
         <v>66.3</v>
       </c>
-      <c r="E120" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="F120" t="n">
-        <v>25214.8119</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-5175255.50854378</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K120" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="C121" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="D121" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="E121" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="F121" t="n">
-        <v>12.4624</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-5175243.04614378</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K121" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C122" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D122" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E122" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F122" t="n">
-        <v>22.406</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-5175265.452143781</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C133" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D133" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-5126195.207543781</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="J133" t="n">
         <v>66.3</v>
       </c>
-      <c r="L122" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C123" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D123" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E123" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F123" t="n">
-        <v>10</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-5175265.452143781</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C124" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="D124" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E124" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1107.5609</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-5176373.013043781</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="C125" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="D125" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="E125" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="F125" t="n">
-        <v>396</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-5176373.013043781</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="C126" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="D126" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="E126" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="F126" t="n">
-        <v>110</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-5176373.013043781</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="C127" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="D127" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="E127" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="F127" t="n">
-        <v>154</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-5176373.013043781</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C134" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D134" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E134" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3701.9998</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-5126195.207543781</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+      <c r="I134" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="J134" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C135" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6605.3748</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-5126195.207543781</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C136" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D136" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E136" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F136" t="n">
+        <v>11549.8113</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-5126195.207543781</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C137" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F137" t="n">
+        <v>20530</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-5105665.207543781</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C138" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D138" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E138" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2034.2875</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-5107699.495043781</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+      <c r="I138" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="J138" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>63964.3362</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-5043735.158843781</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D140" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E140" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>20875.5413</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-5022859.617543781</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+      <c r="I140" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="J140" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="C128" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="D128" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="E128" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="F128" t="n">
-        <v>44</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-5176373.013043781</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>291.5032</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-5023151.120743781</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C129" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="D129" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="E129" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="F129" t="n">
-        <v>11</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-5176362.013043781</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D142" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>131.1002</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-5023151.120743781</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="C130" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="D130" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="E130" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="F130" t="n">
-        <v>41.8341</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-5176320.178943781</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C143" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D143" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F143" t="n">
+        <v>929.5757</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-5024080.696443781</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C131" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D131" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E131" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F131" t="n">
-        <v>3460</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-5172860.178943781</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F144" t="n">
+        <v>610</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-5024080.696443781</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="C132" t="n">
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
         <v>66.7</v>
       </c>
-      <c r="D132" t="n">
+      <c r="C145" t="n">
         <v>66.7</v>
       </c>
-      <c r="E132" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="F132" t="n">
-        <v>51664.9714</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-5121195.207543781</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+      <c r="D145" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F145" t="n">
+        <v>476.4</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-5024080.696443781</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="C133" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="D133" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="E133" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="F133" t="n">
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D146" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F146" t="n">
         <v>5000</v>
       </c>
-      <c r="G133" t="n">
-        <v>-5126195.207543781</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+      <c r="G146" t="n">
+        <v>-5019080.696443781</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="C134" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="D134" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="E134" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="F134" t="n">
-        <v>3701.9998</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-5126195.207543781</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C147" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D147" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1013</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-5019080.696443781</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="C135" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="D135" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="E135" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="F135" t="n">
-        <v>6605.3748</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-5126195.207543781</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3874.9999</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-5019080.696443781</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="C136" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="D136" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="E136" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="F136" t="n">
-        <v>11549.8113</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-5126195.207543781</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D149" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>661.7488</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-5019080.696443781</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="C137" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D137" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E137" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F137" t="n">
-        <v>20530</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-5105665.207543781</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C150" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D150" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E150" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F150" t="n">
+        <v>29046.3214</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-5019080.696443781</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="D138" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2034.2875</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-5107699.495043781</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>67</v>
+      </c>
+      <c r="C151" t="n">
+        <v>67</v>
+      </c>
+      <c r="D151" t="n">
+        <v>67</v>
+      </c>
+      <c r="E151" t="n">
+        <v>67</v>
+      </c>
+      <c r="F151" t="n">
+        <v>28954.2635</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-4990126.432943781</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="C139" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D139" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E139" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F139" t="n">
-        <v>63964.3362</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-5043735.158843781</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>67</v>
+      </c>
+      <c r="C152" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D152" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E152" t="n">
+        <v>67</v>
+      </c>
+      <c r="F152" t="n">
+        <v>54501.9315</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-4935624.501443781</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="C140" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D140" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E140" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F140" t="n">
-        <v>20875.5413</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-5022859.617543781</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C153" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D153" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E153" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2478.3209</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-4935624.501443781</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="C141" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D141" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E141" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F141" t="n">
-        <v>291.5032</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-5023151.120743781</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C154" t="n">
+        <v>67</v>
+      </c>
+      <c r="D154" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E154" t="n">
+        <v>67</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-4937624.501443781</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="C142" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D142" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E142" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F142" t="n">
-        <v>131.1002</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-5023151.120743781</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C155" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>489.6335</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-4937134.86794378</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="C143" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="D143" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="E143" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F143" t="n">
-        <v>929.5757</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-5024080.696443781</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D156" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E156" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F156" t="n">
+        <v>90170.14479999999</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-4846964.723143781</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="C144" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="D144" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="E144" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F144" t="n">
-        <v>610</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-5024080.696443781</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="D157" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="E157" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>14767.77545207715</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-4832196.947691703</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="C145" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="D145" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="E145" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F145" t="n">
-        <v>476.4</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-5024080.696443781</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="C158" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="D158" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="E158" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="F158" t="n">
+        <v>36</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-4832196.947691703</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="C146" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D146" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E146" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F146" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-5019080.696443781</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C159" t="n">
+        <v>67</v>
+      </c>
+      <c r="D159" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E159" t="n">
+        <v>67</v>
+      </c>
+      <c r="F159" t="n">
+        <v>600.1708</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-4832797.118491704</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="C147" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D147" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E147" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1013</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-5019080.696443781</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="C160" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="D160" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="E160" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="F160" t="n">
+        <v>115.8753</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-4832681.243191703</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="C148" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D148" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E148" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F148" t="n">
-        <v>3874.9999</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-5019080.696443781</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="C161" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="D161" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E161" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>49138.9955</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-4783542.247691703</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="C149" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D149" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E149" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F149" t="n">
-        <v>661.7488</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-5019080.696443781</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>769.843</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-4783542.247691703</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="C150" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D150" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E150" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F150" t="n">
-        <v>29046.3214</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-5019080.696443781</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D163" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E163" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>19315.3768</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-4764226.870891703</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>67</v>
-      </c>
-      <c r="C151" t="n">
-        <v>67</v>
-      </c>
-      <c r="D151" t="n">
-        <v>67</v>
-      </c>
-      <c r="E151" t="n">
-        <v>67</v>
-      </c>
-      <c r="F151" t="n">
-        <v>28954.2635</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-4990126.432943781</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="C164" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="E164" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>6472.756</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-4770699.626891703</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>67</v>
-      </c>
-      <c r="C152" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="D152" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="E152" t="n">
-        <v>67</v>
-      </c>
-      <c r="F152" t="n">
-        <v>54501.9315</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-4935624.501443781</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C165" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="D165" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E165" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F165" t="n">
+        <v>763.4999</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-4770699.626891703</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="C153" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="D153" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="E153" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="F153" t="n">
-        <v>2478.3209</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-4935624.501443781</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="C166" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="E166" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>763.4999</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-4770699.626891703</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="C154" t="n">
-        <v>67</v>
-      </c>
-      <c r="D154" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="E154" t="n">
-        <v>67</v>
-      </c>
-      <c r="F154" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-4937624.501443781</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E167" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1558</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-4770699.626891703</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="C155" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="E155" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="F155" t="n">
-        <v>489.6335</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-4937134.86794378</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C168" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D168" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E168" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4478.9556</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-4766220.671291703</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="C156" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="D156" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="E156" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="F156" t="n">
-        <v>90170.14479999999</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-4846964.723143781</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C169" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D169" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E169" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1878.8647</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-4766220.671291703</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="C157" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="D157" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="E157" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="F157" t="n">
-        <v>14767.77545207715</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-4832196.947691703</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D170" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E170" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1789.0475</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-4766220.671291703</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="C158" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="D158" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="E158" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="F158" t="n">
-        <v>36</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-4832196.947691703</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C171" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D171" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E171" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F171" t="n">
+        <v>951</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-4766220.671291703</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="C159" t="n">
-        <v>67</v>
-      </c>
-      <c r="D159" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="E159" t="n">
-        <v>67</v>
-      </c>
-      <c r="F159" t="n">
-        <v>600.1708</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-4832797.118491704</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C172" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D172" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E172" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1759.0899</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-4766220.671291703</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="C160" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="D160" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="E160" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="F160" t="n">
-        <v>115.8753</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-4832681.243191703</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C173" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D173" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E173" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F173" t="n">
+        <v>4876</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-4766220.671291703</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="C161" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="D161" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E161" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="F161" t="n">
-        <v>49138.9955</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-4783542.247691703</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C174" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D174" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E174" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1221.9999</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-4766220.671291703</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="C162" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="D162" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="E162" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="F162" t="n">
-        <v>769.843</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-4783542.247691703</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="C175" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="D175" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="E175" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="F175" t="n">
+        <v>100</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-4766120.671291703</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="C163" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D163" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E163" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="F163" t="n">
-        <v>19315.3768</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-4764226.870891703</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C176" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D176" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E176" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F176" t="n">
+        <v>27823.9999</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-4793944.671191704</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="C164" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="D164" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="E164" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="F164" t="n">
-        <v>6472.756</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-4770699.626891703</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D177" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2263</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-4793944.671191704</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C165" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="D165" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E165" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="F165" t="n">
-        <v>763.4999</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-4770699.626891703</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C178" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D178" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E178" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F178" t="n">
+        <v>5972</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-4793944.671191704</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="C166" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="D166" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="E166" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="F166" t="n">
-        <v>763.4999</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-4770699.626891703</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C179" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D179" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E179" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F179" t="n">
+        <v>105.9731</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-4793944.671191704</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C167" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="D167" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E167" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1558</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-4770699.626891703</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C180" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D180" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E180" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F180" t="n">
+        <v>7000.145</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-4793944.671191704</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C168" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D168" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E168" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F168" t="n">
-        <v>4478.9556</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-4766220.671291703</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="D181" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="E181" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="F181" t="n">
+        <v>275.5487</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-4793669.122491703</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C169" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D169" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E169" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1878.8647</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-4766220.671291703</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="C182" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="D182" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="F182" t="n">
+        <v>251.9618</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-4793669.122491703</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C170" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D170" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E170" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1789.0475</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-4766220.671291703</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="C183" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="D183" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="F183" t="n">
+        <v>213.7521</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-4793669.122491703</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C171" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D171" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E171" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F171" t="n">
-        <v>951</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-4766220.671291703</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="C184" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="D184" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="E184" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="F184" t="n">
+        <v>900</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-4793669.122491703</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C172" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D172" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E172" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1759.0899</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-4766220.671291703</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="C185" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="D185" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="E185" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2026.9999</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-4793669.122491703</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C173" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D173" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E173" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F173" t="n">
-        <v>4876</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-4766220.671291703</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C186" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D186" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="E186" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-4792669.122491703</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C174" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D174" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E174" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1221.9999</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-4766220.671291703</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="C187" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="D187" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="E187" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="F187" t="n">
+        <v>10454.1939</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-4803123.316391704</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="C175" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="D175" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="E175" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="F175" t="n">
-        <v>100</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-4766120.671291703</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D188" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="E188" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F188" t="n">
+        <v>47501.549</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-4755621.767391704</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C176" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D176" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E176" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F176" t="n">
-        <v>27823.9999</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-4793944.671191704</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C189" t="n">
+        <v>68</v>
+      </c>
+      <c r="D189" t="n">
+        <v>68</v>
+      </c>
+      <c r="E189" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2155.9999</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-4753465.767491704</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="C177" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D177" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="E177" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F177" t="n">
-        <v>2263</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-4793944.671191704</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C190" t="n">
+        <v>68</v>
+      </c>
+      <c r="D190" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="E190" t="n">
+        <v>68</v>
+      </c>
+      <c r="F190" t="n">
+        <v>18783.8296</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-4753465.767491704</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C178" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D178" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E178" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F178" t="n">
-        <v>5972</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-4793944.671191704</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="C191" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="D191" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="E191" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="F191" t="n">
+        <v>14.7492</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-4753480.516691704</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C179" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D179" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E179" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F179" t="n">
-        <v>105.9731</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-4793944.671191704</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="C192" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="D192" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="E192" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3108.6395</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-4756589.156191704</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C180" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D180" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E180" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F180" t="n">
-        <v>7000.145</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-4793944.671191704</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D193" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="E193" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F193" t="n">
+        <v>123533.7695866473</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-4633055.386605057</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="C181" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="D181" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="E181" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="F181" t="n">
-        <v>275.5487</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-4793669.122491703</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C194" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="D194" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="E194" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F194" t="n">
+        <v>27019.1959</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-4606036.190705057</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="C182" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="D182" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="E182" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="F182" t="n">
-        <v>251.9618</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-4793669.122491703</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="C183" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="D183" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="E183" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="F183" t="n">
-        <v>213.7521</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-4793669.122491703</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="C184" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="D184" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="E184" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="F184" t="n">
-        <v>900</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-4793669.122491703</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="C185" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="D185" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="E185" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="F185" t="n">
-        <v>2026.9999</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-4793669.122491703</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="C186" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="D186" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="E186" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-4792669.122491703</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="C187" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="D187" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="E187" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="F187" t="n">
-        <v>10454.1939</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-4803123.316391704</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="C195" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D195" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="E195" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="F195" t="n">
+        <v>3049.9707</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-4609086.161405058</v>
+      </c>
+      <c r="H195" t="n">
+        <v>3</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="D188" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="E188" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="F188" t="n">
-        <v>47501.549</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-4755621.767391704</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="C189" t="n">
-        <v>68</v>
-      </c>
-      <c r="D189" t="n">
-        <v>68</v>
-      </c>
-      <c r="E189" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="F189" t="n">
-        <v>2155.9999</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-4753465.767491704</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C190" t="n">
-        <v>68</v>
-      </c>
-      <c r="D190" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E190" t="n">
-        <v>68</v>
-      </c>
-      <c r="F190" t="n">
-        <v>18783.8296</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-4753465.767491704</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="C191" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="D191" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="E191" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="F191" t="n">
-        <v>14.7492</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-4753480.516691704</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="C192" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="D192" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="E192" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="F192" t="n">
-        <v>3108.6395</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-4756589.156191704</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="C193" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D193" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="E193" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F193" t="n">
-        <v>123533.7695866473</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-4633055.386605057</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C194" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="D194" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="E194" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F194" t="n">
-        <v>27019.1959</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-4606036.190705057</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="C195" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="D195" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="E195" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="F195" t="n">
-        <v>3049.9707</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-4609086.161405058</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1.017455089820359</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7738,18 +7257,15 @@
         <v>-4610588.161405058</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7774,18 +7290,15 @@
         <v>-4603415.216805058</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7810,18 +7323,15 @@
         <v>-4603415.216805058</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7846,18 +7356,15 @@
         <v>-4603415.216805058</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7882,18 +7389,15 @@
         <v>-4603415.216805058</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7918,18 +7422,15 @@
         <v>-4603415.216805058</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7954,18 +7455,15 @@
         <v>-4603311.210405057</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7992,16 +7490,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8028,16 +7523,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8062,18 +7554,15 @@
         <v>-4618001.644505057</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8098,18 +7587,15 @@
         <v>-4618001.644505057</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8134,18 +7620,15 @@
         <v>-4617991.644505057</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8170,18 +7653,15 @@
         <v>-4617991.644505057</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8206,18 +7686,15 @@
         <v>-4617991.644505057</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8242,18 +7719,15 @@
         <v>-4617991.644505057</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8278,18 +7752,15 @@
         <v>-4617991.644505057</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8314,18 +7785,15 @@
         <v>-4611967.827005058</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8350,18 +7818,15 @@
         <v>-4611967.827005058</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8386,18 +7851,15 @@
         <v>-4610652.179305058</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8422,18 +7884,15 @@
         <v>-4610652.179305058</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8458,18 +7917,15 @@
         <v>-4614152.179305058</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8494,18 +7950,15 @@
         <v>-4627185.636205058</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8530,18 +7983,15 @@
         <v>-4612653.955214201</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8566,18 +8016,15 @@
         <v>-4642193.302714202</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8602,18 +8049,15 @@
         <v>-4640603.302714202</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8638,18 +8082,15 @@
         <v>-4640603.302714202</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8676,16 +8117,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8712,16 +8150,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8748,16 +8183,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8784,16 +8216,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8820,16 +8249,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8856,16 +8282,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8892,16 +8315,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8928,16 +8348,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8964,16 +8381,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9000,16 +8414,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9036,16 +8447,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9072,16 +8480,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9108,16 +8513,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9144,16 +8546,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9180,16 +8579,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9216,16 +8612,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9252,16 +8645,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9288,16 +8678,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9324,16 +8711,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9360,16 +8744,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9396,16 +8777,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9432,16 +8810,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9468,16 +8843,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9504,16 +8876,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9540,16 +8909,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9576,16 +8942,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9612,16 +8975,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9648,16 +9008,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9684,16 +9041,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9720,18 +9074,15 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-19 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4312,10 +4312,14 @@
         <v>-5175255.50854378</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J119" t="n">
+        <v>66.3</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
@@ -4345,11 +4349,19 @@
         <v>-5175255.50854378</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J120" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4390,19 @@
         <v>-5175243.04614378</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J121" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4609,7 +4629,7 @@
         <v>-5176373.013043781</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>66.09999999999999</v>
@@ -4646,7 +4666,7 @@
         <v>-5176362.013043781</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>66.09999999999999</v>
@@ -4687,7 +4707,7 @@
         <v>-5176320.178943781</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>66.2</v>
@@ -4728,7 +4748,7 @@
         <v>-5172860.178943781</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>66.3</v>
@@ -4765,7 +4785,7 @@
         <v>-5121195.207543781</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>66.5</v>
@@ -4806,7 +4826,7 @@
         <v>-5126195.207543781</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>66.7</v>
@@ -4847,7 +4867,7 @@
         <v>-5126195.207543781</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>66.59999999999999</v>
@@ -4884,9 +4904,11 @@
         <v>-5126195.207543781</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="J135" t="n">
         <v>66.59999999999999</v>
       </c>
@@ -4995,14 +5017,10 @@
         <v>-5107699.495043781</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="J138" t="n">
-        <v>66.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
@@ -5035,14 +5053,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5071,19 +5083,11 @@
         <v>-5022859.617543781</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="J140" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5115,14 +5119,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5154,14 +5152,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5193,14 +5185,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5232,14 +5218,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5271,14 +5251,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5310,14 +5284,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5349,14 +5317,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5388,14 +5350,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5427,14 +5383,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5466,14 +5416,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5505,14 +5449,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5544,14 +5482,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5583,14 +5515,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5622,14 +5548,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5661,14 +5581,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5700,14 +5614,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5739,14 +5647,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5778,14 +5680,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5814,17 +5710,11 @@
         <v>-4832797.118491704</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5853,17 +5743,11 @@
         <v>-4832681.243191703</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5892,17 +5776,11 @@
         <v>-4783542.247691703</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5931,17 +5809,11 @@
         <v>-4783542.247691703</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5973,14 +5845,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6012,14 +5878,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6051,14 +5911,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6090,14 +5944,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6129,14 +5977,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6168,14 +6010,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6207,14 +6043,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6246,14 +6076,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6285,14 +6109,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6324,14 +6142,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6363,14 +6175,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6402,14 +6208,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6441,14 +6241,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6480,14 +6274,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6519,14 +6307,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6558,14 +6340,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6597,14 +6373,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6636,14 +6406,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6675,14 +6439,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6714,14 +6472,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6753,14 +6505,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6792,14 +6538,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6831,14 +6571,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6870,14 +6604,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6909,14 +6637,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6948,14 +6670,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6987,14 +6703,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7026,14 +6736,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7065,14 +6769,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7104,14 +6802,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7143,14 +6835,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7182,14 +6868,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7218,19 +6898,13 @@
         <v>-4609086.161405058</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
-        <v>1.017455089820359</v>
+        <v>1</v>
       </c>
       <c r="M195" t="inlineStr"/>
     </row>
@@ -7257,7 +6931,7 @@
         <v>-4610588.161405058</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7290,7 +6964,7 @@
         <v>-4603415.216805058</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7323,7 +6997,7 @@
         <v>-4603415.216805058</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7356,7 +7030,7 @@
         <v>-4603415.216805058</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7389,7 +7063,7 @@
         <v>-4603415.216805058</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7422,7 +7096,7 @@
         <v>-4603415.216805058</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7455,7 +7129,7 @@
         <v>-4603311.210405057</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7554,7 +7228,7 @@
         <v>-4618001.644505057</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7587,7 +7261,7 @@
         <v>-4618001.644505057</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7620,7 +7294,7 @@
         <v>-4617991.644505057</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7653,7 +7327,7 @@
         <v>-4617991.644505057</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7686,7 +7360,7 @@
         <v>-4617991.644505057</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7719,7 +7393,7 @@
         <v>-4617991.644505057</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7752,7 +7426,7 @@
         <v>-4617991.644505057</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7785,7 +7459,7 @@
         <v>-4611967.827005058</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7818,7 +7492,7 @@
         <v>-4611967.827005058</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7851,7 +7525,7 @@
         <v>-4610652.179305058</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7884,7 +7558,7 @@
         <v>-4610652.179305058</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7917,7 +7591,7 @@
         <v>-4614152.179305058</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7950,7 +7624,7 @@
         <v>-4627185.636205058</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7983,7 +7657,7 @@
         <v>-4612653.955214201</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8016,7 +7690,7 @@
         <v>-4642193.302714202</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8049,7 +7723,7 @@
         <v>-4640603.302714202</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8082,7 +7756,7 @@
         <v>-4640603.302714202</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8115,7 +7789,7 @@
         <v>-4645660.302614202</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8181,7 +7855,7 @@
         <v>-4684447.315714202</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8214,7 +7888,7 @@
         <v>-4684447.315714202</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8247,7 +7921,7 @@
         <v>-4697379.036714202</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8280,7 +7954,7 @@
         <v>-4697379.036714202</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8313,7 +7987,7 @@
         <v>-4697379.036714202</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8346,7 +8020,7 @@
         <v>-4682072.413814202</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8379,7 +8053,7 @@
         <v>-4666172.413814202</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8412,7 +8086,7 @@
         <v>-4666172.413814202</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8445,7 +8119,7 @@
         <v>-4668252.413814202</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8478,7 +8152,7 @@
         <v>-4875933.413814202</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8511,7 +8185,7 @@
         <v>-4875655.041414202</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8544,7 +8218,7 @@
         <v>-4889654.041414202</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8577,7 +8251,7 @@
         <v>-4914336.530214203</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8643,7 +8317,7 @@
         <v>-4913772.530214203</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8676,7 +8350,7 @@
         <v>-4913772.530214203</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8709,7 +8383,7 @@
         <v>-4915772.530214203</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8874,7 +8548,7 @@
         <v>-4917368.233914202</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9083,6 +8757,6 @@
       <c r="M251" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-19 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2266,7 +2266,7 @@
         <v>-5012546.239801029</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-5012706.787701028</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-5012706.787701028</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-5025157.04784378</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-5025147.04784378</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-5025147.04784378</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-5032699.348743781</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -4279,10 +4279,14 @@
         <v>-5175255.50854378</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J118" t="n">
+        <v>66.3</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
@@ -4312,15 +4316,17 @@
         <v>-5175255.50854378</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>66.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
         <v>66.3</v>
       </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4398,44 +4404,48 @@
       <c r="J121" t="n">
         <v>66.3</v>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>22.406</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-5175265.452143781</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="J122" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C122" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D122" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E122" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F122" t="n">
-        <v>22.406</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-5175265.452143781</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4467,8 +4477,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4497,11 +4513,19 @@
         <v>-5176373.013043781</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J124" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4533,8 +4557,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4563,11 +4593,19 @@
         <v>-5176373.013043781</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="J126" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4596,11 +4634,19 @@
         <v>-5176373.013043781</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="J127" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4635,9 +4681,13 @@
         <v>66.09999999999999</v>
       </c>
       <c r="J128" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
+        <v>66.3</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4672,11 +4722,11 @@
         <v>66.09999999999999</v>
       </c>
       <c r="J129" t="n">
-        <v>66.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -4713,11 +4763,11 @@
         <v>66.2</v>
       </c>
       <c r="J130" t="n">
-        <v>66.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L130" t="n">
@@ -4748,15 +4798,17 @@
         <v>-5172860.178943781</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>66.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
         <v>66.3</v>
       </c>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4785,17 +4837,15 @@
         <v>-5121195.207543781</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>66.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
         <v>66.3</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -4826,17 +4876,15 @@
         <v>-5126195.207543781</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>66.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
         <v>66.3</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -4867,15 +4915,17 @@
         <v>-5126195.207543781</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>66.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+        <v>66.3</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4904,17 +4954,15 @@
         <v>-5126195.207543781</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>66.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>66.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -4949,11 +4997,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>66.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -4987,8 +5035,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5020,8 +5074,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5053,8 +5113,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5086,8 +5152,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5119,8 +5191,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5152,8 +5230,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5185,8 +5269,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5218,8 +5308,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5251,8 +5347,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5284,8 +5386,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5317,8 +5425,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5350,8 +5464,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5383,8 +5503,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5416,8 +5542,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5449,8 +5581,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5482,8 +5620,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5515,8 +5659,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5548,8 +5698,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5581,8 +5737,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5614,8 +5776,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5647,8 +5815,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5680,8 +5854,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5713,8 +5893,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5746,8 +5932,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5779,8 +5971,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5809,13 +6007,19 @@
         <v>-4783542.247691703</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L162" t="n">
-        <v>1</v>
+        <v>1.013099547511312</v>
       </c>
       <c r="M162" t="inlineStr"/>
     </row>
@@ -5842,7 +6046,7 @@
         <v>-4764226.870891703</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5875,7 +6079,7 @@
         <v>-4770699.626891703</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5908,7 +6112,7 @@
         <v>-4770699.626891703</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5941,7 +6145,7 @@
         <v>-4770699.626891703</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5974,7 +6178,7 @@
         <v>-4770699.626891703</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6007,7 +6211,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6040,7 +6244,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6073,7 +6277,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6106,7 +6310,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6139,7 +6343,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6172,7 +6376,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6205,7 +6409,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6238,7 +6442,7 @@
         <v>-4766120.671291703</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6271,7 +6475,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6304,7 +6508,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6337,7 +6541,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6370,7 +6574,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6403,7 +6607,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6436,7 +6640,7 @@
         <v>-4793669.122491703</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6535,7 +6739,7 @@
         <v>-4793669.122491703</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6568,7 +6772,7 @@
         <v>-4793669.122491703</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6601,7 +6805,7 @@
         <v>-4792669.122491703</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6634,7 +6838,7 @@
         <v>-4803123.316391704</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6667,7 +6871,7 @@
         <v>-4755621.767391704</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6700,7 +6904,7 @@
         <v>-4753465.767491704</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6733,7 +6937,7 @@
         <v>-4753465.767491704</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7690,7 +7894,7 @@
         <v>-4642193.302714202</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7789,7 +7993,7 @@
         <v>-4645660.302614202</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7855,7 +8059,7 @@
         <v>-4684447.315714202</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7888,7 +8092,7 @@
         <v>-4684447.315714202</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7921,7 +8125,7 @@
         <v>-4697379.036714202</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7954,7 +8158,7 @@
         <v>-4697379.036714202</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7987,7 +8191,7 @@
         <v>-4697379.036714202</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8020,7 +8224,7 @@
         <v>-4682072.413814202</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8053,7 +8257,7 @@
         <v>-4666172.413814202</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8086,7 +8290,7 @@
         <v>-4666172.413814202</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8119,7 +8323,7 @@
         <v>-4668252.413814202</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8152,7 +8356,7 @@
         <v>-4875933.413814202</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8185,7 +8389,7 @@
         <v>-4875655.041414202</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8218,7 +8422,7 @@
         <v>-4889654.041414202</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8251,7 +8455,7 @@
         <v>-4914336.530214203</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8317,7 +8521,7 @@
         <v>-4913772.530214203</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8350,7 +8554,7 @@
         <v>-4913772.530214203</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8383,7 +8587,7 @@
         <v>-4915772.530214203</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8548,7 +8752,7 @@
         <v>-4917368.233914202</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8757,6 +8961,6 @@
       <c r="M251" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-19 BackTest ENJ.xlsx
@@ -2266,7 +2266,7 @@
         <v>-5012546.239801029</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-5012706.787701028</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-5012706.787701028</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-5025157.04784378</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-5025147.04784378</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-5025147.04784378</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-5032699.348743781</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -4279,14 +4279,10 @@
         <v>-5175255.50854378</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="J118" t="n">
-        <v>66.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
@@ -4319,574 +4315,510 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
         <v>66.3</v>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="C120" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E120" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>25214.8119</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-5175255.50854378</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C121" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D121" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E121" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F121" t="n">
+        <v>12.4624</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-5175243.04614378</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>22.406</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-5175265.452143781</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-5175265.452143781</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D124" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1107.5609</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-5176373.013043781</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C125" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D125" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F125" t="n">
+        <v>396</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-5176373.013043781</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C126" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D126" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F126" t="n">
+        <v>110</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-5176373.013043781</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C127" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D127" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F127" t="n">
+        <v>154</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-5176373.013043781</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C128" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D128" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="E128" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F128" t="n">
+        <v>44</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-5176373.013043781</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="J128" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C129" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F129" t="n">
+        <v>11</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-5176362.013043781</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="J129" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
         <v>66.3</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C130" t="n">
         <v>66.3</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D130" t="n">
         <v>66.3</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E130" t="n">
         <v>66.3</v>
       </c>
-      <c r="F120" t="n">
-        <v>25214.8119</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-5175255.50854378</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="J120" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K120" t="inlineStr">
+      <c r="F130" t="n">
+        <v>41.8341</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-5176320.178943781</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3460</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-5172860.178943781</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J131" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C132" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E132" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="D121" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="E121" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="F121" t="n">
-        <v>12.4624</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-5175243.04614378</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
+      <c r="F132" t="n">
+        <v>51664.9714</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-5121195.207543781</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J132" t="n">
         <v>66.3</v>
       </c>
-      <c r="J121" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C122" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D122" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E122" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F122" t="n">
-        <v>22.406</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-5175265.452143781</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J122" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K122" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C123" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D123" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E123" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F123" t="n">
-        <v>10</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-5175265.452143781</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C133" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D133" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-5126195.207543781</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="J133" t="n">
         <v>66.3</v>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C124" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="D124" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E124" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1107.5609</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-5176373.013043781</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J124" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="C125" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="D125" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="E125" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="F125" t="n">
-        <v>396</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-5176373.013043781</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="C126" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="D126" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="E126" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="F126" t="n">
-        <v>110</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-5176373.013043781</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="J126" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="C127" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="D127" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="E127" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="F127" t="n">
-        <v>154</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-5176373.013043781</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="J127" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="C128" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="D128" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="E128" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="F128" t="n">
-        <v>44</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-5176373.013043781</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="J128" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C129" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="D129" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="E129" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="F129" t="n">
-        <v>11</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-5176362.013043781</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="J129" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="C130" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="D130" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="E130" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="F130" t="n">
-        <v>41.8341</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-5176320.178943781</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="J130" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C131" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D131" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E131" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F131" t="n">
-        <v>3460</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-5172860.178943781</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="C132" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="D132" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="E132" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="F132" t="n">
-        <v>51664.9714</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-5121195.207543781</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="C133" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="D133" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="E133" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="F133" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-5126195.207543781</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4915,17 +4847,15 @@
         <v>-5126195.207543781</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="J134" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4954,15 +4884,17 @@
         <v>-5126195.207543781</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="J135" t="n">
-        <v>66.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -4993,15 +4925,17 @@
         <v>-5126195.207543781</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="J136" t="n">
-        <v>66.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -5032,17 +4966,15 @@
         <v>-5105665.207543781</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="J137" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5075,11 +5007,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>66.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -5114,11 +5046,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>66.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -5152,14 +5084,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5191,14 +5117,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5230,14 +5150,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5269,14 +5183,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5308,14 +5216,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5347,14 +5249,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5386,14 +5282,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5425,14 +5315,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5464,14 +5348,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5503,14 +5381,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5542,14 +5414,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5581,14 +5447,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5620,14 +5480,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5659,14 +5513,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5698,14 +5546,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5737,14 +5579,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5776,14 +5612,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5815,14 +5645,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5854,14 +5678,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5893,14 +5711,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5932,14 +5744,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5971,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6007,19 +5807,13 @@
         <v>-4783542.247691703</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>1.013099547511312</v>
+        <v>1</v>
       </c>
       <c r="M162" t="inlineStr"/>
     </row>
@@ -6046,7 +5840,7 @@
         <v>-4764226.870891703</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6079,7 +5873,7 @@
         <v>-4770699.626891703</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6112,7 +5906,7 @@
         <v>-4770699.626891703</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6145,7 +5939,7 @@
         <v>-4770699.626891703</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6178,7 +5972,7 @@
         <v>-4770699.626891703</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6211,7 +6005,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6244,7 +6038,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6277,7 +6071,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6310,7 +6104,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6343,7 +6137,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6376,7 +6170,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6409,7 +6203,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6442,7 +6236,7 @@
         <v>-4766120.671291703</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6475,7 +6269,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6508,7 +6302,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6541,7 +6335,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6574,7 +6368,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6607,7 +6401,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6640,7 +6434,7 @@
         <v>-4793669.122491703</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6739,7 +6533,7 @@
         <v>-4793669.122491703</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6772,7 +6566,7 @@
         <v>-4793669.122491703</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6805,7 +6599,7 @@
         <v>-4792669.122491703</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6838,7 +6632,7 @@
         <v>-4803123.316391704</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6871,7 +6665,7 @@
         <v>-4755621.767391704</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6904,7 +6698,7 @@
         <v>-4753465.767491704</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6937,7 +6731,7 @@
         <v>-4753465.767491704</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7102,7 +6896,7 @@
         <v>-4609086.161405058</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7135,7 +6929,7 @@
         <v>-4610588.161405058</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7696,7 +7490,7 @@
         <v>-4611967.827005058</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7729,7 +7523,7 @@
         <v>-4610652.179305058</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7762,7 +7556,7 @@
         <v>-4610652.179305058</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7795,7 +7589,7 @@
         <v>-4614152.179305058</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7828,7 +7622,7 @@
         <v>-4627185.636205058</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7861,7 +7655,7 @@
         <v>-4612653.955214201</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7894,7 +7688,7 @@
         <v>-4642193.302714202</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7927,7 +7721,7 @@
         <v>-4640603.302714202</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7960,7 +7754,7 @@
         <v>-4640603.302714202</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7993,7 +7787,7 @@
         <v>-4645660.302614202</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8026,7 +7820,7 @@
         <v>-4645650.302614202</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8059,7 +7853,7 @@
         <v>-4684447.315714202</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8092,7 +7886,7 @@
         <v>-4684447.315714202</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8125,7 +7919,7 @@
         <v>-4697379.036714202</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8158,7 +7952,7 @@
         <v>-4697379.036714202</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8224,7 +8018,7 @@
         <v>-4682072.413814202</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8290,7 +8084,7 @@
         <v>-4666172.413814202</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8323,7 +8117,7 @@
         <v>-4668252.413814202</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8356,7 +8150,7 @@
         <v>-4875933.413814202</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-19 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M251"/>
+  <dimension ref="A1:L251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>12690330</v>
       </c>
       <c r="G2" t="n">
-        <v>-8393579.339400001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>12021840</v>
       </c>
       <c r="G3" t="n">
-        <v>-8393579.339400001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>12510000</v>
       </c>
       <c r="G4" t="n">
-        <v>-8393579.339400001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>12286190</v>
       </c>
       <c r="G5" t="n">
-        <v>-8393579.339400001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>12420002</v>
       </c>
       <c r="G6" t="n">
-        <v>-8393579.339400001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>12599998</v>
       </c>
       <c r="G7" t="n">
-        <v>-8393579.339400001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>7337882</v>
       </c>
       <c r="G8" t="n">
-        <v>-8393579.339400001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2753120</v>
       </c>
       <c r="G9" t="n">
-        <v>-5640459.339400001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>660320.0955000001</v>
       </c>
       <c r="G10" t="n">
-        <v>-4980139.243900001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>14792.8994</v>
       </c>
       <c r="G11" t="n">
-        <v>-4980139.243900001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10013.9999</v>
       </c>
       <c r="G12" t="n">
-        <v>-4990153.243800001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>14</v>
       </c>
       <c r="G13" t="n">
-        <v>-4990139.243800001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>175.441</v>
       </c>
       <c r="G14" t="n">
-        <v>-4989963.802800002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>880</v>
       </c>
       <c r="G15" t="n">
-        <v>-4989963.802800002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>569.3211</v>
       </c>
       <c r="G16" t="n">
-        <v>-4990533.123900002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>3814</v>
       </c>
       <c r="G17" t="n">
-        <v>-4994347.123900002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>8216.999900000001</v>
       </c>
       <c r="G18" t="n">
-        <v>-4994347.123900002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>8764.0383</v>
       </c>
       <c r="G19" t="n">
-        <v>-4994347.123900002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>19029.65289897059</v>
       </c>
       <c r="G20" t="n">
-        <v>-4975317.471001031</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>24875.6</v>
       </c>
       <c r="G21" t="n">
-        <v>-5000193.071001031</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>20800.5669</v>
       </c>
       <c r="G22" t="n">
-        <v>-5020993.63790103</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>4857.8442</v>
       </c>
       <c r="G23" t="n">
-        <v>-5025851.482101031</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>474.2646</v>
       </c>
       <c r="G24" t="n">
-        <v>-5025377.21750103</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>6471.8585</v>
       </c>
       <c r="G25" t="n">
-        <v>-5018905.35900103</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>2438.8451</v>
       </c>
       <c r="G26" t="n">
-        <v>-5021344.20410103</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>9084.162700000001</v>
       </c>
       <c r="G27" t="n">
-        <v>-5021344.20410103</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1818.6307</v>
       </c>
       <c r="G28" t="n">
-        <v>-5019525.57340103</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>9408.9349</v>
       </c>
       <c r="G29" t="n">
-        <v>-5010116.63850103</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>200.4437869822485</v>
       </c>
       <c r="G30" t="n">
-        <v>-5010116.63850103</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>22.18934911242604</v>
       </c>
       <c r="G31" t="n">
-        <v>-5010116.63850103</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>5470</v>
       </c>
       <c r="G32" t="n">
-        <v>-5015586.63850103</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1299.638</v>
       </c>
       <c r="G33" t="n">
-        <v>-5014287.00050103</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>-5014187.00050103</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>302.2719</v>
       </c>
       <c r="G35" t="n">
-        <v>-5014187.00050103</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>14.7928</v>
       </c>
       <c r="G36" t="n">
-        <v>-5014201.79330103</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>213</v>
       </c>
       <c r="G37" t="n">
-        <v>-5014414.79330103</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>213</v>
       </c>
       <c r="G38" t="n">
-        <v>-5014414.79330103</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>10680</v>
       </c>
       <c r="G39" t="n">
-        <v>-5014414.79330103</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>5000</v>
       </c>
       <c r="G40" t="n">
-        <v>-5009414.79330103</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1690</v>
       </c>
       <c r="G41" t="n">
-        <v>-5009414.79330103</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1185.1709</v>
       </c>
       <c r="G42" t="n">
-        <v>-5008229.62240103</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1769.0387</v>
       </c>
       <c r="G43" t="n">
-        <v>-5008229.62240103</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>32084.9333</v>
       </c>
       <c r="G44" t="n">
-        <v>-5040314.555701029</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>663.4074000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>-5040314.555701029</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>194.611</v>
       </c>
       <c r="G46" t="n">
-        <v>-5040509.166701029</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>785.9027</v>
       </c>
       <c r="G47" t="n">
-        <v>-5041295.069401029</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>786.9638</v>
       </c>
       <c r="G48" t="n">
-        <v>-5041295.069401029</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>2990</v>
       </c>
       <c r="G49" t="n">
-        <v>-5038305.069401029</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1550</v>
       </c>
       <c r="G50" t="n">
-        <v>-5039855.069401029</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>8178.9934</v>
       </c>
       <c r="G51" t="n">
-        <v>-5039855.069401029</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>16563.0917</v>
       </c>
       <c r="G52" t="n">
-        <v>-5023291.97770103</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>2500</v>
       </c>
       <c r="G53" t="n">
-        <v>-5025791.97770103</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>272.5849</v>
       </c>
       <c r="G54" t="n">
-        <v>-5025519.39280103</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>195.2278</v>
       </c>
       <c r="G55" t="n">
-        <v>-5025324.165001029</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>14334.9252</v>
       </c>
       <c r="G56" t="n">
-        <v>-5010989.239801029</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1557</v>
       </c>
       <c r="G57" t="n">
-        <v>-5012546.239801029</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>160.5479</v>
       </c>
       <c r="G58" t="n">
-        <v>-5012706.787701028</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>6609.792</v>
       </c>
       <c r="G59" t="n">
-        <v>-5012706.787701028</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>-5012696.787701028</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>955.3244</v>
       </c>
       <c r="G61" t="n">
-        <v>-5012696.787701028</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>938.112</v>
       </c>
       <c r="G62" t="n">
-        <v>-5012696.787701028</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>267.6108</v>
       </c>
       <c r="G63" t="n">
-        <v>-5012964.398501028</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>-5012954.398501028</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>1852.9999</v>
       </c>
       <c r="G65" t="n">
-        <v>-5014807.398401028</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>655</v>
       </c>
       <c r="G66" t="n">
-        <v>-5014807.398401028</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>5460</v>
       </c>
       <c r="G67" t="n">
-        <v>-5020267.398401028</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1081</v>
       </c>
       <c r="G68" t="n">
-        <v>-5020267.398401028</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>935.7667</v>
       </c>
       <c r="G69" t="n">
-        <v>-5019331.631701029</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>-5019321.631701029</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>5174.583857248521</v>
       </c>
       <c r="G71" t="n">
-        <v>-5014147.04784378</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>150</v>
       </c>
       <c r="G72" t="n">
-        <v>-5014147.04784378</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>7770</v>
       </c>
       <c r="G73" t="n">
-        <v>-5021917.04784378</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>-5021907.04784378</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>3250</v>
       </c>
       <c r="G75" t="n">
-        <v>-5025157.04784378</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>-5025147.04784378</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>1010</v>
       </c>
       <c r="G77" t="n">
-        <v>-5025147.04784378</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>-5025137.04784378</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>161.2548</v>
       </c>
       <c r="G79" t="n">
-        <v>-5025298.302643781</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>426.9884</v>
       </c>
       <c r="G80" t="n">
-        <v>-5025298.302643781</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>2100</v>
       </c>
       <c r="G81" t="n">
-        <v>-5025298.302643781</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>171.3313</v>
       </c>
       <c r="G82" t="n">
-        <v>-5025126.971343781</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>-5025126.971343781</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>7572.3774</v>
       </c>
       <c r="G84" t="n">
-        <v>-5032699.348743781</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>2780</v>
       </c>
       <c r="G85" t="n">
-        <v>-5035479.348743781</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>-5035469.348743781</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>9072.2662</v>
       </c>
       <c r="G87" t="n">
-        <v>-5035469.348743781</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>33061.367</v>
       </c>
       <c r="G88" t="n">
-        <v>-5035469.348743781</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>3294</v>
       </c>
       <c r="G89" t="n">
-        <v>-5038763.348743781</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>1010</v>
       </c>
       <c r="G90" t="n">
-        <v>-5037753.348743781</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>11660</v>
       </c>
       <c r="G91" t="n">
-        <v>-5049413.348743781</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>3424.7</v>
       </c>
       <c r="G92" t="n">
-        <v>-5049413.348743781</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>920.6597</v>
       </c>
       <c r="G93" t="n">
-        <v>-5049413.348743781</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>7302.9999</v>
       </c>
       <c r="G94" t="n">
-        <v>-5049413.348743781</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>317.8137</v>
       </c>
       <c r="G95" t="n">
-        <v>-5049413.348743781</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>37519.6897</v>
       </c>
       <c r="G96" t="n">
-        <v>-5049413.348743781</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>3149</v>
       </c>
       <c r="G97" t="n">
-        <v>-5049413.348743781</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>1000</v>
       </c>
       <c r="G98" t="n">
-        <v>-5049413.348743781</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>17333.9999</v>
       </c>
       <c r="G99" t="n">
-        <v>-5049413.348743781</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>435.0939</v>
       </c>
       <c r="G100" t="n">
-        <v>-5049413.348743781</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>9509.8351</v>
       </c>
       <c r="G101" t="n">
-        <v>-5058923.18384378</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>1500</v>
       </c>
       <c r="G102" t="n">
-        <v>-5057423.18384378</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>1683.9999</v>
       </c>
       <c r="G103" t="n">
-        <v>-5057423.18384378</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>20540.4283</v>
       </c>
       <c r="G104" t="n">
-        <v>-5077963.61214378</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>105338.5905</v>
       </c>
       <c r="G105" t="n">
-        <v>-5183302.20264378</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>316.2636</v>
       </c>
       <c r="G106" t="n">
-        <v>-5183618.46624378</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>6975.4338</v>
       </c>
       <c r="G107" t="n">
-        <v>-5183618.46624378</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>2708.3026</v>
       </c>
       <c r="G108" t="n">
-        <v>-5183618.46624378</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>163.8502</v>
       </c>
       <c r="G109" t="n">
-        <v>-5183782.31644378</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>161.3313</v>
       </c>
       <c r="G110" t="n">
-        <v>-5183943.64774378</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>27.5075</v>
       </c>
       <c r="G111" t="n">
-        <v>-5183916.14024378</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>1086</v>
       </c>
       <c r="G112" t="n">
-        <v>-5185002.14024378</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>222</v>
       </c>
       <c r="G113" t="n">
-        <v>-5185002.14024378</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>5336.1004</v>
       </c>
       <c r="G114" t="n">
-        <v>-5190338.24064378</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>11541.3946</v>
       </c>
       <c r="G115" t="n">
-        <v>-5178796.84604378</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>1770.6686</v>
       </c>
       <c r="G116" t="n">
-        <v>-5180567.51464378</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>5312.0061</v>
       </c>
       <c r="G117" t="n">
-        <v>-5175255.50854378</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>27.4388</v>
       </c>
       <c r="G118" t="n">
-        <v>-5175255.50854378</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>7846.5551</v>
       </c>
       <c r="G119" t="n">
-        <v>-5175255.50854378</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>25214.8119</v>
       </c>
       <c r="G120" t="n">
-        <v>-5175255.50854378</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>12.4624</v>
       </c>
       <c r="G121" t="n">
-        <v>-5175243.04614378</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>22.406</v>
       </c>
       <c r="G122" t="n">
-        <v>-5175265.452143781</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>-5175265.452143781</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>1107.5609</v>
       </c>
       <c r="G124" t="n">
-        <v>-5176373.013043781</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>396</v>
       </c>
       <c r="G125" t="n">
-        <v>-5176373.013043781</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>110</v>
       </c>
       <c r="G126" t="n">
-        <v>-5176373.013043781</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>154</v>
       </c>
       <c r="G127" t="n">
-        <v>-5176373.013043781</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,22 +4223,15 @@
         <v>44</v>
       </c>
       <c r="G128" t="n">
-        <v>-5176373.013043781</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="J128" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4643,26 +4253,15 @@
         <v>11</v>
       </c>
       <c r="G129" t="n">
-        <v>-5176362.013043781</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="J129" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4684,26 +4283,19 @@
         <v>41.8341</v>
       </c>
       <c r="G130" t="n">
-        <v>-5176320.178943781</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>66.2</v>
       </c>
       <c r="I130" t="n">
         <v>66.2</v>
       </c>
-      <c r="J130" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4725,22 +4317,23 @@
         <v>3460</v>
       </c>
       <c r="G131" t="n">
-        <v>-5172860.178943781</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>66.3</v>
       </c>
       <c r="I131" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="J131" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>66.2</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4762,26 +4355,23 @@
         <v>51664.9714</v>
       </c>
       <c r="G132" t="n">
-        <v>-5121195.207543781</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>66.5</v>
       </c>
       <c r="I132" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J132" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K132" t="inlineStr">
+        <v>66.2</v>
+      </c>
+      <c r="J132" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4803,26 +4393,23 @@
         <v>5000</v>
       </c>
       <c r="G133" t="n">
-        <v>-5126195.207543781</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>66.7</v>
       </c>
       <c r="I133" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="J133" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>66.2</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4844,22 +4431,23 @@
         <v>3701.9998</v>
       </c>
       <c r="G134" t="n">
-        <v>-5126195.207543781</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I134" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J134" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>66.2</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4881,26 +4469,23 @@
         <v>6605.3748</v>
       </c>
       <c r="G135" t="n">
-        <v>-5126195.207543781</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I135" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J135" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>66.2</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4922,26 +4507,23 @@
         <v>11549.8113</v>
       </c>
       <c r="G136" t="n">
-        <v>-5126195.207543781</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I136" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J136" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>66.2</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4963,22 +4545,21 @@
         <v>20530</v>
       </c>
       <c r="G137" t="n">
-        <v>-5105665.207543781</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J137" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>66.2</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5000,24 +4581,21 @@
         <v>2034.2875</v>
       </c>
       <c r="G138" t="n">
-        <v>-5107699.495043781</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5039,24 +4617,21 @@
         <v>63964.3362</v>
       </c>
       <c r="G139" t="n">
-        <v>-5043735.158843781</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5078,18 +4653,21 @@
         <v>20875.5413</v>
       </c>
       <c r="G140" t="n">
-        <v>-5022859.617543781</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5111,18 +4689,21 @@
         <v>291.5032</v>
       </c>
       <c r="G141" t="n">
-        <v>-5023151.120743781</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5144,18 +4725,21 @@
         <v>131.1002</v>
       </c>
       <c r="G142" t="n">
-        <v>-5023151.120743781</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5177,18 +4761,21 @@
         <v>929.5757</v>
       </c>
       <c r="G143" t="n">
-        <v>-5024080.696443781</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5210,18 +4797,21 @@
         <v>610</v>
       </c>
       <c r="G144" t="n">
-        <v>-5024080.696443781</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5243,18 +4833,21 @@
         <v>476.4</v>
       </c>
       <c r="G145" t="n">
-        <v>-5024080.696443781</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5276,18 +4869,21 @@
         <v>5000</v>
       </c>
       <c r="G146" t="n">
-        <v>-5019080.696443781</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5309,18 +4905,21 @@
         <v>1013</v>
       </c>
       <c r="G147" t="n">
-        <v>-5019080.696443781</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5342,18 +4941,21 @@
         <v>3874.9999</v>
       </c>
       <c r="G148" t="n">
-        <v>-5019080.696443781</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5375,18 +4977,21 @@
         <v>661.7488</v>
       </c>
       <c r="G149" t="n">
-        <v>-5019080.696443781</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5408,18 +5013,21 @@
         <v>29046.3214</v>
       </c>
       <c r="G150" t="n">
-        <v>-5019080.696443781</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5441,18 +5049,21 @@
         <v>28954.2635</v>
       </c>
       <c r="G151" t="n">
-        <v>-4990126.432943781</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5474,18 +5085,21 @@
         <v>54501.9315</v>
       </c>
       <c r="G152" t="n">
-        <v>-4935624.501443781</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5507,18 +5121,21 @@
         <v>2478.3209</v>
       </c>
       <c r="G153" t="n">
-        <v>-4935624.501443781</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5540,18 +5157,21 @@
         <v>2000</v>
       </c>
       <c r="G154" t="n">
-        <v>-4937624.501443781</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5573,18 +5193,21 @@
         <v>489.6335</v>
       </c>
       <c r="G155" t="n">
-        <v>-4937134.86794378</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5606,18 +5229,21 @@
         <v>90170.14479999999</v>
       </c>
       <c r="G156" t="n">
-        <v>-4846964.723143781</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5639,18 +5265,21 @@
         <v>14767.77545207715</v>
       </c>
       <c r="G157" t="n">
-        <v>-4832196.947691703</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5672,18 +5301,21 @@
         <v>36</v>
       </c>
       <c r="G158" t="n">
-        <v>-4832196.947691703</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5705,18 +5337,21 @@
         <v>600.1708</v>
       </c>
       <c r="G159" t="n">
-        <v>-4832797.118491704</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5738,18 +5373,21 @@
         <v>115.8753</v>
       </c>
       <c r="G160" t="n">
-        <v>-4832681.243191703</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5771,18 +5409,21 @@
         <v>49138.9955</v>
       </c>
       <c r="G161" t="n">
-        <v>-4783542.247691703</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5804,18 +5445,21 @@
         <v>769.843</v>
       </c>
       <c r="G162" t="n">
-        <v>-4783542.247691703</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5837,18 +5481,21 @@
         <v>19315.3768</v>
       </c>
       <c r="G163" t="n">
-        <v>-4764226.870891703</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5870,18 +5517,21 @@
         <v>6472.756</v>
       </c>
       <c r="G164" t="n">
-        <v>-4770699.626891703</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5903,18 +5553,21 @@
         <v>763.4999</v>
       </c>
       <c r="G165" t="n">
-        <v>-4770699.626891703</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5936,18 +5589,21 @@
         <v>763.4999</v>
       </c>
       <c r="G166" t="n">
-        <v>-4770699.626891703</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5969,18 +5625,21 @@
         <v>1558</v>
       </c>
       <c r="G167" t="n">
-        <v>-4770699.626891703</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6002,18 +5661,21 @@
         <v>4478.9556</v>
       </c>
       <c r="G168" t="n">
-        <v>-4766220.671291703</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6035,18 +5697,21 @@
         <v>1878.8647</v>
       </c>
       <c r="G169" t="n">
-        <v>-4766220.671291703</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6068,18 +5733,21 @@
         <v>1789.0475</v>
       </c>
       <c r="G170" t="n">
-        <v>-4766220.671291703</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6101,18 +5769,21 @@
         <v>951</v>
       </c>
       <c r="G171" t="n">
-        <v>-4766220.671291703</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6134,18 +5805,21 @@
         <v>1759.0899</v>
       </c>
       <c r="G172" t="n">
-        <v>-4766220.671291703</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6167,18 +5841,21 @@
         <v>4876</v>
       </c>
       <c r="G173" t="n">
-        <v>-4766220.671291703</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6200,18 +5877,21 @@
         <v>1221.9999</v>
       </c>
       <c r="G174" t="n">
-        <v>-4766220.671291703</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6233,18 +5913,21 @@
         <v>100</v>
       </c>
       <c r="G175" t="n">
-        <v>-4766120.671291703</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6266,18 +5949,21 @@
         <v>27823.9999</v>
       </c>
       <c r="G176" t="n">
-        <v>-4793944.671191704</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6299,18 +5985,21 @@
         <v>2263</v>
       </c>
       <c r="G177" t="n">
-        <v>-4793944.671191704</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6332,18 +6021,21 @@
         <v>5972</v>
       </c>
       <c r="G178" t="n">
-        <v>-4793944.671191704</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6365,18 +6057,21 @@
         <v>105.9731</v>
       </c>
       <c r="G179" t="n">
-        <v>-4793944.671191704</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6398,18 +6093,21 @@
         <v>7000.145</v>
       </c>
       <c r="G180" t="n">
-        <v>-4793944.671191704</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6431,18 +6129,21 @@
         <v>275.5487</v>
       </c>
       <c r="G181" t="n">
-        <v>-4793669.122491703</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6464,18 +6165,21 @@
         <v>251.9618</v>
       </c>
       <c r="G182" t="n">
-        <v>-4793669.122491703</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6497,18 +6201,21 @@
         <v>213.7521</v>
       </c>
       <c r="G183" t="n">
-        <v>-4793669.122491703</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6530,18 +6237,21 @@
         <v>900</v>
       </c>
       <c r="G184" t="n">
-        <v>-4793669.122491703</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6563,18 +6273,21 @@
         <v>2026.9999</v>
       </c>
       <c r="G185" t="n">
-        <v>-4793669.122491703</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6596,18 +6309,21 @@
         <v>1000</v>
       </c>
       <c r="G186" t="n">
-        <v>-4792669.122491703</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6629,18 +6345,21 @@
         <v>10454.1939</v>
       </c>
       <c r="G187" t="n">
-        <v>-4803123.316391704</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6662,18 +6381,21 @@
         <v>47501.549</v>
       </c>
       <c r="G188" t="n">
-        <v>-4755621.767391704</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6695,18 +6417,21 @@
         <v>2155.9999</v>
       </c>
       <c r="G189" t="n">
-        <v>-4753465.767491704</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6728,18 +6453,21 @@
         <v>18783.8296</v>
       </c>
       <c r="G190" t="n">
-        <v>-4753465.767491704</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6761,18 +6489,21 @@
         <v>14.7492</v>
       </c>
       <c r="G191" t="n">
-        <v>-4753480.516691704</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6794,18 +6525,21 @@
         <v>3108.6395</v>
       </c>
       <c r="G192" t="n">
-        <v>-4756589.156191704</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6827,18 +6561,21 @@
         <v>123533.7695866473</v>
       </c>
       <c r="G193" t="n">
-        <v>-4633055.386605057</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6860,18 +6597,21 @@
         <v>27019.1959</v>
       </c>
       <c r="G194" t="n">
-        <v>-4606036.190705057</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6893,18 +6633,21 @@
         <v>3049.9707</v>
       </c>
       <c r="G195" t="n">
-        <v>-4609086.161405058</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6926,18 +6669,21 @@
         <v>1502</v>
       </c>
       <c r="G196" t="n">
-        <v>-4610588.161405058</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6959,18 +6705,21 @@
         <v>7172.9446</v>
       </c>
       <c r="G197" t="n">
-        <v>-4603415.216805058</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6992,18 +6741,21 @@
         <v>21532.9377</v>
       </c>
       <c r="G198" t="n">
-        <v>-4603415.216805058</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7025,18 +6777,21 @@
         <v>1603.3868</v>
       </c>
       <c r="G199" t="n">
-        <v>-4603415.216805058</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7058,18 +6813,21 @@
         <v>1835.9999</v>
       </c>
       <c r="G200" t="n">
-        <v>-4603415.216805058</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7091,18 +6849,21 @@
         <v>10423.8775</v>
       </c>
       <c r="G201" t="n">
-        <v>-4603415.216805058</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7124,18 +6885,21 @@
         <v>104.0064</v>
       </c>
       <c r="G202" t="n">
-        <v>-4603311.210405057</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7157,18 +6921,21 @@
         <v>1500</v>
       </c>
       <c r="G203" t="n">
-        <v>-4603311.210405057</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7190,18 +6957,21 @@
         <v>8470</v>
       </c>
       <c r="G204" t="n">
-        <v>-4603311.210405057</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7223,18 +6993,21 @@
         <v>14690.4341</v>
       </c>
       <c r="G205" t="n">
-        <v>-4618001.644505057</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7256,18 +7029,21 @@
         <v>1853.8483</v>
       </c>
       <c r="G206" t="n">
-        <v>-4618001.644505057</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7289,18 +7065,21 @@
         <v>10</v>
       </c>
       <c r="G207" t="n">
-        <v>-4617991.644505057</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7322,18 +7101,21 @@
         <v>951.683</v>
       </c>
       <c r="G208" t="n">
-        <v>-4617991.644505057</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7355,18 +7137,21 @@
         <v>1158.6551</v>
       </c>
       <c r="G209" t="n">
-        <v>-4617991.644505057</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7388,18 +7173,21 @@
         <v>3630</v>
       </c>
       <c r="G210" t="n">
-        <v>-4617991.644505057</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7421,18 +7209,21 @@
         <v>7260</v>
       </c>
       <c r="G211" t="n">
-        <v>-4617991.644505057</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7454,18 +7245,21 @@
         <v>6023.8175</v>
       </c>
       <c r="G212" t="n">
-        <v>-4611967.827005058</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7487,18 +7281,21 @@
         <v>119317.8599</v>
       </c>
       <c r="G213" t="n">
-        <v>-4611967.827005058</v>
-      </c>
-      <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7520,18 +7317,21 @@
         <v>1315.6477</v>
       </c>
       <c r="G214" t="n">
-        <v>-4610652.179305058</v>
-      </c>
-      <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7553,18 +7353,21 @@
         <v>25020</v>
       </c>
       <c r="G215" t="n">
-        <v>-4610652.179305058</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7586,18 +7389,21 @@
         <v>3500</v>
       </c>
       <c r="G216" t="n">
-        <v>-4614152.179305058</v>
-      </c>
-      <c r="H216" t="n">
         <v>2</v>
       </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1.029743202416918</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7619,18 +7425,15 @@
         <v>13033.4569</v>
       </c>
       <c r="G217" t="n">
-        <v>-4627185.636205058</v>
-      </c>
-      <c r="H217" t="n">
         <v>2</v>
       </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7652,18 +7455,15 @@
         <v>14531.68099085631</v>
       </c>
       <c r="G218" t="n">
-        <v>-4612653.955214201</v>
-      </c>
-      <c r="H218" t="n">
         <v>2</v>
       </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7685,18 +7485,15 @@
         <v>29539.3475</v>
       </c>
       <c r="G219" t="n">
-        <v>-4642193.302714202</v>
-      </c>
-      <c r="H219" t="n">
         <v>2</v>
       </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7718,18 +7515,15 @@
         <v>1590</v>
       </c>
       <c r="G220" t="n">
-        <v>-4640603.302714202</v>
-      </c>
-      <c r="H220" t="n">
         <v>2</v>
       </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7751,18 +7545,15 @@
         <v>11966.0792</v>
       </c>
       <c r="G221" t="n">
-        <v>-4640603.302714202</v>
-      </c>
-      <c r="H221" t="n">
         <v>2</v>
       </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7784,18 +7575,15 @@
         <v>5056.9999</v>
       </c>
       <c r="G222" t="n">
-        <v>-4645660.302614202</v>
-      </c>
-      <c r="H222" t="n">
         <v>2</v>
       </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7817,18 +7605,15 @@
         <v>10</v>
       </c>
       <c r="G223" t="n">
-        <v>-4645650.302614202</v>
-      </c>
-      <c r="H223" t="n">
         <v>2</v>
       </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7850,18 +7635,15 @@
         <v>38797.0131</v>
       </c>
       <c r="G224" t="n">
-        <v>-4684447.315714202</v>
-      </c>
-      <c r="H224" t="n">
         <v>2</v>
       </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7883,18 +7665,15 @@
         <v>12124.677</v>
       </c>
       <c r="G225" t="n">
-        <v>-4684447.315714202</v>
-      </c>
-      <c r="H225" t="n">
         <v>2</v>
       </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7916,18 +7695,15 @@
         <v>12931.721</v>
       </c>
       <c r="G226" t="n">
-        <v>-4697379.036714202</v>
-      </c>
-      <c r="H226" t="n">
         <v>2</v>
       </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7949,18 +7725,15 @@
         <v>3335.9647</v>
       </c>
       <c r="G227" t="n">
-        <v>-4697379.036714202</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7982,18 +7755,15 @@
         <v>503.9939</v>
       </c>
       <c r="G228" t="n">
-        <v>-4697379.036714202</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8015,18 +7785,15 @@
         <v>15306.6229</v>
       </c>
       <c r="G229" t="n">
-        <v>-4682072.413814202</v>
-      </c>
-      <c r="H229" t="n">
         <v>2</v>
       </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8048,18 +7815,15 @@
         <v>15900</v>
       </c>
       <c r="G230" t="n">
-        <v>-4666172.413814202</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8081,18 +7845,15 @@
         <v>72793.2896</v>
       </c>
       <c r="G231" t="n">
-        <v>-4666172.413814202</v>
-      </c>
-      <c r="H231" t="n">
         <v>2</v>
       </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8114,18 +7875,15 @@
         <v>2080</v>
       </c>
       <c r="G232" t="n">
-        <v>-4668252.413814202</v>
-      </c>
-      <c r="H232" t="n">
         <v>2</v>
       </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8147,18 +7905,15 @@
         <v>207681</v>
       </c>
       <c r="G233" t="n">
-        <v>-4875933.413814202</v>
-      </c>
-      <c r="H233" t="n">
         <v>2</v>
       </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8180,18 +7935,15 @@
         <v>278.3724</v>
       </c>
       <c r="G234" t="n">
-        <v>-4875655.041414202</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8213,18 +7965,15 @@
         <v>13999</v>
       </c>
       <c r="G235" t="n">
-        <v>-4889654.041414202</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8246,18 +7995,15 @@
         <v>24682.4888</v>
       </c>
       <c r="G236" t="n">
-        <v>-4914336.530214203</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8279,18 +8025,15 @@
         <v>564</v>
       </c>
       <c r="G237" t="n">
-        <v>-4913772.530214203</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8312,18 +8055,15 @@
         <v>4415.2863</v>
       </c>
       <c r="G238" t="n">
-        <v>-4913772.530214203</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8345,18 +8085,15 @@
         <v>1510</v>
       </c>
       <c r="G239" t="n">
-        <v>-4913772.530214203</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8378,18 +8115,15 @@
         <v>2000</v>
       </c>
       <c r="G240" t="n">
-        <v>-4915772.530214203</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8411,18 +8145,15 @@
         <v>1312.3586</v>
       </c>
       <c r="G241" t="n">
-        <v>-4917084.888814203</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8444,18 +8175,15 @@
         <v>3114.6549</v>
       </c>
       <c r="G242" t="n">
-        <v>-4913970.233914202</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8477,18 +8205,15 @@
         <v>13688</v>
       </c>
       <c r="G243" t="n">
-        <v>-4927658.233914202</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8510,18 +8235,15 @@
         <v>12000</v>
       </c>
       <c r="G244" t="n">
-        <v>-4915658.233914202</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8543,18 +8265,15 @@
         <v>1710</v>
       </c>
       <c r="G245" t="n">
-        <v>-4917368.233914202</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8576,18 +8295,15 @@
         <v>13290</v>
       </c>
       <c r="G246" t="n">
-        <v>-4917368.233914202</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8609,18 +8325,15 @@
         <v>16897.76</v>
       </c>
       <c r="G247" t="n">
-        <v>-4917368.233914202</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8642,18 +8355,15 @@
         <v>13922.401</v>
       </c>
       <c r="G248" t="n">
-        <v>-4931290.634914202</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8675,18 +8385,15 @@
         <v>0.0001</v>
       </c>
       <c r="G249" t="n">
-        <v>-4931290.634914202</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8708,18 +8415,15 @@
         <v>14849</v>
       </c>
       <c r="G250" t="n">
-        <v>-4916441.634914202</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8741,18 +8445,15 @@
         <v>1840.7161</v>
       </c>
       <c r="G251" t="n">
-        <v>-4918282.351014202</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
